--- a/study_algo_record_date.xlsx
+++ b/study_algo_record_date.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\강민지\알고리즘 스터디\with 김민영\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\강민지\알고리즘 공부\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11647C7D-CD75-45A3-93FB-5536E63BC5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A2FF8D-9B8A-4012-A8D6-F446FCF98B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="990" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{142D3439-D715-4BB9-B0EC-A88EA240EC91}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{142D3439-D715-4BB9-B0EC-A88EA240EC91}"/>
   </bookViews>
   <sheets>
     <sheet name="기초" sheetId="1" r:id="rId1"/>
@@ -1134,6 +1134,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1358,7 +1361,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1398,15 +1401,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1425,17 +1419,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1454,6 +1442,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1777,14 +1783,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BB14CC-8ABA-4B8B-A76E-400F1F796DB0}">
   <dimension ref="A1:S86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9.25" customWidth="1"/>
     <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
     <col min="10" max="10" width="9.75" customWidth="1"/>
@@ -1794,16 +1801,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1823,7 +1830,9 @@
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="32">
+        <v>44508</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
@@ -1906,26 +1915,26 @@
       <c r="S13" s="12"/>
     </row>
     <row r="14" spans="1:19" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
-      <c r="F15" s="13" t="s">
+      <c r="C15" s="28"/>
+      <c r="D15" s="29"/>
+      <c r="F15" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
-      <c r="J15" s="13" t="s">
+      <c r="G15" s="28"/>
+      <c r="H15" s="29"/>
+      <c r="J15" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="K15" s="14"/>
-      <c r="L15" s="15"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="29"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
@@ -2162,16 +2171,16 @@
       <c r="D26" s="5"/>
     </row>
     <row r="27" spans="2:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="15"/>
-      <c r="F27" s="13" t="s">
+      <c r="C27" s="28"/>
+      <c r="D27" s="29"/>
+      <c r="F27" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="15"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="29"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
@@ -2282,24 +2291,24 @@
       <c r="H34" s="5"/>
     </row>
     <row r="36" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="15"/>
-      <c r="F37" s="13" t="s">
+      <c r="C37" s="28"/>
+      <c r="D37" s="29"/>
+      <c r="F37" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="G37" s="14"/>
-      <c r="H37" s="15"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="29"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -2308,7 +2317,7 @@
       <c r="D38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F38" s="17" t="s">
+      <c r="F38" s="14" t="s">
         <v>0</v>
       </c>
       <c r="G38" s="1" t="s">
@@ -2543,24 +2552,24 @@
       <c r="H53" s="5"/>
     </row>
     <row r="55" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="13" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="C56" s="14"/>
-      <c r="D56" s="15"/>
-      <c r="F56" s="13" t="s">
+      <c r="C56" s="28"/>
+      <c r="D56" s="29"/>
+      <c r="F56" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="G56" s="14"/>
-      <c r="H56" s="15"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="29"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -2569,7 +2578,7 @@
       <c r="D57" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F57" s="17" t="s">
+      <c r="F57" s="14" t="s">
         <v>0</v>
       </c>
       <c r="G57" s="1" t="s">
@@ -2725,19 +2734,19 @@
       <c r="D68" s="5"/>
     </row>
     <row r="69" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A69" s="16" t="s">
+      <c r="A69" s="13" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B70" s="13" t="s">
+      <c r="B70" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="C70" s="14"/>
-      <c r="D70" s="15"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="29"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B71" s="17" t="s">
+      <c r="B71" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -2884,6 +2893,10 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="J15:L15"/>
     <mergeCell ref="B70:D70"/>
     <mergeCell ref="F27:H27"/>
     <mergeCell ref="B27:D27"/>
@@ -2891,10 +2904,6 @@
     <mergeCell ref="F37:H37"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="F56:H56"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="J15:L15"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2917,717 +2926,717 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="F2" s="22" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="F2" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="19">
+      <c r="B4" s="16">
         <v>6603</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="F4" s="19">
+      <c r="D4" s="18"/>
+      <c r="F4" s="16">
         <v>2003</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="H4" s="21"/>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="19">
+      <c r="B5" s="16">
         <v>1182</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="F5" s="19">
+      <c r="D5" s="18"/>
+      <c r="F5" s="16">
         <v>1806</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="H5" s="21"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="19">
+      <c r="B6" s="16">
         <v>14225</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="F6" s="19">
+      <c r="D6" s="18"/>
+      <c r="F6" s="16">
         <v>1644</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="H6" s="21"/>
+      <c r="H6" s="18"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="19">
+      <c r="B7" s="16">
         <v>14888</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="F7" s="19">
+      <c r="D7" s="18"/>
+      <c r="F7" s="16">
         <v>1208</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="H7" s="21"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="19">
+      <c r="B8" s="16">
         <v>15658</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="F8" s="23">
+      <c r="D8" s="18"/>
+      <c r="F8" s="19">
         <v>2143</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="H8" s="21"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="19">
+      <c r="B9" s="16">
         <v>14500</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="21"/>
+      <c r="D9" s="18"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="19">
+      <c r="B10" s="16">
         <v>16197</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="21"/>
+      <c r="D10" s="18"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="19">
+      <c r="B11" s="16">
         <v>16198</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="21"/>
+      <c r="D11" s="18"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="19">
+      <c r="B12" s="16">
         <v>9663</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="D12" s="21"/>
+      <c r="D12" s="18"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="23">
+      <c r="B13" s="19">
         <v>2580</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="21"/>
+      <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="23">
+      <c r="B14" s="19">
         <v>4574</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="21"/>
+      <c r="D14" s="18"/>
     </row>
     <row r="16" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="F16" s="22" t="s">
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="F16" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="19">
+      <c r="B18" s="16">
         <v>14225</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="F18" s="19">
+      <c r="D18" s="18"/>
+      <c r="F18" s="16">
         <v>2529</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="21"/>
+      <c r="H18" s="18"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="19">
+      <c r="B19" s="16">
         <v>1062</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="F19" s="19">
+      <c r="D19" s="18"/>
+      <c r="F19" s="16">
         <v>1339</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="H19" s="21"/>
+      <c r="H19" s="18"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="19">
+      <c r="B20" s="16">
         <v>13460</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="F20" s="19">
+      <c r="D20" s="18"/>
+      <c r="F20" s="16">
         <v>14888</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="H20" s="21"/>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="19">
+      <c r="B21" s="16">
         <v>12100</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="F21" s="19">
+      <c r="D21" s="18"/>
+      <c r="F21" s="16">
         <v>14889</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="21"/>
+      <c r="H21" s="18"/>
     </row>
     <row r="23" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="13" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="F24" s="22" t="s">
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="F24" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H25" s="18" t="s">
+      <c r="H25" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="19">
+      <c r="B26" s="16">
         <v>16928</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="F26" s="19">
+      <c r="D26" s="18"/>
+      <c r="F26" s="16">
         <v>16929</v>
       </c>
-      <c r="G26" s="20" t="s">
+      <c r="G26" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="H26" s="21"/>
+      <c r="H26" s="18"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="19">
+      <c r="B27" s="16">
         <v>16948</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="F27" s="19">
+      <c r="D27" s="18"/>
+      <c r="F27" s="16">
         <v>16947</v>
       </c>
-      <c r="G27" s="20" t="s">
+      <c r="G27" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="H27" s="21"/>
+      <c r="H27" s="18"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="19">
+      <c r="B28" s="16">
         <v>14502</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="F28" s="19">
+      <c r="D28" s="18"/>
+      <c r="F28" s="16">
         <v>12946</v>
       </c>
-      <c r="G28" s="20" t="s">
+      <c r="G28" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="H28" s="21"/>
+      <c r="H28" s="18"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="19">
+      <c r="B29" s="16">
         <v>12886</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="F29" s="19">
+      <c r="D29" s="18"/>
+      <c r="F29" s="16">
         <v>16940</v>
       </c>
-      <c r="G29" s="20" t="s">
+      <c r="G29" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="H29" s="21"/>
+      <c r="H29" s="18"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="19">
+      <c r="B30" s="16">
         <v>2206</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="D30" s="21"/>
-      <c r="F30" s="23">
+      <c r="D30" s="18"/>
+      <c r="F30" s="19">
         <v>16964</v>
       </c>
-      <c r="G30" s="24" t="s">
+      <c r="G30" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="H30" s="21"/>
+      <c r="H30" s="18"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="19">
+      <c r="B31" s="16">
         <v>16946</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="21"/>
+      <c r="D31" s="18"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="19">
+      <c r="B32" s="16">
         <v>14442</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="D32" s="21"/>
+      <c r="D32" s="18"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="19">
+      <c r="B33" s="16">
         <v>16933</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="D33" s="21"/>
+      <c r="D33" s="18"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="19">
+      <c r="B34" s="16">
         <v>16954</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="D34" s="21"/>
+      <c r="D34" s="18"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="23">
+      <c r="B35" s="19">
         <v>16236</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="D35" s="21"/>
+      <c r="D35" s="18"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="23">
+      <c r="B36" s="19">
         <v>6087</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D36" s="21"/>
+      <c r="D36" s="18"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="23">
+      <c r="B37" s="19">
         <v>1963</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="D37" s="21"/>
+      <c r="D37" s="18"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="23">
+      <c r="B38" s="19">
         <v>10026</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="D38" s="21"/>
+      <c r="D38" s="18"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="23">
+      <c r="B39" s="19">
         <v>14395</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="D39" s="21"/>
+      <c r="D39" s="18"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="23">
+      <c r="B40" s="19">
         <v>5014</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="D40" s="21"/>
+      <c r="D40" s="18"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="23">
+      <c r="B41" s="19">
         <v>9376</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="D41" s="21"/>
+      <c r="D41" s="18"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="23">
+      <c r="B42" s="19">
         <v>1600</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="D42" s="21"/>
+      <c r="D42" s="18"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="23">
+      <c r="B43" s="19">
         <v>17086</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="D43" s="21"/>
+      <c r="D43" s="18"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="23">
+      <c r="B44" s="19">
         <v>4991</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C44" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D44" s="21"/>
+      <c r="D44" s="18"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="23">
+      <c r="B45" s="19">
         <v>2234</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="D45" s="21"/>
+      <c r="D45" s="18"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="23">
+      <c r="B46" s="19">
         <v>12906</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C46" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D46" s="21"/>
+      <c r="D46" s="18"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="23">
+      <c r="B47" s="19">
         <v>17141</v>
       </c>
-      <c r="C47" s="24" t="s">
+      <c r="C47" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="D47" s="21"/>
+      <c r="D47" s="18"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B48" s="23">
+      <c r="B48" s="19">
         <v>17142</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="D48" s="21"/>
+      <c r="D48" s="18"/>
     </row>
     <row r="50" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D52" s="18" t="s">
+      <c r="D52" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B53" s="19">
+      <c r="B53" s="16">
         <v>11048</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="D53" s="21"/>
+      <c r="D53" s="18"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B54" s="19">
+      <c r="B54" s="16">
         <v>11060</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="D54" s="21"/>
+      <c r="D54" s="18"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B55" s="19">
+      <c r="B55" s="16">
         <v>10942</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="D55" s="21"/>
+      <c r="D55" s="18"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B56" s="19">
+      <c r="B56" s="16">
         <v>15989</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="D56" s="21"/>
+      <c r="D56" s="18"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B57" s="19">
+      <c r="B57" s="16">
         <v>11066</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="D57" s="21"/>
+      <c r="D57" s="18"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B58" s="19">
+      <c r="B58" s="16">
         <v>12865</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="D58" s="21"/>
+      <c r="D58" s="18"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B59" s="19">
+      <c r="B59" s="16">
         <v>1495</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="D59" s="21"/>
+      <c r="D59" s="18"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B60" s="19">
+      <c r="B60" s="16">
         <v>12869</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="D60" s="21"/>
+      <c r="D60" s="18"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="19">
+      <c r="B61" s="16">
         <v>10422</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="D61" s="21"/>
+      <c r="D61" s="18"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B62" s="23">
+      <c r="B62" s="19">
         <v>2293</v>
       </c>
-      <c r="C62" s="24" t="s">
+      <c r="C62" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="D62" s="21"/>
+      <c r="D62" s="18"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B63" s="23">
+      <c r="B63" s="19">
         <v>2294</v>
       </c>
-      <c r="C63" s="24" t="s">
+      <c r="C63" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D63" s="21"/>
+      <c r="D63" s="18"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B64" s="23">
+      <c r="B64" s="19">
         <v>11058</v>
       </c>
-      <c r="C64" s="24" t="s">
+      <c r="C64" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="D64" s="21"/>
+      <c r="D64" s="18"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B65" s="23">
+      <c r="B65" s="19">
         <v>9251</v>
       </c>
-      <c r="C65" s="24" t="s">
+      <c r="C65" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="D65" s="21"/>
+      <c r="D65" s="18"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B66" s="23">
+      <c r="B66" s="19">
         <v>9252</v>
       </c>
-      <c r="C66" s="24" t="s">
+      <c r="C66" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="D66" s="21"/>
+      <c r="D66" s="18"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B67" s="23">
+      <c r="B67" s="19">
         <v>5582</v>
       </c>
-      <c r="C67" s="24" t="s">
+      <c r="C67" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="D67" s="21"/>
+      <c r="D67" s="18"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B68" s="23">
+      <c r="B68" s="19">
         <v>5557</v>
       </c>
-      <c r="C68" s="24" t="s">
+      <c r="C68" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="D68" s="21"/>
+      <c r="D68" s="18"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B69" s="8"/>
@@ -3635,144 +3644,144 @@
       <c r="D69" s="5"/>
     </row>
     <row r="70" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A70" s="16" t="s">
+      <c r="A70" s="13" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B71" s="22" t="s">
+      <c r="B71" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B72" s="18" t="s">
+      <c r="B72" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="C72" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D72" s="18" t="s">
+      <c r="D72" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B73" s="19">
+      <c r="B73" s="16">
         <v>16234</v>
       </c>
-      <c r="C73" s="20" t="s">
+      <c r="C73" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="D73" s="21"/>
+      <c r="D73" s="18"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B74" s="19">
+      <c r="B74" s="16">
         <v>16235</v>
       </c>
-      <c r="C74" s="20" t="s">
+      <c r="C74" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="D74" s="21"/>
+      <c r="D74" s="18"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B75" s="19">
+      <c r="B75" s="16">
         <v>17144</v>
       </c>
-      <c r="C75" s="20" t="s">
+      <c r="C75" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="D75" s="21"/>
+      <c r="D75" s="18"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B76" s="19">
+      <c r="B76" s="16">
         <v>17143</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="C76" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="D76" s="21"/>
+      <c r="D76" s="18"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B77" s="19">
+      <c r="B77" s="16">
         <v>17140</v>
       </c>
-      <c r="C77" s="20" t="s">
+      <c r="C77" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="D77" s="21"/>
+      <c r="D77" s="18"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B78" s="19">
+      <c r="B78" s="16">
         <v>17780</v>
       </c>
-      <c r="C78" s="20" t="s">
+      <c r="C78" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="D78" s="21"/>
+      <c r="D78" s="18"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B79" s="19">
+      <c r="B79" s="16">
         <v>17837</v>
       </c>
-      <c r="C79" s="20" t="s">
+      <c r="C79" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="D79" s="21"/>
+      <c r="D79" s="18"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B80" s="19">
+      <c r="B80" s="16">
         <v>17822</v>
       </c>
-      <c r="C80" s="20" t="s">
+      <c r="C80" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="D80" s="21"/>
+      <c r="D80" s="18"/>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B81" s="19">
+      <c r="B81" s="16">
         <v>16939</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="C81" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="D81" s="21"/>
+      <c r="D81" s="18"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B82" s="23">
+      <c r="B82" s="19">
         <v>16974</v>
       </c>
-      <c r="C82" s="24" t="s">
+      <c r="C82" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="D82" s="21"/>
+      <c r="D82" s="18"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B83" s="23">
+      <c r="B83" s="19">
         <v>20061</v>
       </c>
-      <c r="C83" s="24" t="s">
+      <c r="C83" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="D83" s="21"/>
+      <c r="D83" s="18"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B84" s="23">
+      <c r="B84" s="19">
         <v>19236</v>
       </c>
-      <c r="C84" s="24" t="s">
+      <c r="C84" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="D84" s="21"/>
+      <c r="D84" s="18"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B85" s="23">
+      <c r="B85" s="19">
         <v>19237</v>
       </c>
-      <c r="C85" s="24" t="s">
+      <c r="C85" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="D85" s="21"/>
+      <c r="D85" s="18"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B86" s="8"/>
@@ -3809,7 +3818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87108816-9E81-4347-B1EF-130EF0192395}">
   <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+    <sheetView topLeftCell="A42" workbookViewId="0">
       <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
@@ -3821,564 +3830,564 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="F2" s="25" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="F2" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="J2" s="25" t="s">
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="J2" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="L3" s="21" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="27">
+      <c r="B4" s="22">
         <v>16968</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="F4" s="27">
+      <c r="D4" s="24"/>
+      <c r="F4" s="22">
         <v>17779</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="H4" s="29"/>
-      <c r="J4" s="27">
+      <c r="H4" s="24"/>
+      <c r="J4" s="22">
         <v>16985</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="L4" s="29"/>
+      <c r="L4" s="24"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="27">
+      <c r="B5" s="22">
         <v>16917</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="F5" s="27">
+      <c r="D5" s="24"/>
+      <c r="F5" s="22">
         <v>17070</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="H5" s="29"/>
-      <c r="J5" s="27">
+      <c r="H5" s="24"/>
+      <c r="J5" s="22">
         <v>17090</v>
       </c>
-      <c r="K5" s="28" t="s">
+      <c r="K5" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="L5" s="29"/>
+      <c r="L5" s="24"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="27">
+      <c r="B6" s="22">
         <v>16922</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="F6" s="27">
+      <c r="D6" s="24"/>
+      <c r="F6" s="22">
         <v>17069</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="H6" s="29"/>
-      <c r="J6" s="27">
+      <c r="H6" s="24"/>
+      <c r="J6" s="22">
         <v>12931</v>
       </c>
-      <c r="K6" s="28" t="s">
+      <c r="K6" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="L6" s="29"/>
+      <c r="L6" s="24"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="27">
+      <c r="B7" s="22">
         <v>16924</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="F7" s="27">
+      <c r="D7" s="24"/>
+      <c r="F7" s="22">
         <v>16638</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="H7" s="29"/>
-      <c r="J7" s="27">
+      <c r="H7" s="24"/>
+      <c r="J7" s="22">
         <v>16958</v>
       </c>
-      <c r="K7" s="28" t="s">
+      <c r="K7" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="L7" s="29"/>
+      <c r="L7" s="24"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="27">
+      <c r="B8" s="22">
         <v>16936</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="F8" s="27">
+      <c r="D8" s="24"/>
+      <c r="F8" s="22">
         <v>17085</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="J8" s="27">
+      <c r="H8" s="24"/>
+      <c r="J8" s="22">
         <v>12908</v>
       </c>
-      <c r="K8" s="28" t="s">
+      <c r="K8" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="L8" s="29"/>
+      <c r="L8" s="24"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="27">
+      <c r="B9" s="22">
         <v>16937</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="F9" s="27">
+      <c r="D9" s="24"/>
+      <c r="F9" s="22">
         <v>17825</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="J9" s="27">
+      <c r="H9" s="24"/>
+      <c r="J9" s="22">
         <v>16957</v>
       </c>
-      <c r="K9" s="28" t="s">
+      <c r="K9" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="L9" s="29"/>
+      <c r="L9" s="24"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="27">
+      <c r="B10" s="22">
         <v>16938</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="F10" s="27">
+      <c r="D10" s="24"/>
+      <c r="F10" s="22">
         <v>16987</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="H10" s="29"/>
-      <c r="J10" s="27">
+      <c r="H10" s="24"/>
+      <c r="J10" s="22">
         <v>16971</v>
       </c>
-      <c r="K10" s="28" t="s">
+      <c r="K10" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="L10" s="29"/>
+      <c r="L10" s="24"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="27">
+      <c r="B11" s="22">
         <v>16943</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="F11" s="27">
+      <c r="D11" s="24"/>
+      <c r="F11" s="22">
         <v>16988</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="H11" s="29"/>
-      <c r="J11" s="27">
+      <c r="H11" s="24"/>
+      <c r="J11" s="22">
         <v>17472</v>
       </c>
-      <c r="K11" s="28" t="s">
+      <c r="K11" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="L11" s="29"/>
+      <c r="L11" s="24"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="27">
+      <c r="B12" s="22">
         <v>16637</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="F12" s="27">
+      <c r="D12" s="24"/>
+      <c r="F12" s="22">
         <v>15684</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="H12" s="29"/>
-      <c r="J12" s="27">
+      <c r="H12" s="24"/>
+      <c r="J12" s="22">
         <v>14056</v>
       </c>
-      <c r="K12" s="28" t="s">
+      <c r="K12" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="L12" s="29"/>
+      <c r="L12" s="24"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="30">
+      <c r="B13" s="25">
         <v>15683</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="F13" s="30">
+      <c r="D13" s="24"/>
+      <c r="F13" s="25">
         <v>16945</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="H13" s="29"/>
+      <c r="H13" s="24"/>
       <c r="J13" s="8"/>
       <c r="K13" s="11"/>
       <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="30">
+      <c r="B14" s="25">
         <v>17088</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="F14" s="30">
+      <c r="D14" s="24"/>
+      <c r="F14" s="25">
         <v>16953</v>
       </c>
-      <c r="G14" s="31" t="s">
+      <c r="G14" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="H14" s="29"/>
+      <c r="H14" s="24"/>
       <c r="J14" s="8"/>
       <c r="K14" s="11"/>
       <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="30">
+      <c r="B15" s="25">
         <v>15686</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="F15" s="30">
+      <c r="D15" s="24"/>
+      <c r="F15" s="25">
         <v>17136</v>
       </c>
-      <c r="G15" s="31" t="s">
+      <c r="G15" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="H15" s="29"/>
+      <c r="H15" s="24"/>
       <c r="J15" s="8"/>
       <c r="K15" s="11"/>
       <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="30">
+      <c r="B16" s="25">
         <v>2210</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="F16" s="30">
+      <c r="D16" s="24"/>
+      <c r="F16" s="25">
         <v>17471</v>
       </c>
-      <c r="G16" s="31" t="s">
+      <c r="G16" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="H16" s="29"/>
+      <c r="H16" s="24"/>
       <c r="J16" s="8"/>
       <c r="K16" s="11"/>
       <c r="L16" s="5"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="30">
+      <c r="B17" s="25">
         <v>2422</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="D17" s="29"/>
+      <c r="D17" s="24"/>
       <c r="F17" s="8"/>
       <c r="G17" s="11"/>
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="30">
+      <c r="B18" s="25">
         <v>17089</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="D18" s="29"/>
+      <c r="D18" s="24"/>
       <c r="F18" s="8"/>
       <c r="G18" s="11"/>
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="30">
+      <c r="B19" s="25">
         <v>17406</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="D19" s="29"/>
+      <c r="D19" s="24"/>
       <c r="F19" s="8"/>
       <c r="G19" s="11"/>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="30">
+      <c r="B20" s="25">
         <v>17135</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="D20" s="29"/>
+      <c r="D20" s="24"/>
       <c r="F20" s="8"/>
       <c r="G20" s="11"/>
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="30">
+      <c r="B21" s="25">
         <v>17281</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="D21" s="29"/>
+      <c r="D21" s="24"/>
       <c r="F21" s="8"/>
       <c r="G21" s="11"/>
       <c r="H21" s="5"/>
     </row>
     <row r="23" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="13" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="F24" s="25" t="s">
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="F24" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="G25" s="26" t="s">
+      <c r="G25" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H25" s="26" t="s">
+      <c r="H25" s="21" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="27">
+      <c r="B26" s="22">
         <v>8111</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="D26" s="29"/>
-      <c r="F26" s="27">
+      <c r="D26" s="24"/>
+      <c r="F26" s="22">
         <v>2252</v>
       </c>
-      <c r="G26" s="28" t="s">
+      <c r="G26" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="H26" s="29"/>
+      <c r="H26" s="24"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="27">
+      <c r="B27" s="22">
         <v>17071</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="D27" s="29"/>
-      <c r="F27" s="27">
+      <c r="D27" s="24"/>
+      <c r="F27" s="22">
         <v>2056</v>
       </c>
-      <c r="G27" s="28" t="s">
+      <c r="G27" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="H27" s="29"/>
+      <c r="H27" s="24"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="27">
+      <c r="B28" s="22">
         <v>16973</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="D28" s="29"/>
-      <c r="F28" s="27">
+      <c r="D28" s="24"/>
+      <c r="F28" s="22">
         <v>14263</v>
       </c>
-      <c r="G28" s="28" t="s">
+      <c r="G28" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H28" s="29"/>
+      <c r="H28" s="24"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="27">
+      <c r="B29" s="22">
         <v>1175</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="D29" s="29"/>
+      <c r="D29" s="24"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="27">
+      <c r="B30" s="22">
         <v>16959</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="D30" s="29"/>
+      <c r="D30" s="24"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="27">
+      <c r="B31" s="22">
         <v>16952</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="D31" s="29"/>
+      <c r="D31" s="24"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="27">
+      <c r="B32" s="22">
         <v>12851</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="D32" s="29"/>
+      <c r="D32" s="24"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="27">
+      <c r="B33" s="22">
         <v>9328</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="D33" s="29"/>
+      <c r="D33" s="24"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="27">
+      <c r="B34" s="22">
         <v>16920</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="D34" s="29"/>
+      <c r="D34" s="24"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="30">
+      <c r="B35" s="25">
         <v>15653</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="D35" s="29"/>
+      <c r="D35" s="24"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="30">
+      <c r="B36" s="25">
         <v>15558</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="D36" s="29"/>
+      <c r="D36" s="24"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="30">
+      <c r="B37" s="25">
         <v>1385</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D37" s="29"/>
+      <c r="D37" s="24"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B38" s="8"/>
@@ -4386,284 +4395,284 @@
       <c r="D38" s="5"/>
     </row>
     <row r="39" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="26" t="s">
+      <c r="D41" s="21" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="27">
+      <c r="B42" s="22">
         <v>1695</v>
       </c>
-      <c r="C42" s="28" t="s">
+      <c r="C42" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="D42" s="29"/>
+      <c r="D42" s="24"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="27">
+      <c r="B43" s="22">
         <v>11049</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="C43" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="D43" s="29"/>
+      <c r="D43" s="24"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="27">
+      <c r="B44" s="22">
         <v>12969</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="C44" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="D44" s="29"/>
+      <c r="D44" s="24"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="27">
+      <c r="B45" s="22">
         <v>14238</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="C45" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="D45" s="29"/>
+      <c r="D45" s="24"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="27">
+      <c r="B46" s="22">
         <v>12026</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="C46" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="D46" s="29"/>
+      <c r="D46" s="24"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="27">
+      <c r="B47" s="22">
         <v>12996</v>
       </c>
-      <c r="C47" s="28" t="s">
+      <c r="C47" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="D47" s="29"/>
+      <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B48" s="27">
+      <c r="B48" s="22">
         <v>2281</v>
       </c>
-      <c r="C48" s="28" t="s">
+      <c r="C48" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="D48" s="29"/>
+      <c r="D48" s="24"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B49" s="27">
+      <c r="B49" s="22">
         <v>3012</v>
       </c>
-      <c r="C49" s="28" t="s">
+      <c r="C49" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="D49" s="29"/>
+      <c r="D49" s="24"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B50" s="27">
+      <c r="B50" s="22">
         <v>2616</v>
       </c>
-      <c r="C50" s="28" t="s">
+      <c r="C50" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="D50" s="29"/>
+      <c r="D50" s="24"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B51" s="30">
+      <c r="B51" s="25">
         <v>1413</v>
       </c>
-      <c r="C51" s="31" t="s">
+      <c r="C51" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="D51" s="29"/>
+      <c r="D51" s="24"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B52" s="30">
+      <c r="B52" s="25">
         <v>10564</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="D52" s="29"/>
+      <c r="D52" s="24"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B53" s="30">
+      <c r="B53" s="25">
         <v>1970</v>
       </c>
-      <c r="C53" s="31" t="s">
+      <c r="C53" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="D53" s="29"/>
+      <c r="D53" s="24"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B54" s="30">
+      <c r="B54" s="25">
         <v>2163</v>
       </c>
-      <c r="C54" s="31" t="s">
+      <c r="C54" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="D54" s="29"/>
+      <c r="D54" s="24"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B55" s="30">
+      <c r="B55" s="25">
         <v>12872</v>
       </c>
-      <c r="C55" s="31" t="s">
+      <c r="C55" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="D55" s="29"/>
+      <c r="D55" s="24"/>
     </row>
     <row r="57" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="13" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B59" s="26" t="s">
+      <c r="B59" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C59" s="26" t="s">
+      <c r="C59" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D59" s="26" t="s">
+      <c r="D59" s="21" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B60" s="27">
+      <c r="B60" s="22">
         <v>1913</v>
       </c>
-      <c r="C60" s="28" t="s">
+      <c r="C60" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="D60" s="29"/>
+      <c r="D60" s="24"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="27">
+      <c r="B61" s="22">
         <v>1952</v>
       </c>
-      <c r="C61" s="28" t="s">
+      <c r="C61" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="D61" s="29"/>
+      <c r="D61" s="24"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B62" s="27">
+      <c r="B62" s="22">
         <v>1959</v>
       </c>
-      <c r="C62" s="28" t="s">
+      <c r="C62" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="D62" s="29"/>
+      <c r="D62" s="24"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B63" s="27">
+      <c r="B63" s="22">
         <v>4577</v>
       </c>
-      <c r="C63" s="28" t="s">
+      <c r="C63" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="D63" s="29"/>
+      <c r="D63" s="24"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B64" s="27">
+      <c r="B64" s="22">
         <v>2064</v>
       </c>
-      <c r="C64" s="28" t="s">
+      <c r="C64" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="D64" s="29"/>
+      <c r="D64" s="24"/>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B65" s="27">
+      <c r="B65" s="22">
         <v>3107</v>
       </c>
-      <c r="C65" s="28" t="s">
+      <c r="C65" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="D65" s="29"/>
+      <c r="D65" s="24"/>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B66" s="27">
+      <c r="B66" s="22">
         <v>2571</v>
       </c>
-      <c r="C66" s="28" t="s">
+      <c r="C66" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="D66" s="29"/>
+      <c r="D66" s="24"/>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B67" s="27">
+      <c r="B67" s="22">
         <v>1089</v>
       </c>
-      <c r="C67" s="28" t="s">
+      <c r="C67" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="D67" s="29"/>
+      <c r="D67" s="24"/>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B68" s="27">
+      <c r="B68" s="22">
         <v>20056</v>
       </c>
-      <c r="C68" s="28" t="s">
+      <c r="C68" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="D68" s="29"/>
+      <c r="D68" s="24"/>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B69" s="30">
+      <c r="B69" s="25">
         <v>20057</v>
       </c>
-      <c r="C69" s="31" t="s">
+      <c r="C69" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="D69" s="29"/>
+      <c r="D69" s="24"/>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B70" s="30">
+      <c r="B70" s="25">
         <v>20058</v>
       </c>
-      <c r="C70" s="31" t="s">
+      <c r="C70" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="D70" s="29"/>
+      <c r="D70" s="24"/>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B71" s="30">
+      <c r="B71" s="25">
         <v>5373</v>
       </c>
-      <c r="C71" s="31" t="s">
+      <c r="C71" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="D71" s="29"/>
+      <c r="D71" s="24"/>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B72" s="8"/>

--- a/study_algo_record_date.xlsx
+++ b/study_algo_record_date.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\강민지\알고리즘 공부\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A2FF8D-9B8A-4012-A8D6-F446FCF98B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1044C4E1-297C-4006-AEA8-4F8779AF1103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{142D3439-D715-4BB9-B0EC-A88EA240EC91}"/>
+    <workbookView xWindow="6600" yWindow="990" windowWidth="21600" windowHeight="11385" xr2:uid="{142D3439-D715-4BB9-B0EC-A88EA240EC91}"/>
   </bookViews>
   <sheets>
     <sheet name="기초" sheetId="1" r:id="rId1"/>
@@ -1443,6 +1443,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1457,9 +1460,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1784,7 +1784,7 @@
   <dimension ref="A1:S86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1806,11 +1806,11 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1830,7 +1830,7 @@
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="27">
         <v>44508</v>
       </c>
     </row>
@@ -1850,7 +1850,9 @@
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="27">
+        <v>44516</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
@@ -1920,21 +1922,21 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="29"/>
-      <c r="F15" s="27" t="s">
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+      <c r="F15" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29"/>
-      <c r="J15" s="27" t="s">
+      <c r="G15" s="29"/>
+      <c r="H15" s="30"/>
+      <c r="J15" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="K15" s="28"/>
-      <c r="L15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="30"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
@@ -2171,16 +2173,16 @@
       <c r="D26" s="5"/>
     </row>
     <row r="27" spans="2:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="29"/>
-      <c r="F27" s="27" t="s">
+      <c r="C27" s="29"/>
+      <c r="D27" s="30"/>
+      <c r="F27" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="G27" s="28"/>
-      <c r="H27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="30"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
@@ -2296,16 +2298,16 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="29"/>
-      <c r="F37" s="27" t="s">
+      <c r="C37" s="29"/>
+      <c r="D37" s="30"/>
+      <c r="F37" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="G37" s="28"/>
-      <c r="H37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="30"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B38" s="14" t="s">
@@ -2557,16 +2559,16 @@
       </c>
     </row>
     <row r="56" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B56" s="27" t="s">
+      <c r="B56" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C56" s="28"/>
-      <c r="D56" s="29"/>
-      <c r="F56" s="27" t="s">
+      <c r="C56" s="29"/>
+      <c r="D56" s="30"/>
+      <c r="F56" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="G56" s="28"/>
-      <c r="H56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="30"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B57" s="14" t="s">
@@ -2739,11 +2741,11 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B70" s="27" t="s">
+      <c r="B70" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C70" s="28"/>
-      <c r="D70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="30"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B71" s="14" t="s">
@@ -2931,16 +2933,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="F2" s="30" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="F2" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
@@ -3097,16 +3099,16 @@
       <c r="D14" s="18"/>
     </row>
     <row r="16" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="F16" s="30" t="s">
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="F16" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B17" s="15" t="s">
@@ -3198,16 +3200,16 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="F24" s="30" t="s">
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="F24" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B25" s="15" t="s">
@@ -3477,11 +3479,11 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B51" s="30" t="s">
+      <c r="B51" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B52" s="15" t="s">
@@ -3649,11 +3651,11 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B71" s="30" t="s">
+      <c r="B71" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="C71" s="30"/>
-      <c r="D71" s="30"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B72" s="15" t="s">
@@ -3835,21 +3837,21 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="F2" s="31" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="F2" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="J2" s="31" t="s">
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="J2" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B3" s="21" t="s">
@@ -4229,16 +4231,16 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="F24" s="31" t="s">
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="F24" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B25" s="21" t="s">
@@ -4400,11 +4402,11 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B41" s="21" t="s">
@@ -4549,11 +4551,11 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B58" s="31" t="s">
+      <c r="B58" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B59" s="21" t="s">

--- a/study_algo_record_date.xlsx
+++ b/study_algo_record_date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\강민지\알고리즘 공부\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1044C4E1-297C-4006-AEA8-4F8779AF1103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2998E1C0-D359-41A6-88F4-E85B60360FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6600" yWindow="990" windowWidth="21600" windowHeight="11385" xr2:uid="{142D3439-D715-4BB9-B0EC-A88EA240EC91}"/>
   </bookViews>
@@ -1784,7 +1784,7 @@
   <dimension ref="A1:S86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1841,7 +1841,9 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="27">
+        <v>44516</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B6" s="2">

--- a/study_algo_record_date.xlsx
+++ b/study_algo_record_date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\강민지\알고리즘 공부\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2998E1C0-D359-41A6-88F4-E85B60360FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D51066-7C06-4E5D-89D2-336B66D4662A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6600" yWindow="990" windowWidth="21600" windowHeight="11385" xr2:uid="{142D3439-D715-4BB9-B0EC-A88EA240EC91}"/>
   </bookViews>
@@ -1784,7 +1784,7 @@
   <dimension ref="A1:S86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1863,7 +1863,9 @@
       <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="27">
+        <v>44519</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B8" s="2">

--- a/study_algo_record_date.xlsx
+++ b/study_algo_record_date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\강민지\알고리즘 공부\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D51066-7C06-4E5D-89D2-336B66D4662A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A288BA0-E848-4203-907C-7D63B258FCC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6600" yWindow="990" windowWidth="21600" windowHeight="11385" xr2:uid="{142D3439-D715-4BB9-B0EC-A88EA240EC91}"/>
   </bookViews>
@@ -1784,7 +1784,7 @@
   <dimension ref="A1:S86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1874,7 +1874,9 @@
       <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="27">
+        <v>44519</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B9" s="2">

--- a/study_algo_record_date.xlsx
+++ b/study_algo_record_date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\강민지\알고리즘 공부\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A288BA0-E848-4203-907C-7D63B258FCC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589405D9-952A-451C-936E-D2C816CB25DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6600" yWindow="990" windowWidth="21600" windowHeight="11385" xr2:uid="{142D3439-D715-4BB9-B0EC-A88EA240EC91}"/>
   </bookViews>
@@ -1784,7 +1784,7 @@
   <dimension ref="A1:S86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1885,7 +1885,9 @@
       <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="27">
+        <v>44519</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B10" s="2">

--- a/study_algo_record_date.xlsx
+++ b/study_algo_record_date.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\강민지\알고리즘 공부\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589405D9-952A-451C-936E-D2C816CB25DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D908740-CC2E-412C-98AA-B215C9CF6682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="990" windowWidth="21600" windowHeight="11385" xr2:uid="{142D3439-D715-4BB9-B0EC-A88EA240EC91}"/>
+    <workbookView xWindow="-255" yWindow="3195" windowWidth="21600" windowHeight="11385" xr2:uid="{142D3439-D715-4BB9-B0EC-A88EA240EC91}"/>
   </bookViews>
   <sheets>
     <sheet name="기초" sheetId="1" r:id="rId1"/>
@@ -1784,7 +1784,7 @@
   <dimension ref="A1:S86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1896,7 +1896,9 @@
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="27">
+        <v>44519</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B11" s="2">

--- a/study_algo_record_date.xlsx
+++ b/study_algo_record_date.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\강민지\알고리즘 공부\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D908740-CC2E-412C-98AA-B215C9CF6682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1EC8AE-3B8E-4AF0-B01F-BAA62FB15D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-255" yWindow="3195" windowWidth="21600" windowHeight="11385" xr2:uid="{142D3439-D715-4BB9-B0EC-A88EA240EC91}"/>
+    <workbookView xWindow="0" yWindow="3195" windowWidth="21600" windowHeight="11385" xr2:uid="{142D3439-D715-4BB9-B0EC-A88EA240EC91}"/>
   </bookViews>
   <sheets>
     <sheet name="기초" sheetId="1" r:id="rId1"/>
@@ -1784,7 +1784,7 @@
   <dimension ref="A1:S86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1907,7 +1907,9 @@
       <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="27">
+        <v>44519</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B12" s="2">

--- a/study_algo_record_date.xlsx
+++ b/study_algo_record_date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\강민지\알고리즘 공부\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1EC8AE-3B8E-4AF0-B01F-BAA62FB15D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7D9829-A884-491B-95BA-89C656433720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3195" windowWidth="21600" windowHeight="11385" xr2:uid="{142D3439-D715-4BB9-B0EC-A88EA240EC91}"/>
   </bookViews>
@@ -1784,7 +1784,7 @@
   <dimension ref="A1:S86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1918,7 +1918,9 @@
       <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="27">
+        <v>44519</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="M13" s="12"/>

--- a/study_algo_record_date.xlsx
+++ b/study_algo_record_date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\강민지\알고리즘 공부\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7D9829-A884-491B-95BA-89C656433720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71793906-617A-41AB-B04C-AF70106E6B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3195" windowWidth="21600" windowHeight="11385" xr2:uid="{142D3439-D715-4BB9-B0EC-A88EA240EC91}"/>
   </bookViews>
@@ -1783,8 +1783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BB14CC-8ABA-4B8B-A76E-400F1F796DB0}">
   <dimension ref="A1:S86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1919,7 +1919,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="27">
-        <v>44519</v>
+        <v>44520</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -1988,7 +1988,9 @@
       <c r="C17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="27">
+        <v>44521</v>
+      </c>
       <c r="F17" s="2">
         <v>15649</v>
       </c>

--- a/study_algo_record_date.xlsx
+++ b/study_algo_record_date.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\강민지\알고리즘 공부\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71793906-617A-41AB-B04C-AF70106E6B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82DF026-A8AE-4506-90D5-3C835411A3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3195" windowWidth="21600" windowHeight="11385" xr2:uid="{142D3439-D715-4BB9-B0EC-A88EA240EC91}"/>
+    <workbookView xWindow="2745" yWindow="3990" windowWidth="21600" windowHeight="11385" xr2:uid="{142D3439-D715-4BB9-B0EC-A88EA240EC91}"/>
   </bookViews>
   <sheets>
     <sheet name="기초" sheetId="1" r:id="rId1"/>
@@ -1784,7 +1784,7 @@
   <dimension ref="A1:S86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2013,7 +2013,9 @@
       <c r="C18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="27">
+        <v>44525</v>
+      </c>
       <c r="F18" s="2">
         <v>15650</v>
       </c>

--- a/study_algo_record_date.xlsx
+++ b/study_algo_record_date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\강민지\알고리즘 공부\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82DF026-A8AE-4506-90D5-3C835411A3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66828B88-39BB-4B91-B718-98822715966D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2745" yWindow="3990" windowWidth="21600" windowHeight="11385" xr2:uid="{142D3439-D715-4BB9-B0EC-A88EA240EC91}"/>
   </bookViews>
@@ -1783,8 +1783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BB14CC-8ABA-4B8B-A76E-400F1F796DB0}">
   <dimension ref="A1:S86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2038,7 +2038,9 @@
       <c r="C19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="27">
+        <v>44526</v>
+      </c>
       <c r="F19" s="2">
         <v>15651</v>
       </c>

--- a/study_algo_record_date.xlsx
+++ b/study_algo_record_date.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\강민지\알고리즘 공부\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66828B88-39BB-4B91-B718-98822715966D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE95C65-639E-4C27-881F-1BBBD005F38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2745" yWindow="3990" windowWidth="21600" windowHeight="11385" xr2:uid="{142D3439-D715-4BB9-B0EC-A88EA240EC91}"/>
+    <workbookView xWindow="2835" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{142D3439-D715-4BB9-B0EC-A88EA240EC91}"/>
   </bookViews>
   <sheets>
     <sheet name="기초" sheetId="1" r:id="rId1"/>
@@ -1783,8 +1783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BB14CC-8ABA-4B8B-A76E-400F1F796DB0}">
   <dimension ref="A1:S86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2138,7 +2138,9 @@
       <c r="C23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="27">
+        <v>44530</v>
+      </c>
       <c r="F23" s="2">
         <v>15656</v>
       </c>

--- a/study_algo_record_date.xlsx
+++ b/study_algo_record_date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\강민지\알고리즘 공부\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE95C65-639E-4C27-881F-1BBBD005F38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E9B9A7-6382-44CE-8118-B25947B15C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2835" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{142D3439-D715-4BB9-B0EC-A88EA240EC91}"/>
   </bookViews>
@@ -1783,8 +1783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BB14CC-8ABA-4B8B-A76E-400F1F796DB0}">
   <dimension ref="A1:S86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2112,7 +2112,9 @@
       <c r="C22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="27">
+        <v>44531</v>
+      </c>
       <c r="F22" s="2">
         <v>15655</v>
       </c>

--- a/study_algo_record_date.xlsx
+++ b/study_algo_record_date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\강민지\알고리즘 공부\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E9B9A7-6382-44CE-8118-B25947B15C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726A85FC-18C0-40F6-948C-4B9D6CEAF9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2835" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{142D3439-D715-4BB9-B0EC-A88EA240EC91}"/>
   </bookViews>
@@ -1784,7 +1784,7 @@
   <dimension ref="A1:S86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2086,7 +2086,9 @@
       <c r="C21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="27">
+        <v>44532</v>
+      </c>
       <c r="F21" s="2">
         <v>15654</v>
       </c>

--- a/study_algo_record_date.xlsx
+++ b/study_algo_record_date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\강민지\알고리즘 공부\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726A85FC-18C0-40F6-948C-4B9D6CEAF9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50E7427-57B6-4FBB-9470-EBA24A1CFAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2835" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{142D3439-D715-4BB9-B0EC-A88EA240EC91}"/>
   </bookViews>
@@ -1784,7 +1784,7 @@
   <dimension ref="A1:S86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1796,6 +1796,7 @@
     <col min="7" max="7" width="24" customWidth="1"/>
     <col min="10" max="10" width="9.75" customWidth="1"/>
     <col min="11" max="11" width="16.5" customWidth="1"/>
+    <col min="12" max="12" width="9.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" customWidth="1"/>
     <col min="18" max="18" width="8.875" customWidth="1"/>
   </cols>
@@ -2004,7 +2005,9 @@
       <c r="K17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="4"/>
+      <c r="L17" s="27">
+        <v>44533</v>
+      </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" s="2">

--- a/study_algo_record_date.xlsx
+++ b/study_algo_record_date.xlsx
@@ -23,823 +23,823 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="273">
   <x:si>
+    <x:t>로마 숫자 만들기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계란으로 계란치기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모노미노도미노 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 번호판 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이차원 배열과 연산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배열 돌리기 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>새로운 게임 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한윤정이 이탈리아에…</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maaaaaaze</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 브루트 포스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파이프 옮기기 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>양념 반 후라이드 반</x:t>
+  </x:si>
+  <x:si>
+    <x:t>십자가 2개 놓기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>괄호 추가하기 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파이프 옮기기 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2x2x2 큐브</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미세먼지 안녕!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Two Dots</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BFS 스페셜 저지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이나믹 프로그래밍</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공통 부분 문자열</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서울 지하철 2호선</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N과 M (6)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N과 M (2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NM과 K (1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브루트 포스 - 재귀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N과 M (5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 브루트 포스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>외판원 순회 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N과 M (3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카드 구매하기 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브루트 포스 - 순열</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2 x n 타일링</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N과 M (1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2 x n 타일링 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>움직이는 미로 탈출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DFS 스페셜 저지</x:t>
+  </x:si>
+  <x:si>
     <x:t>새로운 하노이 탑</x:t>
   </x:si>
   <x:si>
+    <x:t>그래프 알고리즘</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벽 부수고 이동하기</x:t>
+  </x:si>
+  <x:si>
     <x:t>말이 되고픈 원숭이</x:t>
   </x:si>
   <x:si>
-    <x:t>벽 부수고 이동하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>그래프 알고리즘</x:t>
+    <x:t>뱀과 사다리 게임</x:t>
   </x:si>
   <x:si>
     <x:t>BFS 알고리즘</x:t>
   </x:si>
   <x:si>
-    <x:t>움직이는 미로 탈출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뱀과 사다리 게임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFS 스페셜 저지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미세먼지 안녕!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BFS 스페셜 저지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서울 지하철 2호선</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Two Dots</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이나믹 프로그래밍</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공통 부분 문자열</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이차원 배열과 연산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모노미노도미노 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로마 숫자 만들기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>새로운 게임 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 브루트 포스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2x2x2 큐브</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 번호판 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>양념 반 후라이드 반</x:t>
-  </x:si>
-  <x:si>
-    <x:t>십자가 2개 놓기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계란으로 계란치기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배열 돌리기 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>파이프 옮기기 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Maaaaaaze</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한윤정이 이탈리아에…</x:t>
-  </x:si>
-  <x:si>
-    <x:t>파이프 옮기기 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>괄호 추가하기 2</x:t>
+    <x:t>1, 2, 3 더하기 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가장 긴 바이토닉 부분 수열</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연산자 끼워넣기 (2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가장 큰 증가 부분 수열</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벽 부수고 이동하기 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1, 2, 3 더하기 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벽 부수고 이동하기 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. 시뮬레이션과 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가장 긴 감소하는 부분 수열</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컨베이어 벨트 n이의 로봇</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브루트 포스 Part 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마법사 상어와 토네이도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매직 스퀘어로 변경하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. 다이나믹 프로그래밍</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1, 2, 3 더하기 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 브루트 포스 연습</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브루트 포스 - 비트마스크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브루트 포스 - N과 M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가장 긴 증가하는 부분 수열</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브루트 포스 Part 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마법사 상어와 파이어스톰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마법사 상어와 파이어볼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5. 시뮬레이션과 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최대공약수와 최소공배수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벽 부수고 이동하기 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브루트 포스 Part 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>골드바흐의 추측</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수 이어 쓰기 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스타트링크 타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1, 2, 3 더하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N과 M (4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N과 M (8)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N과 M (7)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다리 만들기 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박스 안의 열쇠</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. 그래프와 BFS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DFS와 BFS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>올바른 괄호 문자열</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체스판 여행 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체스판 여행 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연결 요소의 개수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2048 (Easy)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브루트 포스 - 기타</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시뮬레이션과 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배열 돌리기 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>팰린드롬 만들기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행렬 곱셈 순서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체스판 위의 공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>K번째 좋은 문자열</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연산자 끼워넣기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배열 돌리기 6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 그래프와 BFS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배열 돌리기 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부분수열의 합 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정육면체 전개도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배열 돌리기 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LCD Test</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연속합</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벌집</x:t>
+  </x:si>
+  <x:si>
+    <x:t>열쇠</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작업</x:t>
+  </x:si>
+  <x:si>
+    <x:t>건배</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맞춰봐</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가르침</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부분합</x:t>
+  </x:si>
+  <x:si>
+    <x:t>괄호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배달</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스도쿠</x:t>
+  </x:si>
+  <x:si>
+    <x:t>번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>달팽이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>퇴사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경사로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LCS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성곽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리모컨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>큐빙</x:t>
+  </x:si>
+  <x:si>
+    <x:t>토마토</x:t>
+  </x:si>
+  <x:si>
+    <x:t>감시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로또</x:t>
+  </x:si>
+  <x:si>
+    <x:t>큐</x:t>
+  </x:si>
+  <x:si>
+    <x:t>합분해</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나머지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부등호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>덱</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4연산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수학</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이친수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동물원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈옥</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1학년</x:t>
+  </x:si>
+  <x:si>
+    <x:t>야구공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소코반</x:t>
+  </x:si>
+  <x:si>
+    <x:t>낚시왕</x:t>
+  </x:si>
+  <x:si>
+    <x:t>약수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연구소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BFS</x:t>
   </x:si>
   <x:si>
     <x:t>다이나믹 프로그래밍 Part 1</x:t>
   </x:si>
   <x:si>
+    <x:t>가장 긴 증가하는 부분 수열 4</x:t>
+  </x:si>
+  <x:si>
     <x:t>다이나믹 프로그래밍 Part 2</x:t>
   </x:si>
   <x:si>
-    <x:t>가장 긴 증가하는 부분 수열 4</x:t>
-  </x:si>
-  <x:si>
     <x:t>Baaaaaduk2(Easy)</x:t>
   </x:si>
   <x:si>
-    <x:t>약수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연구소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BFS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연속합</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맞춰봐</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동물원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가르침</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로또</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부분합</x:t>
-  </x:si>
-  <x:si>
-    <x:t>번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>합분해</x:t>
-  </x:si>
-  <x:si>
-    <x:t>토마토</x:t>
-  </x:si>
-  <x:si>
-    <x:t>큐</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스도쿠</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리모컨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나머지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수학</x:t>
-  </x:si>
-  <x:si>
-    <x:t>퇴사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부등호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경사로</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이친수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>덱</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벌집</x:t>
-  </x:si>
-  <x:si>
-    <x:t>감시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배달</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ABC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>달팽이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4연산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LCS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>괄호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성곽</x:t>
-  </x:si>
-  <x:si>
-    <x:t>열쇠</x:t>
-  </x:si>
-  <x:si>
-    <x:t>큐빙</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작업</x:t>
-  </x:si>
-  <x:si>
-    <x:t>건배</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소코반</x:t>
-  </x:si>
-  <x:si>
-    <x:t>낚시왕</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탈옥</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1학년</x:t>
-  </x:si>
-  <x:si>
-    <x:t>야구공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LCD Test</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배열 돌리기 6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부분수열의 합 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 그래프와 BFS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정육면체 전개도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연산자 끼워넣기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2048 (Easy)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>브루트 포스 - 기타</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배열 돌리기 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배열 돌리기 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배열 돌리기 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시뮬레이션과 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>팰린드롬 만들기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행렬 곱셈 순서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체스판 위의 공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>K번째 좋은 문자열</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다리 만들기 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체스판 여행 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체스판 여행 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스타트링크 타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>올바른 괄호 문자열</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박스 안의 열쇠</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4. 그래프와 BFS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFS와 BFS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연결 요소의 개수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수 이어 쓰기 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>골드바흐의 추측</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1, 2, 3 더하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N과 M (4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N과 M (8)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N과 M (7)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NM과 K (1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>브루트 포스 - 순열</x:t>
-  </x:si>
-  <x:si>
-    <x:t>브루트 포스 - 재귀</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N과 M (1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N과 M (2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N과 M (3)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N과 M (5)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N과 M (6)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카드 구매하기 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>외판원 순회 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2 x n 타일링 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 브루트 포스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2 x n 타일링</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1, 2, 3 더하기 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가장 긴 바이토닉 부분 수열</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연산자 끼워넣기 (2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가장 큰 증가 부분 수열</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벽 부수고 이동하기 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최대공약수와 최소공배수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3. 다이나믹 프로그래밍</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가장 긴 증가하는 부분 수열</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벽 부수고 이동하기 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1, 2, 3 더하기 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벽 부수고 이동하기 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 브루트 포스 연습</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가장 긴 감소하는 부분 수열</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1, 2, 3 더하기 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컨베이어 벨트 n이의 로봇</x:t>
-  </x:si>
-  <x:si>
-    <x:t>브루트 포스 - 비트마스크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5. 시뮬레이션과 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>브루트 포스 - N과 M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4. 시뮬레이션과 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>브루트 포스 Part 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마법사 상어와 토네이도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>브루트 포스 Part 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>매직 스퀘어로 변경하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>브루트 포스 Part 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마법사 상어와 파이어스톰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마법사 상어와 파이어볼</x:t>
+    <x:t>암호 만들기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>링크와 스타트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이전 순열</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카잉 달력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스타트와 링크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1로 만들기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브루트 포스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 수학</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소수 찾기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>푼 날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>약수의 합 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일곱 난쟁이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소수 구하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다음 순열</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모든 순열</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테트로미노</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날짜 계산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사탕 게임</x:t>
   </x:si>
   <x:si>
     <x:t>차이를 최대로</x:t>
   </x:si>
   <x:si>
-    <x:t>암호 만들기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스타트와 링크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>푼 날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>브루트 포스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카잉 달력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>약수의 합 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다음 순열</x:t>
-  </x:si>
-  <x:si>
-    <x:t>링크와 스타트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소수 찾기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 수학</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모든 순열</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1로 만들기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일곱 난쟁이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테트로미노</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소수 구하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날짜 계산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이전 순열</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사탕 게임</x:t>
+    <x:t>오르막 수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포도주 시식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주사위 굴리기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연속합 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단어 수학</x:t>
+  </x:si>
+  <x:si>
+    <x:t>드래곤 커브</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABCDE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>숨바꼭질 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쉬운 계단 수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배열 복원하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에너지 모으기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N-Queen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정수 삼각형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>숨바꼭질</x:t>
   </x:si>
   <x:si>
     <x:t>숨바꼭질 3</x:t>
   </x:si>
   <x:si>
-    <x:t>주사위 굴리기</x:t>
+    <x:t>타일 채우기</x:t>
   </x:si>
   <x:si>
     <x:t>나이트의 이동</x:t>
   </x:si>
   <x:si>
+    <x:t>스도미노쿠</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단지번호붙이기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>두 동전</x:t>
+  </x:si>
+  <x:si>
     <x:t>알고스팟</x:t>
   </x:si>
   <x:si>
     <x:t>로봇 청소기</x:t>
   </x:si>
   <x:si>
-    <x:t>드래곤 커브</x:t>
+    <x:t>톱니바퀴(2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미로 탐색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>큐와 그래프</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제곱수의 합</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RGB거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이분 그래프</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카드 구매하기</x:t>
   </x:si>
   <x:si>
     <x:t>겉넓이 구하기</x:t>
   </x:si>
   <x:si>
-    <x:t>두 동전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에너지 모으기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카드 구매하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연속합 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ABCDE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포도주 시식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타일 채우기</x:t>
-  </x:si>
-  <x:si>
     <x:t>부분수열의 합</x:t>
   </x:si>
   <x:si>
-    <x:t>N-Queen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스도미노쿠</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배열 복원하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정수 삼각형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>숨바꼭질 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>톱니바퀴(2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단어 수학</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미로 탐색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쉬운 계단 수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이분 그래프</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단지번호붙이기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>큐와 그래프</x:t>
-  </x:si>
-  <x:si>
-    <x:t>숨바꼭질</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제곱수의 합</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RGB거리</x:t>
-  </x:si>
-  <x:si>
     <x:t>이모티콘</x:t>
   </x:si>
   <x:si>
-    <x:t>오르막 수</x:t>
+    <x:t>소수의 연속합</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구슬 탈출 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>돌 그룹</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스타트링크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적록색약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>청소년 상어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이동하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>육각 보드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인구 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>새로운 게임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평범한 배낭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수들의 합 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동전 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데스 나이트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LCS 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연구소 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나무 재테크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파일 합치기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소수 경로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>팰린드롬?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점프 점프</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원판 돌리기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레벨 햄버거</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타리스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연구소 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>크리보드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뮤탈리스크</x:t>
   </x:si>
   <x:si>
     <x:t>아기 상어</x:t>
   </x:si>
   <x:si>
-    <x:t>레벨 햄버거</x:t>
+    <x:t>두 배열의 합</x:t>
   </x:si>
   <x:si>
     <x:t>아기 상어 2</x:t>
   </x:si>
   <x:si>
-    <x:t>수들의 합 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연구소 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>청소년 상어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>크리보드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나무 재테크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>두 배열의 합</x:t>
-  </x:si>
-  <x:si>
-    <x:t>파일 합치기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타리스트</x:t>
-  </x:si>
-  <x:si>
     <x:t>동전 1</x:t>
   </x:si>
   <x:si>
-    <x:t>데스 나이트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뮤탈리스크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동전 2</x:t>
-  </x:si>
-  <x:si>
     <x:t>레이저 통신</x:t>
   </x:si>
   <x:si>
-    <x:t>소수의 연속합</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적록색약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점프 점프</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이동하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LCS 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연구소 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구슬 탈출 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>돌 그룹</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스타트링크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>육각 보드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소수 경로</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인구 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>새로운 게임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>팰린드롬?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평범한 배낭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원판 돌리기</x:t>
+    <x:t>확장 게임</x:t>
   </x:si>
   <x:si>
     <x:t>카드 놓기</x:t>
   </x:si>
   <x:si>
+    <x:t>미로 탈출하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캠프 준비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>숫자 재배치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>색종이 붙이기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>줄 세우기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>텔레포트 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어른 상어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세 친구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>두 스티커</x:t>
+  </x:si>
+  <x:si>
+    <x:t>텔레포트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>숫자판 점프</x:t>
+  </x:si>
+  <x:si>
+    <x:t>숨바꼭질 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게리맨더링</x:t>
+  </x:si>
+  <x:si>
     <x:t>게리맨더링 2</x:t>
   </x:si>
   <x:si>
-    <x:t>숫자판 점프</x:t>
+    <x:t>두 배 더하기</x:t>
   </x:si>
   <x:si>
     <x:t>괄호 추가하기</x:t>
   </x:si>
   <x:si>
-    <x:t>미로 탈출하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>텔레포트</x:t>
+    <x:t>사다리 조작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주사위 윷놀이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점프 게임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A -&gt; B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등차수열 변환</x:t>
+  </x:si>
+  <x:si>
+    <x:t>치킨 배달</x:t>
   </x:si>
   <x:si>
     <x:t>0과 1</x:t>
   </x:si>
   <x:si>
-    <x:t>텔레포트 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사다리 조작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>색종이 붙이기</x:t>
+    <x:t>캐슬 디펜스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배열 B의 값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>숨바꼭질 5</x:t>
   </x:si>
   <x:si>
     <x:t>직사각형 탈출</x:t>
   </x:si>
   <x:si>
+    <x:t>십자가 찾기</x:t>
+  </x:si>
+  <x:si>
     <x:t>구슬 탈출 4</x:t>
   </x:si>
   <x:si>
-    <x:t>어른 상어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>십자가 찾기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등차수열 변환</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐슬 디펜스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주사위 윷놀이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>치킨 배달</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세 친구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>두 스티커</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게리맨더링</x:t>
-  </x:si>
-  <x:si>
-    <x:t>숨바꼭질 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캠프 준비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>숫자 재배치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>확장 게임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점프 게임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>줄 세우기</x:t>
-  </x:si>
-  <x:si>
     <x:t>나3곱2</x:t>
   </x:si>
   <x:si>
-    <x:t>두 배 더하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A -&gt; B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배열 B의 값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>숨바꼭질 5</x:t>
-  </x:si>
-  <x:si>
     <x:t>팔굽혀펴기</x:t>
   </x:si>
   <x:si>
+    <x:t>Acka</x:t>
+  </x:si>
+  <x:si>
+    <x:t>초콜릿 자르기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>달팽이2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>플레이리스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IPv6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>달팽이3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IP 주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데스노트</x:t>
+  </x:si>
+  <x:si>
     <x:t>소형기관차</x:t>
   </x:si>
   <x:si>
-    <x:t>IPv6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데스노트</x:t>
-  </x:si>
-  <x:si>
     <x:t>색종이 - 3</x:t>
   </x:si>
   <x:si>
-    <x:t>달팽이2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Acka</x:t>
+    <x:t>출근 기록</x:t>
   </x:si>
   <x:si>
     <x:t>BOJ 거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출근 기록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>초콜릿 자르기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>플레이리스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>달팽이3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IP 주소</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -903,28 +903,12 @@
       <x:color rgb="ff385724"/>
       <x:b val="1"/>
     </x:font>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="14"/>
-          <x:color rgb="ff203864"/>
-          <x:b val="1"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="14"/>
-          <x:color rgb="ff203864"/>
-          <x:b val="1"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="14"/>
+      <x:color rgb="ff203864"/>
+      <x:b val="1"/>
+    </x:font>
   </x:fonts>
   <x:fills count="8">
     <x:fill>
@@ -1093,8 +1077,8 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="35">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+  <x:cellXfs count="34">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1366,9 +1350,6 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="7">
     <x:cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1678,7 +1659,7 @@
   <x:dimension ref="A1:S86"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="L22" activeCellId="0" sqref="L22:L22"/>
+      <x:selection activeCell="N18" activeCellId="0" sqref="N18:N18"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -1697,25 +1678,25 @@
   <x:sheetData>
     <x:row r="1" spans="1:1" ht="23.5">
       <x:c r="A1" s="14" t="s">
-        <x:v>155</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="2:4" ht="20.649999999999999">
       <x:c r="B2" s="29" t="s">
-        <x:v>51</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C2" s="30"/>
       <x:c r="D2" s="31"/>
     </x:row>
     <x:row r="3" spans="2:4">
       <x:c r="B3" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D3" s="2" t="s">
-        <x:v>148</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:4">
@@ -1723,7 +1704,7 @@
         <x:v>10430</x:v>
       </x:c>
       <x:c r="C4" s="4" t="s">
-        <x:v>50</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D4" s="28">
         <x:v>44508</x:v>
@@ -1745,7 +1726,7 @@
         <x:v>1037</x:v>
       </x:c>
       <x:c r="C6" s="4" t="s">
-        <x:v>34</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="D6" s="28">
         <x:v>44516</x:v>
@@ -1756,7 +1737,7 @@
         <x:v>17427</x:v>
       </x:c>
       <x:c r="C7" s="4" t="s">
-        <x:v>151</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="D7" s="28">
         <x:v>44519</x:v>
@@ -1767,7 +1748,7 @@
         <x:v>17425</x:v>
       </x:c>
       <x:c r="C8" s="4" t="s">
-        <x:v>151</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="D8" s="28">
         <x:v>44519</x:v>
@@ -1778,7 +1759,7 @@
         <x:v>2609</x:v>
       </x:c>
       <x:c r="C9" s="4" t="s">
-        <x:v>124</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D9" s="28">
         <x:v>44519</x:v>
@@ -1789,7 +1770,7 @@
         <x:v>1978</x:v>
       </x:c>
       <x:c r="C10" s="4" t="s">
-        <x:v>154</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D10" s="28">
         <x:v>44519</x:v>
@@ -1800,7 +1781,7 @@
         <x:v>1929</x:v>
       </x:c>
       <x:c r="C11" s="4" t="s">
-        <x:v>160</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D11" s="28">
         <x:v>44519</x:v>
@@ -1811,7 +1792,7 @@
         <x:v>6588</x:v>
       </x:c>
       <x:c r="C12" s="4" t="s">
-        <x:v>101</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D12" s="28">
         <x:v>44520</x:v>
@@ -1827,53 +1808,53 @@
     </x:row>
     <x:row r="14" spans="1:1" ht="23.5">
       <x:c r="A14" s="14" t="s">
-        <x:v>117</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="2:12" ht="20.649999999999999">
       <x:c r="B15" s="29" t="s">
-        <x:v>149</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="C15" s="30"/>
       <x:c r="D15" s="31"/>
       <x:c r="F15" s="29" t="s">
-        <x:v>136</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G15" s="30"/>
       <x:c r="H15" s="31"/>
       <x:c r="J15" s="29" t="s">
-        <x:v>108</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="K15" s="30"/>
       <x:c r="L15" s="31"/>
     </x:row>
     <x:row r="16" spans="2:12">
       <x:c r="B16" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D16" s="2" t="s">
-        <x:v>148</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="G16" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="H16" s="2" t="s">
-        <x:v>148</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="J16" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="K16" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="L16" s="2" t="s">
-        <x:v>148</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="2:12">
@@ -1881,7 +1862,7 @@
         <x:v>2309</x:v>
       </x:c>
       <x:c r="C17" s="4" t="s">
-        <x:v>158</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="D17" s="28">
         <x:v>44521</x:v>
@@ -1890,14 +1871,14 @@
         <x:v>15649</x:v>
       </x:c>
       <x:c r="G17" s="4" t="s">
-        <x:v>109</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H17" s="5"/>
       <x:c r="J17" s="3">
         <x:v>9095</x:v>
       </x:c>
       <x:c r="K17" s="4" t="s">
-        <x:v>102</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L17" s="28">
         <x:v>44533</x:v>
@@ -1908,7 +1889,7 @@
         <x:v>3085</x:v>
       </x:c>
       <x:c r="C18" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D18" s="28">
         <x:v>44525</x:v>
@@ -1917,16 +1898,18 @@
         <x:v>15650</x:v>
       </x:c>
       <x:c r="G18" s="4" t="s">
-        <x:v>110</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H18" s="5"/>
       <x:c r="J18" s="3">
         <x:v>1759</x:v>
       </x:c>
       <x:c r="K18" s="4" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="L18" s="5"/>
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="L18" s="28">
+        <x:v>44563</x:v>
+      </x:c>
     </x:row>
     <x:row r="19" spans="2:12">
       <x:c r="B19" s="3">
@@ -1942,46 +1925,46 @@
         <x:v>15651</x:v>
       </x:c>
       <x:c r="G19" s="4" t="s">
-        <x:v>111</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H19" s="5"/>
       <x:c r="J19" s="3">
         <x:v>14501</x:v>
       </x:c>
       <x:c r="K19" s="4" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="L19" s="5"/>
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="L19" s="28"/>
     </x:row>
     <x:row r="20" spans="2:12">
       <x:c r="B20" s="3">
         <x:v>1107</x:v>
       </x:c>
       <x:c r="C20" s="4" t="s">
-        <x:v>49</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D20" s="5"/>
       <x:c r="F20" s="3">
         <x:v>15652</x:v>
       </x:c>
       <x:c r="G20" s="4" t="s">
-        <x:v>103</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H20" s="5"/>
       <x:c r="J20" s="3">
         <x:v>14889</x:v>
       </x:c>
       <x:c r="K20" s="4" t="s">
-        <x:v>147</x:v>
-      </x:c>
-      <x:c r="L20" s="5"/>
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="L20" s="28"/>
     </x:row>
     <x:row r="21" spans="2:15">
       <x:c r="B21" s="3">
         <x:v>14500</x:v>
       </x:c>
       <x:c r="C21" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="D21" s="28">
         <x:v>44532</x:v>
@@ -1990,16 +1973,16 @@
         <x:v>15654</x:v>
       </x:c>
       <x:c r="G21" s="4" t="s">
-        <x:v>112</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H21" s="5"/>
       <x:c r="J21" s="3">
         <x:v>15661</x:v>
       </x:c>
       <x:c r="K21" s="4" t="s">
-        <x:v>153</x:v>
-      </x:c>
-      <x:c r="L21" s="5"/>
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="L21" s="28"/>
       <x:c r="M21" s="7"/>
       <x:c r="N21" s="8"/>
       <x:c r="O21" s="6"/>
@@ -2009,7 +1992,7 @@
         <x:v>6064</x:v>
       </x:c>
       <x:c r="C22" s="4" t="s">
-        <x:v>150</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D22" s="28">
         <x:v>44531</x:v>
@@ -2018,16 +2001,16 @@
         <x:v>15655</x:v>
       </x:c>
       <x:c r="G22" s="4" t="s">
-        <x:v>113</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H22" s="5"/>
       <x:c r="J22" s="3">
         <x:v>2529</x:v>
       </x:c>
       <x:c r="K22" s="4" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="L22" s="34">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="L22" s="28">
         <x:v>44562</x:v>
       </x:c>
       <x:c r="M22" s="7"/>
@@ -2039,7 +2022,7 @@
         <x:v>1748</x:v>
       </x:c>
       <x:c r="C23" s="4" t="s">
-        <x:v>100</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D23" s="28">
         <x:v>44530</x:v>
@@ -2048,16 +2031,16 @@
         <x:v>15656</x:v>
       </x:c>
       <x:c r="G23" s="4" t="s">
-        <x:v>105</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H23" s="5"/>
       <x:c r="J23" s="3">
         <x:v>1248</x:v>
       </x:c>
       <x:c r="K23" s="4" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="L23" s="5"/>
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="L23" s="28"/>
       <x:c r="M23" s="9"/>
       <x:c r="N23" s="12"/>
       <x:c r="O23" s="6"/>
@@ -2070,7 +2053,7 @@
         <x:v>15657</x:v>
       </x:c>
       <x:c r="G24" s="4" t="s">
-        <x:v>104</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H24" s="5"/>
       <x:c r="J24" s="7"/>
@@ -2085,7 +2068,7 @@
         <x:v>18290</x:v>
       </x:c>
       <x:c r="G25" s="11" t="s">
-        <x:v>106</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H25" s="5"/>
       <x:c r="J25" s="9"/>
@@ -2099,34 +2082,34 @@
     </x:row>
     <x:row r="27" spans="2:8" ht="20.649999999999999">
       <x:c r="B27" s="29" t="s">
-        <x:v>107</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C27" s="30"/>
       <x:c r="D27" s="31"/>
       <x:c r="F27" s="29" t="s">
-        <x:v>134</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G27" s="30"/>
       <x:c r="H27" s="31"/>
     </x:row>
     <x:row r="28" spans="2:8">
       <x:c r="B28" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D28" s="2" t="s">
-        <x:v>148</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="G28" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="H28" s="2" t="s">
-        <x:v>148</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="2:8">
@@ -2134,14 +2117,14 @@
         <x:v>10972</x:v>
       </x:c>
       <x:c r="C29" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="D29" s="5"/>
       <x:c r="F29" s="3">
         <x:v>11723</x:v>
       </x:c>
       <x:c r="G29" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="H29" s="5"/>
     </x:row>
@@ -2150,14 +2133,14 @@
         <x:v>10973</x:v>
       </x:c>
       <x:c r="C30" s="4" t="s">
-        <x:v>162</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D30" s="5"/>
       <x:c r="F30" s="3">
         <x:v>1182</x:v>
       </x:c>
       <x:c r="G30" s="4" t="s">
-        <x:v>162</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="H30" s="5"/>
     </x:row>
@@ -2166,14 +2149,14 @@
         <x:v>10974</x:v>
       </x:c>
       <x:c r="C31" s="4" t="s">
-        <x:v>156</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="D31" s="5"/>
       <x:c r="F31" s="3">
         <x:v>14889</x:v>
       </x:c>
       <x:c r="G31" s="4" t="s">
-        <x:v>156</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="H31" s="5"/>
     </x:row>
@@ -2182,14 +2165,14 @@
         <x:v>10819</x:v>
       </x:c>
       <x:c r="C32" s="4" t="s">
-        <x:v>145</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="D32" s="5"/>
       <x:c r="F32" s="3">
         <x:v>14391</x:v>
       </x:c>
       <x:c r="G32" s="4" t="s">
-        <x:v>145</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="H32" s="5"/>
     </x:row>
@@ -2198,7 +2181,7 @@
         <x:v>10971</x:v>
       </x:c>
       <x:c r="C33" s="4" t="s">
-        <x:v>115</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D33" s="5"/>
       <x:c r="F33" s="7"/>
@@ -2210,7 +2193,7 @@
         <x:v>6603</x:v>
       </x:c>
       <x:c r="C34" s="4" t="s">
-        <x:v>41</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D34" s="5"/>
       <x:c r="F34" s="7"/>
@@ -2219,39 +2202,39 @@
     </x:row>
     <x:row r="36" spans="1:1" ht="23.5">
       <x:c r="A36" s="14" t="s">
-        <x:v>125</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="2:8" ht="20.649999999999999">
       <x:c r="B37" s="29" t="s">
-        <x:v>30</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="C37" s="30"/>
       <x:c r="D37" s="31"/>
       <x:c r="F37" s="29" t="s">
-        <x:v>31</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="G37" s="30"/>
       <x:c r="H37" s="31"/>
     </x:row>
     <x:row r="38" spans="2:8">
       <x:c r="B38" s="15" t="s">
-        <x:v>43</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C38" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D38" s="2" t="s">
-        <x:v>148</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="F38" s="15" t="s">
-        <x:v>43</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="G38" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="H38" s="2" t="s">
-        <x:v>148</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="2:8">
@@ -2259,14 +2242,14 @@
         <x:v>1463</x:v>
       </x:c>
       <x:c r="C39" s="4" t="s">
-        <x:v>157</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="D39" s="5"/>
       <x:c r="F39" s="3">
         <x:v>15988</x:v>
       </x:c>
       <x:c r="G39" s="4" t="s">
-        <x:v>132</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H39" s="5"/>
     </x:row>
@@ -2275,14 +2258,14 @@
         <x:v>11726</x:v>
       </x:c>
       <x:c r="C40" s="4" t="s">
-        <x:v>118</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D40" s="5"/>
       <x:c r="F40" s="3">
         <x:v>1149</x:v>
       </x:c>
       <x:c r="G40" s="4" t="s">
-        <x:v>193</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="H40" s="5"/>
     </x:row>
@@ -2291,14 +2274,14 @@
         <x:v>11727</x:v>
       </x:c>
       <x:c r="C41" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D41" s="5"/>
       <x:c r="F41" s="3">
         <x:v>1309</x:v>
       </x:c>
       <x:c r="G41" s="4" t="s">
-        <x:v>39</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="H41" s="5"/>
     </x:row>
@@ -2307,14 +2290,14 @@
         <x:v>9095</x:v>
       </x:c>
       <x:c r="C42" s="4" t="s">
-        <x:v>102</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D42" s="5"/>
       <x:c r="F42" s="3">
         <x:v>11057</x:v>
       </x:c>
       <x:c r="G42" s="4" t="s">
-        <x:v>195</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="H42" s="5"/>
     </x:row>
@@ -2323,14 +2306,14 @@
         <x:v>11052</x:v>
       </x:c>
       <x:c r="C43" s="4" t="s">
-        <x:v>173</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="D43" s="5"/>
       <x:c r="F43" s="3">
         <x:v>2156</x:v>
       </x:c>
       <x:c r="G43" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="H43" s="5"/>
     </x:row>
@@ -2339,14 +2322,14 @@
         <x:v>16194</x:v>
       </x:c>
       <x:c r="C44" s="4" t="s">
-        <x:v>114</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D44" s="5"/>
       <x:c r="F44" s="3">
         <x:v>1932</x:v>
       </x:c>
       <x:c r="G44" s="4" t="s">
-        <x:v>182</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="H44" s="5"/>
     </x:row>
@@ -2355,14 +2338,14 @@
         <x:v>15990</x:v>
       </x:c>
       <x:c r="C45" s="4" t="s">
-        <x:v>128</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D45" s="5"/>
       <x:c r="F45" s="3">
         <x:v>11055</x:v>
       </x:c>
       <x:c r="G45" s="4" t="s">
-        <x:v>122</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H45" s="5"/>
     </x:row>
@@ -2371,14 +2354,14 @@
         <x:v>10844</x:v>
       </x:c>
       <x:c r="C46" s="4" t="s">
-        <x:v>187</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="D46" s="5"/>
       <x:c r="F46" s="3">
         <x:v>11722</x:v>
       </x:c>
       <x:c r="G46" s="4" t="s">
-        <x:v>131</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H46" s="5"/>
     </x:row>
@@ -2387,14 +2370,14 @@
         <x:v>2193</x:v>
       </x:c>
       <x:c r="C47" s="11" t="s">
-        <x:v>55</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D47" s="5"/>
       <x:c r="F47" s="10">
         <x:v>11054</x:v>
       </x:c>
       <x:c r="G47" s="11" t="s">
-        <x:v>120</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H47" s="5"/>
     </x:row>
@@ -2403,14 +2386,14 @@
         <x:v>11053</x:v>
       </x:c>
       <x:c r="C48" s="11" t="s">
-        <x:v>126</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D48" s="5"/>
       <x:c r="F48" s="10">
         <x:v>13398</x:v>
       </x:c>
       <x:c r="G48" s="11" t="s">
-        <x:v>174</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="H48" s="5"/>
     </x:row>
@@ -2419,14 +2402,14 @@
         <x:v>14002</x:v>
       </x:c>
       <x:c r="C49" s="11" t="s">
-        <x:v>32</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D49" s="5"/>
       <x:c r="F49" s="10">
         <x:v>2133</x:v>
       </x:c>
       <x:c r="G49" s="11" t="s">
-        <x:v>177</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="H49" s="5"/>
     </x:row>
@@ -2435,7 +2418,7 @@
         <x:v>1912</x:v>
       </x:c>
       <x:c r="C50" s="11" t="s">
-        <x:v>37</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D50" s="5"/>
       <x:c r="F50" s="9"/>
@@ -2447,7 +2430,7 @@
         <x:v>1699</x:v>
       </x:c>
       <x:c r="C51" s="11" t="s">
-        <x:v>192</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="D51" s="5"/>
       <x:c r="F51" s="9"/>
@@ -2459,7 +2442,7 @@
         <x:v>14501</x:v>
       </x:c>
       <x:c r="C52" s="11" t="s">
-        <x:v>52</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D52" s="5"/>
       <x:c r="F52" s="9"/>
@@ -2471,7 +2454,7 @@
         <x:v>2225</x:v>
       </x:c>
       <x:c r="C53" s="11" t="s">
-        <x:v>44</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D53" s="5"/>
       <x:c r="F53" s="9"/>
@@ -2480,39 +2463,39 @@
     </x:row>
     <x:row r="55" spans="1:1" ht="23.5">
       <x:c r="A55" s="14" t="s">
-        <x:v>97</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="2:8" ht="20.649999999999999">
       <x:c r="B56" s="29" t="s">
-        <x:v>190</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="C56" s="30"/>
       <x:c r="D56" s="31"/>
       <x:c r="F56" s="29" t="s">
-        <x:v>36</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="G56" s="30"/>
       <x:c r="H56" s="31"/>
     </x:row>
     <x:row r="57" spans="2:8">
       <x:c r="B57" s="15" t="s">
-        <x:v>43</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C57" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D57" s="2" t="s">
-        <x:v>148</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="F57" s="15" t="s">
-        <x:v>43</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="G57" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="H57" s="2" t="s">
-        <x:v>148</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="2:8">
@@ -2520,14 +2503,14 @@
         <x:v>10845</x:v>
       </x:c>
       <x:c r="C58" s="4" t="s">
-        <x:v>46</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D58" s="5"/>
       <x:c r="F58" s="3">
         <x:v>1697</x:v>
       </x:c>
       <x:c r="G58" s="4" t="s">
-        <x:v>191</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="H58" s="5"/>
     </x:row>
@@ -2536,14 +2519,14 @@
         <x:v>10866</x:v>
       </x:c>
       <x:c r="C59" s="4" t="s">
-        <x:v>56</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D59" s="5"/>
       <x:c r="F59" s="3">
         <x:v>13913</x:v>
       </x:c>
       <x:c r="G59" s="4" t="s">
-        <x:v>183</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="H59" s="5"/>
     </x:row>
@@ -2552,14 +2535,14 @@
         <x:v>13023</x:v>
       </x:c>
       <x:c r="C60" s="4" t="s">
-        <x:v>175</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D60" s="5"/>
       <x:c r="F60" s="3">
         <x:v>14226</x:v>
       </x:c>
       <x:c r="G60" s="4" t="s">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="H60" s="5"/>
     </x:row>
@@ -2568,14 +2551,14 @@
         <x:v>1260</x:v>
       </x:c>
       <x:c r="C61" s="4" t="s">
-        <x:v>98</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D61" s="5"/>
       <x:c r="F61" s="3">
         <x:v>13549</x:v>
       </x:c>
       <x:c r="G61" s="4" t="s">
-        <x:v>164</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="H61" s="5"/>
     </x:row>
@@ -2584,14 +2567,14 @@
         <x:v>11724</x:v>
       </x:c>
       <x:c r="C62" s="4" t="s">
-        <x:v>99</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D62" s="5"/>
       <x:c r="F62" s="3">
         <x:v>1261</x:v>
       </x:c>
       <x:c r="G62" s="4" t="s">
-        <x:v>167</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="H62" s="5"/>
     </x:row>
@@ -2600,7 +2583,7 @@
         <x:v>1707</x:v>
       </x:c>
       <x:c r="C63" s="4" t="s">
-        <x:v>188</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="D63" s="5"/>
       <x:c r="F63" s="7"/>
@@ -2612,7 +2595,7 @@
         <x:v>2667</x:v>
       </x:c>
       <x:c r="C64" s="4" t="s">
-        <x:v>189</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="D64" s="5"/>
       <x:c r="F64" s="7"/>
@@ -2624,7 +2607,7 @@
         <x:v>2178</x:v>
       </x:c>
       <x:c r="C65" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D65" s="5"/>
       <x:c r="F65" s="7"/>
@@ -2636,7 +2619,7 @@
         <x:v>7576</x:v>
       </x:c>
       <x:c r="C66" s="11" t="s">
-        <x:v>45</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D66" s="5"/>
       <x:c r="F66" s="9"/>
@@ -2648,7 +2631,7 @@
         <x:v>7562</x:v>
       </x:c>
       <x:c r="C67" s="11" t="s">
-        <x:v>166</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="D67" s="5"/>
       <x:c r="F67" s="9"/>
@@ -2662,7 +2645,7 @@
     </x:row>
     <x:row r="69" spans="1:1" ht="23.5">
       <x:c r="A69" s="14" t="s">
-        <x:v>135</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="2:4" ht="20.649999999999999">
@@ -2674,13 +2657,13 @@
     </x:row>
     <x:row r="71" spans="2:4">
       <x:c r="B71" s="15" t="s">
-        <x:v>43</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C71" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D71" s="2" t="s">
-        <x:v>148</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="2:4">
@@ -2688,7 +2671,7 @@
         <x:v>16935</x:v>
       </x:c>
       <x:c r="C72" s="4" t="s">
-        <x:v>83</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D72" s="5"/>
     </x:row>
@@ -2697,7 +2680,7 @@
         <x:v>16926</x:v>
       </x:c>
       <x:c r="C73" s="4" t="s">
-        <x:v>85</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D73" s="5"/>
     </x:row>
@@ -2706,7 +2689,7 @@
         <x:v>16927</x:v>
       </x:c>
       <x:c r="C74" s="4" t="s">
-        <x:v>84</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D74" s="5"/>
     </x:row>
@@ -2715,7 +2698,7 @@
         <x:v>14499</x:v>
       </x:c>
       <x:c r="C75" s="4" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="D75" s="5"/>
     </x:row>
@@ -2724,7 +2707,7 @@
         <x:v>14890</x:v>
       </x:c>
       <x:c r="C76" s="4" t="s">
-        <x:v>54</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D76" s="5"/>
     </x:row>
@@ -2733,7 +2716,7 @@
         <x:v>15662</x:v>
       </x:c>
       <x:c r="C77" s="4" t="s">
-        <x:v>184</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="D77" s="5"/>
     </x:row>
@@ -2742,7 +2725,7 @@
         <x:v>14503</x:v>
       </x:c>
       <x:c r="C78" s="4" t="s">
-        <x:v>168</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D78" s="5"/>
     </x:row>
@@ -2751,7 +2734,7 @@
         <x:v>14890</x:v>
       </x:c>
       <x:c r="C79" s="4" t="s">
-        <x:v>54</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D79" s="5"/>
     </x:row>
@@ -2769,7 +2752,7 @@
         <x:v>2290</x:v>
       </x:c>
       <x:c r="C81" s="11" t="s">
-        <x:v>75</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D81" s="5"/>
     </x:row>
@@ -2778,7 +2761,7 @@
         <x:v>16931</x:v>
       </x:c>
       <x:c r="C82" s="11" t="s">
-        <x:v>170</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="D82" s="5"/>
     </x:row>
@@ -2787,7 +2770,7 @@
         <x:v>1917</x:v>
       </x:c>
       <x:c r="C83" s="11" t="s">
-        <x:v>79</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D83" s="5"/>
     </x:row>
@@ -2796,7 +2779,7 @@
         <x:v>16967</x:v>
       </x:c>
       <x:c r="C84" s="11" t="s">
-        <x:v>181</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D84" s="5"/>
     </x:row>
@@ -2805,7 +2788,7 @@
         <x:v>20327</x:v>
       </x:c>
       <x:c r="C85" s="11" t="s">
-        <x:v>76</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D85" s="5"/>
     </x:row>
@@ -2814,7 +2797,7 @@
         <x:v>20055</x:v>
       </x:c>
       <x:c r="C86" s="11" t="s">
-        <x:v>133</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D86" s="5"/>
     </x:row>
@@ -2832,7 +2815,7 @@
     <x:mergeCell ref="B56:D56"/>
     <x:mergeCell ref="F56:H56"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -2854,39 +2837,39 @@
   <x:sheetData>
     <x:row r="1" spans="1:1" ht="26.25">
       <x:c r="A1" s="14" t="s">
-        <x:v>130</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="2:8" ht="20.25">
       <x:c r="B2" s="32" t="s">
-        <x:v>108</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C2" s="32"/>
       <x:c r="D2" s="32"/>
       <x:c r="F2" s="32" t="s">
-        <x:v>82</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="G2" s="32"/>
       <x:c r="H2" s="32"/>
     </x:row>
     <x:row r="3" spans="2:8">
       <x:c r="B3" s="16" t="s">
-        <x:v>43</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C3" s="16" t="s">
-        <x:v>48</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D3" s="16" t="s">
-        <x:v>148</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="F3" s="16" t="s">
-        <x:v>43</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="G3" s="16" t="s">
-        <x:v>48</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="H3" s="16" t="s">
-        <x:v>148</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:8">
@@ -2894,14 +2877,14 @@
         <x:v>6603</x:v>
       </x:c>
       <x:c r="C4" s="18" t="s">
-        <x:v>41</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D4" s="19"/>
       <x:c r="F4" s="17">
         <x:v>2003</x:v>
       </x:c>
       <x:c r="G4" s="18" t="s">
-        <x:v>199</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="H4" s="19"/>
     </x:row>
@@ -2910,14 +2893,14 @@
         <x:v>1182</x:v>
       </x:c>
       <x:c r="C5" s="18" t="s">
-        <x:v>178</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="D5" s="19"/>
       <x:c r="F5" s="17">
         <x:v>1806</x:v>
       </x:c>
       <x:c r="G5" s="18" t="s">
-        <x:v>42</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="H5" s="19"/>
     </x:row>
@@ -2926,14 +2909,14 @@
         <x:v>14225</x:v>
       </x:c>
       <x:c r="C6" s="18" t="s">
-        <x:v>178</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="D6" s="19"/>
       <x:c r="F6" s="17">
         <x:v>1644</x:v>
       </x:c>
       <x:c r="G6" s="18" t="s">
-        <x:v>212</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="H6" s="19"/>
     </x:row>
@@ -2942,14 +2925,14 @@
         <x:v>14888</x:v>
       </x:c>
       <x:c r="C7" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D7" s="19"/>
       <x:c r="F7" s="17">
         <x:v>1208</x:v>
       </x:c>
       <x:c r="G7" s="18" t="s">
-        <x:v>77</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="H7" s="19"/>
     </x:row>
@@ -2958,14 +2941,14 @@
         <x:v>15658</x:v>
       </x:c>
       <x:c r="C8" s="18" t="s">
-        <x:v>121</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D8" s="19"/>
       <x:c r="F8" s="20">
         <x:v>2143</x:v>
       </x:c>
       <x:c r="G8" s="21" t="s">
-        <x:v>204</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="H8" s="19"/>
     </x:row>
@@ -2974,7 +2957,7 @@
         <x:v>14500</x:v>
       </x:c>
       <x:c r="C9" s="18" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="D9" s="19"/>
     </x:row>
@@ -2983,7 +2966,7 @@
         <x:v>16197</x:v>
       </x:c>
       <x:c r="C10" s="18" t="s">
-        <x:v>171</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="D10" s="19"/>
     </x:row>
@@ -2992,7 +2975,7 @@
         <x:v>16198</x:v>
       </x:c>
       <x:c r="C11" s="18" t="s">
-        <x:v>172</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D11" s="19"/>
     </x:row>
@@ -3001,7 +2984,7 @@
         <x:v>9663</x:v>
       </x:c>
       <x:c r="C12" s="18" t="s">
-        <x:v>179</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D12" s="19"/>
     </x:row>
@@ -3010,7 +2993,7 @@
         <x:v>2580</x:v>
       </x:c>
       <x:c r="C13" s="21" t="s">
-        <x:v>47</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D13" s="19"/>
     </x:row>
@@ -3019,40 +3002,40 @@
         <x:v>4574</x:v>
       </x:c>
       <x:c r="C14" s="21" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="D14" s="19"/>
     </x:row>
     <x:row r="16" spans="2:8" ht="20.25">
       <x:c r="B16" s="32" t="s">
-        <x:v>134</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C16" s="32"/>
       <x:c r="D16" s="32"/>
       <x:c r="F16" s="32" t="s">
-        <x:v>107</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G16" s="32"/>
       <x:c r="H16" s="32"/>
     </x:row>
     <x:row r="17" spans="2:8">
       <x:c r="B17" s="16" t="s">
-        <x:v>43</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C17" s="16" t="s">
-        <x:v>48</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D17" s="16" t="s">
-        <x:v>148</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="F17" s="16" t="s">
-        <x:v>43</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="G17" s="16" t="s">
-        <x:v>48</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="H17" s="16" t="s">
-        <x:v>148</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="2:8">
@@ -3060,14 +3043,14 @@
         <x:v>14225</x:v>
       </x:c>
       <x:c r="C18" s="18" t="s">
-        <x:v>178</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="D18" s="19"/>
       <x:c r="F18" s="17">
         <x:v>2529</x:v>
       </x:c>
       <x:c r="G18" s="18" t="s">
-        <x:v>53</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="H18" s="19"/>
     </x:row>
@@ -3076,14 +3059,14 @@
         <x:v>1062</x:v>
       </x:c>
       <x:c r="C19" s="18" t="s">
-        <x:v>40</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D19" s="19"/>
       <x:c r="F19" s="17">
         <x:v>1339</x:v>
       </x:c>
       <x:c r="G19" s="18" t="s">
-        <x:v>185</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="H19" s="19"/>
     </x:row>
@@ -3092,14 +3075,14 @@
         <x:v>13460</x:v>
       </x:c>
       <x:c r="C20" s="18" t="s">
-        <x:v>218</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="D20" s="19"/>
       <x:c r="F20" s="17">
         <x:v>14888</x:v>
       </x:c>
       <x:c r="G20" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="H20" s="19"/>
     </x:row>
@@ -3108,52 +3091,52 @@
         <x:v>12100</x:v>
       </x:c>
       <x:c r="C21" s="18" t="s">
-        <x:v>81</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D21" s="19"/>
       <x:c r="F21" s="17">
         <x:v>14889</x:v>
       </x:c>
       <x:c r="G21" s="18" t="s">
-        <x:v>147</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="H21" s="19"/>
     </x:row>
     <x:row r="23" spans="1:1" ht="26.25">
       <x:c r="A23" s="14" t="s">
-        <x:v>78</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="2:8" ht="20.25">
       <x:c r="B24" s="32" t="s">
-        <x:v>4</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C24" s="32"/>
       <x:c r="D24" s="32"/>
       <x:c r="F24" s="32" t="s">
-        <x:v>3</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G24" s="32"/>
       <x:c r="H24" s="32"/>
     </x:row>
     <x:row r="25" spans="2:8">
       <x:c r="B25" s="16" t="s">
-        <x:v>43</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C25" s="16" t="s">
-        <x:v>48</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D25" s="16" t="s">
-        <x:v>148</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="F25" s="16" t="s">
-        <x:v>43</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="G25" s="16" t="s">
-        <x:v>48</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="H25" s="16" t="s">
-        <x:v>148</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="2:8">
@@ -3161,14 +3144,14 @@
         <x:v>16928</x:v>
       </x:c>
       <x:c r="C26" s="18" t="s">
-        <x:v>6</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D26" s="19"/>
       <x:c r="F26" s="17">
         <x:v>16929</x:v>
       </x:c>
       <x:c r="G26" s="18" t="s">
-        <x:v>11</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H26" s="19"/>
     </x:row>
@@ -3177,14 +3160,14 @@
         <x:v>16948</x:v>
       </x:c>
       <x:c r="C27" s="18" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="D27" s="19"/>
       <x:c r="F27" s="17">
         <x:v>16947</x:v>
       </x:c>
       <x:c r="G27" s="18" t="s">
-        <x:v>10</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H27" s="19"/>
     </x:row>
@@ -3193,14 +3176,14 @@
         <x:v>14502</x:v>
       </x:c>
       <x:c r="C28" s="18" t="s">
-        <x:v>35</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="D28" s="19"/>
       <x:c r="F28" s="17">
         <x:v>12946</x:v>
       </x:c>
       <x:c r="G28" s="18" t="s">
-        <x:v>221</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="H28" s="19"/>
     </x:row>
@@ -3209,14 +3192,14 @@
         <x:v>12886</x:v>
       </x:c>
       <x:c r="C29" s="18" t="s">
-        <x:v>219</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="D29" s="19"/>
       <x:c r="F29" s="17">
         <x:v>16940</x:v>
       </x:c>
       <x:c r="G29" s="18" t="s">
-        <x:v>9</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H29" s="19"/>
     </x:row>
@@ -3225,14 +3208,14 @@
         <x:v>2206</x:v>
       </x:c>
       <x:c r="C30" s="18" t="s">
-        <x:v>2</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D30" s="19"/>
       <x:c r="F30" s="20">
         <x:v>16964</x:v>
       </x:c>
       <x:c r="G30" s="21" t="s">
-        <x:v>7</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H30" s="19"/>
     </x:row>
@@ -3241,7 +3224,7 @@
         <x:v>16946</x:v>
       </x:c>
       <x:c r="C31" s="18" t="s">
-        <x:v>127</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D31" s="19"/>
     </x:row>
@@ -3250,7 +3233,7 @@
         <x:v>14442</x:v>
       </x:c>
       <x:c r="C32" s="18" t="s">
-        <x:v>123</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D32" s="19"/>
     </x:row>
@@ -3259,7 +3242,7 @@
         <x:v>16933</x:v>
       </x:c>
       <x:c r="C33" s="18" t="s">
-        <x:v>129</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D33" s="19"/>
     </x:row>
@@ -3268,7 +3251,7 @@
         <x:v>16954</x:v>
       </x:c>
       <x:c r="C34" s="18" t="s">
-        <x:v>5</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D34" s="19"/>
     </x:row>
@@ -3277,7 +3260,7 @@
         <x:v>16236</x:v>
       </x:c>
       <x:c r="C35" s="21" t="s">
-        <x:v>196</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="D35" s="19"/>
     </x:row>
@@ -3286,7 +3269,7 @@
         <x:v>6087</x:v>
       </x:c>
       <x:c r="C36" s="21" t="s">
-        <x:v>211</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="D36" s="19"/>
     </x:row>
@@ -3295,7 +3278,7 @@
         <x:v>1963</x:v>
       </x:c>
       <x:c r="C37" s="21" t="s">
-        <x:v>222</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="D37" s="19"/>
     </x:row>
@@ -3304,7 +3287,7 @@
         <x:v>10026</x:v>
       </x:c>
       <x:c r="C38" s="21" t="s">
-        <x:v>213</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="D38" s="19"/>
     </x:row>
@@ -3313,7 +3296,7 @@
         <x:v>14395</x:v>
       </x:c>
       <x:c r="C39" s="21" t="s">
-        <x:v>62</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D39" s="19"/>
     </x:row>
@@ -3322,7 +3305,7 @@
         <x:v>5014</x:v>
       </x:c>
       <x:c r="C40" s="21" t="s">
-        <x:v>220</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="D40" s="19"/>
     </x:row>
@@ -3331,7 +3314,7 @@
         <x:v>9376</x:v>
       </x:c>
       <x:c r="C41" s="21" t="s">
-        <x:v>72</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D41" s="19"/>
     </x:row>
@@ -3340,7 +3323,7 @@
         <x:v>1600</x:v>
       </x:c>
       <x:c r="C42" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D42" s="19"/>
     </x:row>
@@ -3349,7 +3332,7 @@
         <x:v>17086</x:v>
       </x:c>
       <x:c r="C43" s="21" t="s">
-        <x:v>198</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="D43" s="19"/>
     </x:row>
@@ -3358,7 +3341,7 @@
         <x:v>4991</x:v>
       </x:c>
       <x:c r="C44" s="21" t="s">
-        <x:v>168</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D44" s="19"/>
     </x:row>
@@ -3367,7 +3350,7 @@
         <x:v>2234</x:v>
       </x:c>
       <x:c r="C45" s="21" t="s">
-        <x:v>65</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D45" s="19"/>
     </x:row>
@@ -3376,7 +3359,7 @@
         <x:v>12906</x:v>
       </x:c>
       <x:c r="C46" s="21" t="s">
-        <x:v>0</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D46" s="19"/>
     </x:row>
@@ -3385,7 +3368,7 @@
         <x:v>17141</x:v>
       </x:c>
       <x:c r="C47" s="21" t="s">
-        <x:v>200</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="D47" s="19"/>
     </x:row>
@@ -3394,31 +3377,31 @@
         <x:v>17142</x:v>
       </x:c>
       <x:c r="C48" s="21" t="s">
-        <x:v>217</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="D48" s="19"/>
     </x:row>
     <x:row r="50" spans="1:1" ht="26.25">
       <x:c r="A50" s="14" t="s">
-        <x:v>125</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="2:4" ht="20.25">
       <x:c r="B51" s="32" t="s">
-        <x:v>12</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C51" s="32"/>
       <x:c r="D51" s="32"/>
     </x:row>
     <x:row r="52" spans="2:4">
       <x:c r="B52" s="16" t="s">
-        <x:v>43</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C52" s="16" t="s">
-        <x:v>48</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D52" s="16" t="s">
-        <x:v>148</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="2:4">
@@ -3426,7 +3409,7 @@
         <x:v>11048</x:v>
       </x:c>
       <x:c r="C53" s="18" t="s">
-        <x:v>215</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="D53" s="19"/>
     </x:row>
@@ -3435,7 +3418,7 @@
         <x:v>11060</x:v>
       </x:c>
       <x:c r="C54" s="18" t="s">
-        <x:v>214</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="D54" s="19"/>
     </x:row>
@@ -3444,7 +3427,7 @@
         <x:v>10942</x:v>
       </x:c>
       <x:c r="C55" s="18" t="s">
-        <x:v>225</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="D55" s="19"/>
     </x:row>
@@ -3453,7 +3436,7 @@
         <x:v>15989</x:v>
       </x:c>
       <x:c r="C56" s="18" t="s">
-        <x:v>119</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D56" s="19"/>
     </x:row>
@@ -3462,7 +3445,7 @@
         <x:v>11066</x:v>
       </x:c>
       <x:c r="C57" s="18" t="s">
-        <x:v>205</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="D57" s="19"/>
     </x:row>
@@ -3471,7 +3454,7 @@
         <x:v>12865</x:v>
       </x:c>
       <x:c r="C58" s="18" t="s">
-        <x:v>226</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="D58" s="19"/>
     </x:row>
@@ -3480,7 +3463,7 @@
         <x:v>1495</x:v>
       </x:c>
       <x:c r="C59" s="18" t="s">
-        <x:v>206</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="D59" s="19"/>
     </x:row>
@@ -3489,7 +3472,7 @@
         <x:v>12869</x:v>
       </x:c>
       <x:c r="C60" s="18" t="s">
-        <x:v>209</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="D60" s="19"/>
     </x:row>
@@ -3498,7 +3481,7 @@
         <x:v>10422</x:v>
       </x:c>
       <x:c r="C61" s="18" t="s">
-        <x:v>64</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D61" s="19"/>
     </x:row>
@@ -3507,7 +3490,7 @@
         <x:v>2293</x:v>
       </x:c>
       <x:c r="C62" s="21" t="s">
-        <x:v>207</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="D62" s="19"/>
     </x:row>
@@ -3516,7 +3499,7 @@
         <x:v>2294</x:v>
       </x:c>
       <x:c r="C63" s="21" t="s">
-        <x:v>210</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="D63" s="19"/>
     </x:row>
@@ -3525,7 +3508,7 @@
         <x:v>11058</x:v>
       </x:c>
       <x:c r="C64" s="21" t="s">
-        <x:v>202</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="D64" s="19"/>
     </x:row>
@@ -3534,7 +3517,7 @@
         <x:v>9251</x:v>
       </x:c>
       <x:c r="C65" s="21" t="s">
-        <x:v>63</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D65" s="19"/>
     </x:row>
@@ -3543,7 +3526,7 @@
         <x:v>9252</x:v>
       </x:c>
       <x:c r="C66" s="21" t="s">
-        <x:v>216</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="D66" s="19"/>
     </x:row>
@@ -3552,7 +3535,7 @@
         <x:v>5582</x:v>
       </x:c>
       <x:c r="C67" s="21" t="s">
-        <x:v>13</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D67" s="19"/>
     </x:row>
@@ -3561,7 +3544,7 @@
         <x:v>5557</x:v>
       </x:c>
       <x:c r="C68" s="21" t="s">
-        <x:v>73</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="D68" s="19"/>
     </x:row>
@@ -3572,25 +3555,25 @@
     </x:row>
     <x:row r="70" spans="1:1" ht="26.25">
       <x:c r="A70" s="14" t="s">
-        <x:v>137</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="2:4" ht="20.25">
       <x:c r="B71" s="32" t="s">
-        <x:v>12</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C71" s="32"/>
       <x:c r="D71" s="32"/>
     </x:row>
     <x:row r="72" spans="2:4">
       <x:c r="B72" s="16" t="s">
-        <x:v>43</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C72" s="16" t="s">
-        <x:v>48</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D72" s="16" t="s">
-        <x:v>148</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="2:4">
@@ -3598,7 +3581,7 @@
         <x:v>16234</x:v>
       </x:c>
       <x:c r="C73" s="18" t="s">
-        <x:v>223</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D73" s="19"/>
     </x:row>
@@ -3607,7 +3590,7 @@
         <x:v>16235</x:v>
       </x:c>
       <x:c r="C74" s="18" t="s">
-        <x:v>203</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="D74" s="19"/>
     </x:row>
@@ -3616,7 +3599,7 @@
         <x:v>17144</x:v>
       </x:c>
       <x:c r="C75" s="18" t="s">
-        <x:v>8</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D75" s="19"/>
     </x:row>
@@ -3625,7 +3608,7 @@
         <x:v>17143</x:v>
       </x:c>
       <x:c r="C76" s="18" t="s">
-        <x:v>71</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="D76" s="19"/>
     </x:row>
@@ -3634,7 +3617,7 @@
         <x:v>17140</x:v>
       </x:c>
       <x:c r="C77" s="18" t="s">
-        <x:v>14</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D77" s="19"/>
     </x:row>
@@ -3643,7 +3626,7 @@
         <x:v>17780</x:v>
       </x:c>
       <x:c r="C78" s="18" t="s">
-        <x:v>224</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="D78" s="19"/>
     </x:row>
@@ -3652,7 +3635,7 @@
         <x:v>17837</x:v>
       </x:c>
       <x:c r="C79" s="18" t="s">
-        <x:v>17</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D79" s="19"/>
     </x:row>
@@ -3661,7 +3644,7 @@
         <x:v>17822</x:v>
       </x:c>
       <x:c r="C80" s="18" t="s">
-        <x:v>227</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="D80" s="19"/>
     </x:row>
@@ -3670,7 +3653,7 @@
         <x:v>16939</x:v>
       </x:c>
       <x:c r="C81" s="18" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D81" s="19"/>
     </x:row>
@@ -3679,7 +3662,7 @@
         <x:v>16974</x:v>
       </x:c>
       <x:c r="C82" s="21" t="s">
-        <x:v>197</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="D82" s="19"/>
     </x:row>
@@ -3688,7 +3671,7 @@
         <x:v>20061</x:v>
       </x:c>
       <x:c r="C83" s="21" t="s">
-        <x:v>15</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D83" s="19"/>
     </x:row>
@@ -3706,7 +3689,7 @@
         <x:v>19237</x:v>
       </x:c>
       <x:c r="C85" s="21" t="s">
-        <x:v>240</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="D85" s="19"/>
     </x:row>
@@ -3736,7 +3719,7 @@
     <x:mergeCell ref="B24:D24"/>
     <x:mergeCell ref="F24:H24"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -3759,53 +3742,53 @@
   <x:sheetData>
     <x:row r="1" spans="1:1" ht="26.25">
       <x:c r="A1" s="14" t="s">
-        <x:v>18</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="2:12" ht="20.25">
       <x:c r="B2" s="33" t="s">
-        <x:v>138</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C2" s="33"/>
       <x:c r="D2" s="33"/>
       <x:c r="F2" s="33" t="s">
-        <x:v>140</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="G2" s="33"/>
       <x:c r="H2" s="33"/>
       <x:c r="J2" s="33" t="s">
-        <x:v>142</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K2" s="33"/>
       <x:c r="L2" s="33"/>
     </x:row>
     <x:row r="3" spans="2:12">
       <x:c r="B3" s="22" t="s">
-        <x:v>43</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C3" s="22" t="s">
-        <x:v>48</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D3" s="22" t="s">
-        <x:v>148</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="F3" s="22" t="s">
-        <x:v>43</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="G3" s="22" t="s">
-        <x:v>48</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="H3" s="22" t="s">
-        <x:v>148</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="J3" s="22" t="s">
-        <x:v>43</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="K3" s="22" t="s">
-        <x:v>48</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="L3" s="22" t="s">
-        <x:v>148</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:12">
@@ -3813,21 +3796,21 @@
         <x:v>16968</x:v>
       </x:c>
       <x:c r="C4" s="24" t="s">
-        <x:v>20</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D4" s="25"/>
       <x:c r="F4" s="23">
         <x:v>17779</x:v>
       </x:c>
       <x:c r="G4" s="24" t="s">
-        <x:v>229</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="H4" s="25"/>
       <x:c r="J4" s="23">
         <x:v>16985</x:v>
       </x:c>
       <x:c r="K4" s="24" t="s">
-        <x:v>26</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="L4" s="25"/>
     </x:row>
@@ -3836,21 +3819,21 @@
         <x:v>16917</x:v>
       </x:c>
       <x:c r="C5" s="24" t="s">
-        <x:v>21</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D5" s="25"/>
       <x:c r="F5" s="23">
         <x:v>17070</x:v>
       </x:c>
       <x:c r="G5" s="24" t="s">
-        <x:v>25</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H5" s="25"/>
       <x:c r="J5" s="23">
         <x:v>17090</x:v>
       </x:c>
       <x:c r="K5" s="24" t="s">
-        <x:v>232</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="L5" s="25"/>
     </x:row>
@@ -3859,21 +3842,21 @@
         <x:v>16922</x:v>
       </x:c>
       <x:c r="C6" s="24" t="s">
-        <x:v>16</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D6" s="25"/>
       <x:c r="F6" s="23">
         <x:v>17069</x:v>
       </x:c>
       <x:c r="G6" s="24" t="s">
-        <x:v>28</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H6" s="25"/>
       <x:c r="J6" s="23">
         <x:v>12931</x:v>
       </x:c>
       <x:c r="K6" s="24" t="s">
-        <x:v>256</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="L6" s="25"/>
     </x:row>
@@ -3882,21 +3865,21 @@
         <x:v>16924</x:v>
       </x:c>
       <x:c r="C7" s="24" t="s">
-        <x:v>241</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="D7" s="25"/>
       <x:c r="F7" s="23">
         <x:v>16638</x:v>
       </x:c>
       <x:c r="G7" s="24" t="s">
-        <x:v>29</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H7" s="25"/>
       <x:c r="J7" s="23">
         <x:v>16958</x:v>
       </x:c>
       <x:c r="K7" s="24" t="s">
-        <x:v>233</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="L7" s="25"/>
     </x:row>
@@ -3905,14 +3888,14 @@
         <x:v>16936</x:v>
       </x:c>
       <x:c r="C8" s="24" t="s">
-        <x:v>255</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="D8" s="25"/>
       <x:c r="F8" s="23">
         <x:v>17085</x:v>
       </x:c>
       <x:c r="G8" s="24" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H8" s="25"/>
       <x:c r="J8" s="23">
@@ -3928,21 +3911,21 @@
         <x:v>16937</x:v>
       </x:c>
       <x:c r="C9" s="24" t="s">
-        <x:v>247</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="D9" s="25"/>
       <x:c r="F9" s="23">
         <x:v>17825</x:v>
       </x:c>
       <x:c r="G9" s="24" t="s">
-        <x:v>244</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="H9" s="25"/>
       <x:c r="J9" s="23">
         <x:v>16957</x:v>
       </x:c>
       <x:c r="K9" s="24" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="L9" s="25"/>
     </x:row>
@@ -3951,21 +3934,21 @@
         <x:v>16938</x:v>
       </x:c>
       <x:c r="C10" s="24" t="s">
-        <x:v>250</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="D10" s="25"/>
       <x:c r="F10" s="23">
         <x:v>16987</x:v>
       </x:c>
       <x:c r="G10" s="24" t="s">
-        <x:v>23</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H10" s="25"/>
       <x:c r="J10" s="23">
         <x:v>16971</x:v>
       </x:c>
       <x:c r="K10" s="24" t="s">
-        <x:v>258</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="L10" s="25"/>
     </x:row>
@@ -3974,21 +3957,21 @@
         <x:v>16943</x:v>
       </x:c>
       <x:c r="C11" s="24" t="s">
-        <x:v>251</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="D11" s="25"/>
       <x:c r="F11" s="23">
         <x:v>16988</x:v>
       </x:c>
       <x:c r="G11" s="24" t="s">
-        <x:v>33</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="H11" s="25"/>
       <x:c r="J11" s="23">
         <x:v>17472</x:v>
       </x:c>
       <x:c r="K11" s="24" t="s">
-        <x:v>91</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="L11" s="25"/>
     </x:row>
@@ -3997,21 +3980,21 @@
         <x:v>16637</x:v>
       </x:c>
       <x:c r="C12" s="24" t="s">
-        <x:v>231</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="D12" s="25"/>
       <x:c r="F12" s="23">
         <x:v>15684</x:v>
       </x:c>
       <x:c r="G12" s="24" t="s">
-        <x:v>236</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="H12" s="25"/>
       <x:c r="J12" s="23">
         <x:v>14056</x:v>
       </x:c>
       <x:c r="K12" s="24" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="L12" s="25"/>
     </x:row>
@@ -4020,14 +4003,14 @@
         <x:v>15683</x:v>
       </x:c>
       <x:c r="C13" s="27" t="s">
-        <x:v>58</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D13" s="25"/>
       <x:c r="F13" s="26">
         <x:v>16945</x:v>
       </x:c>
       <x:c r="G13" s="27" t="s">
-        <x:v>141</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H13" s="25"/>
       <x:c r="J13" s="9"/>
@@ -4039,14 +4022,14 @@
         <x:v>17088</x:v>
       </x:c>
       <x:c r="C14" s="27" t="s">
-        <x:v>242</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="D14" s="25"/>
       <x:c r="F14" s="26">
         <x:v>16953</x:v>
       </x:c>
       <x:c r="G14" s="27" t="s">
-        <x:v>257</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="H14" s="25"/>
       <x:c r="J14" s="9"/>
@@ -4058,14 +4041,14 @@
         <x:v>15686</x:v>
       </x:c>
       <x:c r="C15" s="27" t="s">
-        <x:v>245</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="D15" s="25"/>
       <x:c r="F15" s="26">
         <x:v>17136</x:v>
       </x:c>
       <x:c r="G15" s="27" t="s">
-        <x:v>237</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="H15" s="25"/>
       <x:c r="J15" s="9"/>
@@ -4077,14 +4060,14 @@
         <x:v>2210</x:v>
       </x:c>
       <x:c r="C16" s="27" t="s">
-        <x:v>230</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="D16" s="25"/>
       <x:c r="F16" s="26">
         <x:v>17471</x:v>
       </x:c>
       <x:c r="G16" s="27" t="s">
-        <x:v>248</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="H16" s="25"/>
       <x:c r="J16" s="9"/>
@@ -4096,7 +4079,7 @@
         <x:v>2422</x:v>
       </x:c>
       <x:c r="C17" s="27" t="s">
-        <x:v>27</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D17" s="25"/>
       <x:c r="F17" s="9"/>
@@ -4108,7 +4091,7 @@
         <x:v>17089</x:v>
       </x:c>
       <x:c r="C18" s="27" t="s">
-        <x:v>246</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="D18" s="25"/>
       <x:c r="F18" s="9"/>
@@ -4120,7 +4103,7 @@
         <x:v>17406</x:v>
       </x:c>
       <x:c r="C19" s="27" t="s">
-        <x:v>24</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D19" s="25"/>
       <x:c r="F19" s="9"/>
@@ -4132,7 +4115,7 @@
         <x:v>17135</x:v>
       </x:c>
       <x:c r="C20" s="27" t="s">
-        <x:v>243</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="D20" s="25"/>
       <x:c r="F20" s="9"/>
@@ -4144,7 +4127,7 @@
         <x:v>17281</x:v>
       </x:c>
       <x:c r="C21" s="27" t="s">
-        <x:v>74</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D21" s="25"/>
       <x:c r="F21" s="9"/>
@@ -4153,39 +4136,39 @@
     </x:row>
     <x:row r="23" spans="1:1" ht="26.25">
       <x:c r="A23" s="14" t="s">
-        <x:v>78</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="2:8" ht="20.25">
       <x:c r="B24" s="33" t="s">
-        <x:v>4</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C24" s="33"/>
       <x:c r="D24" s="33"/>
       <x:c r="F24" s="33" t="s">
-        <x:v>3</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G24" s="33"/>
       <x:c r="H24" s="33"/>
     </x:row>
     <x:row r="25" spans="2:8">
       <x:c r="B25" s="22" t="s">
-        <x:v>43</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C25" s="22" t="s">
-        <x:v>48</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D25" s="22" t="s">
-        <x:v>148</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="F25" s="22" t="s">
-        <x:v>43</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="G25" s="22" t="s">
-        <x:v>48</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="H25" s="22" t="s">
-        <x:v>148</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="2:8">
@@ -4193,14 +4176,14 @@
         <x:v>8111</x:v>
       </x:c>
       <x:c r="C26" s="24" t="s">
-        <x:v>234</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="D26" s="25"/>
       <x:c r="F26" s="23">
         <x:v>2252</x:v>
       </x:c>
       <x:c r="G26" s="24" t="s">
-        <x:v>254</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="H26" s="25"/>
     </x:row>
@@ -4209,14 +4192,14 @@
         <x:v>17071</x:v>
       </x:c>
       <x:c r="C27" s="24" t="s">
-        <x:v>259</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="D27" s="25"/>
       <x:c r="F27" s="23">
         <x:v>2056</x:v>
       </x:c>
       <x:c r="G27" s="24" t="s">
-        <x:v>68</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="H27" s="25"/>
     </x:row>
@@ -4225,14 +4208,14 @@
         <x:v>16973</x:v>
       </x:c>
       <x:c r="C28" s="24" t="s">
-        <x:v>238</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="D28" s="25"/>
       <x:c r="F28" s="23">
         <x:v>14263</x:v>
       </x:c>
       <x:c r="G28" s="24" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="H28" s="25"/>
     </x:row>
@@ -4241,7 +4224,7 @@
         <x:v>1175</x:v>
       </x:c>
       <x:c r="C29" s="24" t="s">
-        <x:v>59</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D29" s="25"/>
     </x:row>
@@ -4250,7 +4233,7 @@
         <x:v>16959</x:v>
       </x:c>
       <x:c r="C30" s="24" t="s">
-        <x:v>93</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D30" s="25"/>
     </x:row>
@@ -4259,7 +4242,7 @@
         <x:v>16952</x:v>
       </x:c>
       <x:c r="C31" s="24" t="s">
-        <x:v>92</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D31" s="25"/>
     </x:row>
@@ -4268,7 +4251,7 @@
         <x:v>12851</x:v>
       </x:c>
       <x:c r="C32" s="24" t="s">
-        <x:v>249</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="D32" s="25"/>
     </x:row>
@@ -4277,7 +4260,7 @@
         <x:v>9328</x:v>
       </x:c>
       <x:c r="C33" s="24" t="s">
-        <x:v>66</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D33" s="25"/>
     </x:row>
@@ -4286,7 +4269,7 @@
         <x:v>16920</x:v>
       </x:c>
       <x:c r="C34" s="24" t="s">
-        <x:v>252</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="D34" s="25"/>
     </x:row>
@@ -4295,7 +4278,7 @@
         <x:v>15653</x:v>
       </x:c>
       <x:c r="C35" s="27" t="s">
-        <x:v>239</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="D35" s="25"/>
     </x:row>
@@ -4304,7 +4287,7 @@
         <x:v>15558</x:v>
       </x:c>
       <x:c r="C36" s="27" t="s">
-        <x:v>253</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="D36" s="25"/>
     </x:row>
@@ -4313,7 +4296,7 @@
         <x:v>1385</x:v>
       </x:c>
       <x:c r="C37" s="27" t="s">
-        <x:v>57</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D37" s="25"/>
     </x:row>
@@ -4324,25 +4307,25 @@
     </x:row>
     <x:row r="39" spans="1:1" ht="26.25">
       <x:c r="A39" s="14" t="s">
-        <x:v>125</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="2:4" ht="20.25">
       <x:c r="B40" s="33" t="s">
-        <x:v>12</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C40" s="33"/>
       <x:c r="D40" s="33"/>
     </x:row>
     <x:row r="41" spans="2:4">
       <x:c r="B41" s="22" t="s">
-        <x:v>43</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C41" s="22" t="s">
-        <x:v>48</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D41" s="22" t="s">
-        <x:v>148</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="2:4">
@@ -4350,7 +4333,7 @@
         <x:v>1695</x:v>
       </x:c>
       <x:c r="C42" s="24" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D42" s="25"/>
     </x:row>
@@ -4359,7 +4342,7 @@
         <x:v>11049</x:v>
       </x:c>
       <x:c r="C43" s="24" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D43" s="25"/>
     </x:row>
@@ -4368,7 +4351,7 @@
         <x:v>12969</x:v>
       </x:c>
       <x:c r="C44" s="24" t="s">
-        <x:v>60</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="D44" s="25"/>
     </x:row>
@@ -4377,7 +4360,7 @@
         <x:v>14238</x:v>
       </x:c>
       <x:c r="C45" s="24" t="s">
-        <x:v>268</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="D45" s="25"/>
     </x:row>
@@ -4386,7 +4369,7 @@
         <x:v>12026</x:v>
       </x:c>
       <x:c r="C46" s="24" t="s">
-        <x:v>267</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="D46" s="25"/>
     </x:row>
@@ -4395,7 +4378,7 @@
         <x:v>12996</x:v>
       </x:c>
       <x:c r="C47" s="24" t="s">
-        <x:v>266</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="D47" s="25"/>
     </x:row>
@@ -4404,7 +4387,7 @@
         <x:v>2281</x:v>
       </x:c>
       <x:c r="C48" s="24" t="s">
-        <x:v>263</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="D48" s="25"/>
     </x:row>
@@ -4413,7 +4396,7 @@
         <x:v>3012</x:v>
       </x:c>
       <x:c r="C49" s="24" t="s">
-        <x:v>95</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D49" s="25"/>
     </x:row>
@@ -4422,7 +4405,7 @@
         <x:v>2616</x:v>
       </x:c>
       <x:c r="C50" s="24" t="s">
-        <x:v>261</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="D50" s="25"/>
     </x:row>
@@ -4431,7 +4414,7 @@
         <x:v>1413</x:v>
       </x:c>
       <x:c r="C51" s="27" t="s">
-        <x:v>96</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D51" s="25"/>
     </x:row>
@@ -4449,7 +4432,7 @@
         <x:v>1970</x:v>
       </x:c>
       <x:c r="C53" s="27" t="s">
-        <x:v>69</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D53" s="25"/>
     </x:row>
@@ -4458,7 +4441,7 @@
         <x:v>2163</x:v>
       </x:c>
       <x:c r="C54" s="27" t="s">
-        <x:v>269</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="D54" s="25"/>
     </x:row>
@@ -4467,13 +4450,13 @@
         <x:v>12872</x:v>
       </x:c>
       <x:c r="C55" s="27" t="s">
-        <x:v>270</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="D55" s="25"/>
     </x:row>
     <x:row r="57" spans="1:1" ht="26.25">
       <x:c r="A57" s="14" t="s">
-        <x:v>137</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="2:4" ht="20.25">
@@ -4485,13 +4468,13 @@
     </x:row>
     <x:row r="59" spans="2:4">
       <x:c r="B59" s="22" t="s">
-        <x:v>43</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C59" s="22" t="s">
-        <x:v>48</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D59" s="22" t="s">
-        <x:v>148</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="2:4">
@@ -4499,7 +4482,7 @@
         <x:v>1913</x:v>
       </x:c>
       <x:c r="C60" s="24" t="s">
-        <x:v>61</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D60" s="25"/>
     </x:row>
@@ -4508,7 +4491,7 @@
         <x:v>1952</x:v>
       </x:c>
       <x:c r="C61" s="24" t="s">
-        <x:v>265</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="D61" s="25"/>
     </x:row>
@@ -4517,7 +4500,7 @@
         <x:v>1959</x:v>
       </x:c>
       <x:c r="C62" s="24" t="s">
-        <x:v>271</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="D62" s="25"/>
     </x:row>
@@ -4526,7 +4509,7 @@
         <x:v>4577</x:v>
       </x:c>
       <x:c r="C63" s="24" t="s">
-        <x:v>70</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D63" s="25"/>
     </x:row>
@@ -4535,7 +4518,7 @@
         <x:v>2064</x:v>
       </x:c>
       <x:c r="C64" s="24" t="s">
-        <x:v>272</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="D64" s="25"/>
     </x:row>
@@ -4544,7 +4527,7 @@
         <x:v>3107</x:v>
       </x:c>
       <x:c r="C65" s="24" t="s">
-        <x:v>262</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="D65" s="25"/>
     </x:row>
@@ -4553,7 +4536,7 @@
         <x:v>2571</x:v>
       </x:c>
       <x:c r="C66" s="24" t="s">
-        <x:v>264</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="D66" s="25"/>
     </x:row>
@@ -4562,7 +4545,7 @@
         <x:v>1089</x:v>
       </x:c>
       <x:c r="C67" s="24" t="s">
-        <x:v>94</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D67" s="25"/>
     </x:row>
@@ -4571,7 +4554,7 @@
         <x:v>20056</x:v>
       </x:c>
       <x:c r="C68" s="24" t="s">
-        <x:v>144</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D68" s="25"/>
     </x:row>
@@ -4580,7 +4563,7 @@
         <x:v>20057</x:v>
       </x:c>
       <x:c r="C69" s="27" t="s">
-        <x:v>139</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D69" s="25"/>
     </x:row>
@@ -4589,7 +4572,7 @@
         <x:v>20058</x:v>
       </x:c>
       <x:c r="C70" s="27" t="s">
-        <x:v>143</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D70" s="25"/>
     </x:row>
@@ -4598,7 +4581,7 @@
         <x:v>5373</x:v>
       </x:c>
       <x:c r="C71" s="27" t="s">
-        <x:v>67</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D71" s="25"/>
     </x:row>
@@ -4622,7 +4605,7 @@
     <x:mergeCell ref="F24:H24"/>
     <x:mergeCell ref="B40:D40"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/study_algo_record_date.xlsx
+++ b/study_algo_record_date.xlsx
@@ -5,7 +5,7 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan37\Desktop\강민지\알고리즘 공부\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan37\Desktop\강민지\코딩테스트 준비\강민지\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
@@ -23,439 +23,535 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="273">
   <x:si>
+    <x:t>행렬 곱셈 순서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체스판 위의 공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배열 돌리기 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>K번째 좋은 문자열</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부분수열의 합 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배열 돌리기 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정육면체 전개도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LCD Test</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브루트 포스 - 기타</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시뮬레이션과 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배열 돌리기 6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2048 (Easy)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연산자 끼워넣기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>팰린드롬 만들기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 그래프와 BFS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배열 돌리기 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계란으로 계란치기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모노미노도미노 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>새로운 게임 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한윤정이 이탈리아에…</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maaaaaaze</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 번호판 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배열 돌리기 4</x:t>
+  </x:si>
+  <x:si>
     <x:t>로마 숫자 만들기</x:t>
   </x:si>
   <x:si>
-    <x:t>계란으로 계란치기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모노미노도미노 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 번호판 1</x:t>
-  </x:si>
-  <x:si>
     <x:t>이차원 배열과 연산</x:t>
   </x:si>
   <x:si>
-    <x:t>배열 돌리기 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>새로운 게임 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한윤정이 이탈리아에…</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Maaaaaaze</x:t>
+    <x:t>2x2x2 큐브</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BFS 스페셜 저지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>괄호 추가하기 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이나믹 프로그래밍</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공통 부분 문자열</x:t>
+  </x:si>
+  <x:si>
+    <x:t>십자가 2개 놓기</x:t>
   </x:si>
   <x:si>
     <x:t>1. 브루트 포스</x:t>
   </x:si>
   <x:si>
+    <x:t>파이프 옮기기 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Two Dots</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서울 지하철 2호선</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N과 M (2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N과 M (6)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NM과 K (1)</x:t>
+  </x:si>
+  <x:si>
     <x:t>파이프 옮기기 1</x:t>
   </x:si>
   <x:si>
     <x:t>양념 반 후라이드 반</x:t>
   </x:si>
   <x:si>
-    <x:t>십자가 2개 놓기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>괄호 추가하기 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>파이프 옮기기 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2x2x2 큐브</x:t>
-  </x:si>
-  <x:si>
     <x:t>미세먼지 안녕!</x:t>
   </x:si>
   <x:si>
-    <x:t>Two Dots</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BFS 스페셜 저지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이나믹 프로그래밍</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공통 부분 문자열</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서울 지하철 2호선</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N과 M (6)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N과 M (2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NM과 K (1)</x:t>
+    <x:t>2. 브루트 포스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N과 M (1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>움직이는 미로 탈출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DFS 스페셜 저지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2 x n 타일링</x:t>
   </x:si>
   <x:si>
     <x:t>브루트 포스 - 재귀</x:t>
   </x:si>
   <x:si>
+    <x:t>새로운 하노이 탑</x:t>
+  </x:si>
+  <x:si>
+    <x:t>그래프 알고리즘</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벽 부수고 이동하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>말이 되고픈 원숭이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>외판원 순회 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카드 구매하기 2</x:t>
+  </x:si>
+  <x:si>
     <x:t>N과 M (5)</x:t>
   </x:si>
   <x:si>
-    <x:t>2. 브루트 포스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>외판원 순회 2</x:t>
+    <x:t>2 x n 타일링 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브루트 포스 - 순열</x:t>
   </x:si>
   <x:si>
     <x:t>N과 M (3)</x:t>
   </x:si>
   <x:si>
-    <x:t>카드 구매하기 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>브루트 포스 - 순열</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2 x n 타일링</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N과 M (1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2 x n 타일링 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>움직이는 미로 탈출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFS 스페셜 저지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>새로운 하노이 탑</x:t>
-  </x:si>
-  <x:si>
-    <x:t>그래프 알고리즘</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벽 부수고 이동하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>말이 되고픈 원숭이</x:t>
+    <x:t>BFS 알고리즘</x:t>
+  </x:si>
+  <x:si>
+    <x:t>골드바흐의 추측</x:t>
   </x:si>
   <x:si>
     <x:t>뱀과 사다리 게임</x:t>
   </x:si>
   <x:si>
-    <x:t>BFS 알고리즘</x:t>
+    <x:t>1, 2, 3 더하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수 이어 쓰기 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. 그래프와 BFS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>올바른 괄호 문자열</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스타트링크 타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N과 M (7)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N과 M (8)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박스 안의 열쇠</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체스판 여행 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체스판 여행 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연결 요소의 개수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DFS와 BFS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다리 만들기 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N과 M (4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baaaaaduk2(Easy)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가장 긴 증가하는 부분 수열 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이나믹 프로그래밍 Part 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이나믹 프로그래밍 Part 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부분합</x:t>
+  </x:si>
+  <x:si>
+    <x:t>토마토</x:t>
+  </x:si>
+  <x:si>
+    <x:t>번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성곽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리모컨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작업</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LCS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가르침</x:t>
+  </x:si>
+  <x:si>
+    <x:t>큐빙</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맞춰봐</x:t>
+  </x:si>
+  <x:si>
+    <x:t>건배</x:t>
+  </x:si>
+  <x:si>
+    <x:t>괄호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스도쿠</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배달</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연속합</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벌집</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경사로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>열쇠</x:t>
+  </x:si>
+  <x:si>
+    <x:t>달팽이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>퇴사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>야구공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나머지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>덱</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4연산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소코반</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수학</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈옥</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연구소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1학년</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동물원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>감시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부등호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>낚시왕</x:t>
+  </x:si>
+  <x:si>
+    <x:t>약수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로또</x:t>
+  </x:si>
+  <x:si>
+    <x:t>큐</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이친수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BFS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>합분해</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1, 2, 3 더하기 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매직 스퀘어로 변경하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가장 큰 증가 부분 수열</x:t>
   </x:si>
   <x:si>
     <x:t>1, 2, 3 더하기 4</x:t>
   </x:si>
   <x:si>
+    <x:t>벽 부수고 이동하기 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벽 부수고 이동하기 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브루트 포스 Part 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가장 긴 감소하는 부분 수열</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컨베이어 벨트 n이의 로봇</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1, 2, 3 더하기 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마법사 상어와 토네이도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. 다이나믹 프로그래밍</x:t>
+  </x:si>
+  <x:si>
     <x:t>가장 긴 바이토닉 부분 수열</x:t>
   </x:si>
   <x:si>
+    <x:t>4. 시뮬레이션과 구현</x:t>
+  </x:si>
+  <x:si>
     <x:t>연산자 끼워넣기 (2)</x:t>
   </x:si>
   <x:si>
-    <x:t>가장 큰 증가 부분 수열</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벽 부수고 이동하기 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1, 2, 3 더하기 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벽 부수고 이동하기 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4. 시뮬레이션과 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가장 긴 감소하는 부분 수열</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컨베이어 벨트 n이의 로봇</x:t>
-  </x:si>
-  <x:si>
-    <x:t>브루트 포스 Part 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마법사 상어와 토네이도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>매직 스퀘어로 변경하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3. 다이나믹 프로그래밍</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1, 2, 3 더하기 5</x:t>
+    <x:t>브루트 포스 Part 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브루트 포스 - 비트마스크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최대공약수와 최소공배수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마법사 상어와 파이어볼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5. 시뮬레이션과 구현</x:t>
   </x:si>
   <x:si>
     <x:t>1. 브루트 포스 연습</x:t>
   </x:si>
   <x:si>
-    <x:t>브루트 포스 - 비트마스크</x:t>
+    <x:t>벽 부수고 이동하기 4</x:t>
   </x:si>
   <x:si>
     <x:t>브루트 포스 - N과 M</x:t>
   </x:si>
   <x:si>
+    <x:t>마법사 상어와 파이어스톰</x:t>
+  </x:si>
+  <x:si>
     <x:t>가장 긴 증가하는 부분 수열</x:t>
   </x:si>
   <x:si>
     <x:t>브루트 포스 Part 3</x:t>
   </x:si>
   <x:si>
-    <x:t>마법사 상어와 파이어스톰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마법사 상어와 파이어볼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5. 시뮬레이션과 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최대공약수와 최소공배수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벽 부수고 이동하기 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>브루트 포스 Part 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>골드바흐의 추측</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수 이어 쓰기 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스타트링크 타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1, 2, 3 더하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N과 M (4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N과 M (8)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N과 M (7)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다리 만들기 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박스 안의 열쇠</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4. 그래프와 BFS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFS와 BFS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>올바른 괄호 문자열</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체스판 여행 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체스판 여행 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연결 요소의 개수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2048 (Easy)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>브루트 포스 - 기타</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시뮬레이션과 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배열 돌리기 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>팰린드롬 만들기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행렬 곱셈 순서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체스판 위의 공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>K번째 좋은 문자열</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연산자 끼워넣기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배열 돌리기 6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 그래프와 BFS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배열 돌리기 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부분수열의 합 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정육면체 전개도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배열 돌리기 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LCD Test</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연속합</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벌집</x:t>
-  </x:si>
-  <x:si>
-    <x:t>열쇠</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작업</x:t>
-  </x:si>
-  <x:si>
-    <x:t>건배</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맞춰봐</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가르침</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부분합</x:t>
-  </x:si>
-  <x:si>
-    <x:t>괄호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배달</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스도쿠</x:t>
-  </x:si>
-  <x:si>
-    <x:t>번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>달팽이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>퇴사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경사로</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LCS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성곽</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리모컨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>큐빙</x:t>
-  </x:si>
-  <x:si>
-    <x:t>토마토</x:t>
-  </x:si>
-  <x:si>
-    <x:t>감시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로또</x:t>
-  </x:si>
-  <x:si>
-    <x:t>큐</x:t>
-  </x:si>
-  <x:si>
-    <x:t>합분해</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나머지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부등호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>덱</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4연산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수학</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이친수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동물원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ABC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탈옥</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1학년</x:t>
-  </x:si>
-  <x:si>
-    <x:t>야구공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소코반</x:t>
-  </x:si>
-  <x:si>
-    <x:t>낚시왕</x:t>
-  </x:si>
-  <x:si>
-    <x:t>약수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연구소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BFS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이나믹 프로그래밍 Part 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가장 긴 증가하는 부분 수열 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이나믹 프로그래밍 Part 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baaaaaduk2(Easy)</x:t>
+    <x:t>Acka</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게리맨더링 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등차수열 변환</x:t>
+  </x:si>
+  <x:si>
+    <x:t>숨바꼭질 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>두 배 더하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나3곱2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데스노트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>출근 기록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>달팽이3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BOJ 거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>괄호 추가하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점프 게임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐슬 디펜스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사다리 조작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>직사각형 탈출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>팔굽혀펴기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>초콜릿 자르기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게리맨더링</x:t>
+  </x:si>
+  <x:si>
+    <x:t>플레이리스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IPv6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IP 주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>십자가 찾기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>치킨 배달</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소형기관차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구슬 탈출 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>색종이 - 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0과 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배열 B의 값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A -&gt; B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>달팽이2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주사위 윷놀이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>숨바꼭질 2</x:t>
   </x:si>
   <x:si>
     <x:t>암호 만들기</x:t>
@@ -464,267 +560,279 @@
     <x:t>링크와 스타트</x:t>
   </x:si>
   <x:si>
+    <x:t>스타트와 링크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소수 찾기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>약수의 합 2</x:t>
+  </x:si>
+  <x:si>
     <x:t>이전 순열</x:t>
   </x:si>
   <x:si>
+    <x:t>일곱 난쟁이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다음 순열</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소수 구하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차이를 최대로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사탕 게임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브루트 포스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테트로미노</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1로 만들기</x:t>
+  </x:si>
+  <x:si>
     <x:t>카잉 달력</x:t>
   </x:si>
   <x:si>
-    <x:t>스타트와 링크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1로 만들기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>브루트 포스</x:t>
+    <x:t>모든 순열</x:t>
+  </x:si>
+  <x:si>
+    <x:t>푼 날짜</x:t>
   </x:si>
   <x:si>
     <x:t>1. 수학</x:t>
   </x:si>
   <x:si>
-    <x:t>소수 찾기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>푼 날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>약수의 합 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일곱 난쟁이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소수 구하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다음 순열</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모든 순열</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테트로미노</x:t>
-  </x:si>
-  <x:si>
     <x:t>날짜 계산</x:t>
   </x:si>
   <x:si>
-    <x:t>사탕 게임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차이를 최대로</x:t>
+    <x:t>숨바꼭질 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나이트의 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스도미노쿠</x:t>
+  </x:si>
+  <x:si>
+    <x:t>두 동전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로봇 청소기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABCDE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단지번호붙이기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단어 수학</x:t>
+  </x:si>
+  <x:si>
+    <x:t>숨바꼭질 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쉬운 계단 수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알고스팟</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연속합 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배열 복원하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N-Queen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에너지 모으기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>톱니바퀴(2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미로 탐색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>큐와 그래프</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RGB거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이분 그래프</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카드 구매하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제곱수의 합</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포도주 시식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부분수열의 합</x:t>
+  </x:si>
+  <x:si>
+    <x:t>겉넓이 구하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이모티콘</x:t>
+  </x:si>
+  <x:si>
+    <x:t>숨바꼭질</x:t>
+  </x:si>
+  <x:si>
+    <x:t>드래곤 커브</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주사위 굴리기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정수 삼각형</x:t>
   </x:si>
   <x:si>
     <x:t>오르막 수</x:t>
   </x:si>
   <x:si>
-    <x:t>포도주 시식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주사위 굴리기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연속합 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단어 수학</x:t>
-  </x:si>
-  <x:si>
-    <x:t>드래곤 커브</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ABCDE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>숨바꼭질 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쉬운 계단 수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배열 복원하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에너지 모으기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N-Queen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정수 삼각형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>숨바꼭질</x:t>
-  </x:si>
-  <x:si>
-    <x:t>숨바꼭질 3</x:t>
-  </x:si>
-  <x:si>
     <x:t>타일 채우기</x:t>
   </x:si>
   <x:si>
-    <x:t>나이트의 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스도미노쿠</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단지번호붙이기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>두 동전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알고스팟</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로봇 청소기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>톱니바퀴(2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미로 탐색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>큐와 그래프</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제곱수의 합</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RGB거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이분 그래프</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카드 구매하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>겉넓이 구하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부분수열의 합</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이모티콘</x:t>
+    <x:t>동전 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나무 재테크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>팰린드롬?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>크리보드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뮤탈리스크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>청소년 상어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수들의 합 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>두 배열의 합</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타리스트</x:t>
   </x:si>
   <x:si>
     <x:t>소수의 연속합</x:t>
   </x:si>
   <x:si>
+    <x:t>육각 보드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데스 나이트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점프 점프</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아기 상어 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동전 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저 통신</x:t>
+  </x:si>
+  <x:si>
+    <x:t>돌 그룹</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스타트링크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인구 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>새로운 게임</x:t>
+  </x:si>
+  <x:si>
     <x:t>구슬 탈출 2</x:t>
   </x:si>
   <x:si>
-    <x:t>돌 그룹</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스타트링크</x:t>
+    <x:t>LCS 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파일 합치기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소수 경로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원판 돌리기</x:t>
   </x:si>
   <x:si>
     <x:t>적록색약</x:t>
   </x:si>
   <x:si>
-    <x:t>청소년 상어</x:t>
+    <x:t>평범한 배낭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연구소 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레벨 햄버거</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연구소 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아기 상어</x:t>
   </x:si>
   <x:si>
     <x:t>이동하기</x:t>
   </x:si>
   <x:si>
-    <x:t>육각 보드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인구 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>새로운 게임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평범한 배낭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수들의 합 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동전 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데스 나이트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LCS 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연구소 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나무 재테크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>파일 합치기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소수 경로</x:t>
-  </x:si>
-  <x:si>
-    <x:t>팰린드롬?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점프 점프</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원판 돌리기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레벨 햄버거</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타리스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연구소 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>크리보드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뮤탈리스크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아기 상어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>두 배열의 합</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아기 상어 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동전 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저 통신</x:t>
+    <x:t>미로 탈출하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>색종이 붙이기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세 친구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>두 스티커</x:t>
   </x:si>
   <x:si>
     <x:t>확장 게임</x:t>
   </x:si>
   <x:si>
+    <x:t>숫자 재배치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>텔레포트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>숫자판 점프</x:t>
+  </x:si>
+  <x:si>
     <x:t>카드 놓기</x:t>
   </x:si>
   <x:si>
-    <x:t>미로 탈출하기</x:t>
-  </x:si>
-  <x:si>
     <x:t>캠프 준비</x:t>
   </x:si>
   <x:si>
-    <x:t>숫자 재배치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>색종이 붙이기</x:t>
-  </x:si>
-  <x:si>
     <x:t>줄 세우기</x:t>
   </x:si>
   <x:si>
@@ -732,114 +840,6 @@
   </x:si>
   <x:si>
     <x:t>어른 상어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세 친구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>두 스티커</x:t>
-  </x:si>
-  <x:si>
-    <x:t>텔레포트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>숫자판 점프</x:t>
-  </x:si>
-  <x:si>
-    <x:t>숨바꼭질 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게리맨더링</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게리맨더링 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>두 배 더하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>괄호 추가하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사다리 조작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주사위 윷놀이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점프 게임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A -&gt; B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등차수열 변환</x:t>
-  </x:si>
-  <x:si>
-    <x:t>치킨 배달</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0과 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐슬 디펜스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배열 B의 값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>숨바꼭질 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>직사각형 탈출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>십자가 찾기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구슬 탈출 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나3곱2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>팔굽혀펴기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Acka</x:t>
-  </x:si>
-  <x:si>
-    <x:t>초콜릿 자르기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>달팽이2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>플레이리스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IPv6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>달팽이3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IP 주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데스노트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소형기관차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>색종이 - 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출근 기록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BOJ 거리</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1659,7 +1659,7 @@
   <x:dimension ref="A1:S86"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="N18" activeCellId="0" sqref="N18:N18"/>
+      <x:selection activeCell="L20" activeCellId="0" sqref="L20:L20"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -1678,25 +1678,25 @@
   <x:sheetData>
     <x:row r="1" spans="1:1" ht="23.5">
       <x:c r="A1" s="14" t="s">
-        <x:v>152</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="2:4" ht="20.649999999999999">
       <x:c r="B2" s="29" t="s">
-        <x:v>129</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C2" s="30"/>
       <x:c r="D2" s="31"/>
     </x:row>
     <x:row r="3" spans="2:4">
       <x:c r="B3" s="2" t="s">
-        <x:v>112</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>105</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D3" s="2" t="s">
-        <x:v>154</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:4">
@@ -1704,7 +1704,7 @@
         <x:v>10430</x:v>
       </x:c>
       <x:c r="C4" s="4" t="s">
-        <x:v>125</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D4" s="28">
         <x:v>44508</x:v>
@@ -1726,7 +1726,7 @@
         <x:v>1037</x:v>
       </x:c>
       <x:c r="C6" s="4" t="s">
-        <x:v>138</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D6" s="28">
         <x:v>44516</x:v>
@@ -1737,7 +1737,7 @@
         <x:v>17427</x:v>
       </x:c>
       <x:c r="C7" s="4" t="s">
-        <x:v>155</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="D7" s="28">
         <x:v>44519</x:v>
@@ -1748,7 +1748,7 @@
         <x:v>17425</x:v>
       </x:c>
       <x:c r="C8" s="4" t="s">
-        <x:v>155</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="D8" s="28">
         <x:v>44519</x:v>
@@ -1759,7 +1759,7 @@
         <x:v>2609</x:v>
       </x:c>
       <x:c r="C9" s="4" t="s">
-        <x:v>66</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D9" s="28">
         <x:v>44519</x:v>
@@ -1770,7 +1770,7 @@
         <x:v>1978</x:v>
       </x:c>
       <x:c r="C10" s="4" t="s">
-        <x:v>153</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="D10" s="28">
         <x:v>44519</x:v>
@@ -1781,7 +1781,7 @@
         <x:v>1929</x:v>
       </x:c>
       <x:c r="C11" s="4" t="s">
-        <x:v>157</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D11" s="28">
         <x:v>44519</x:v>
@@ -1792,7 +1792,7 @@
         <x:v>6588</x:v>
       </x:c>
       <x:c r="C12" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D12" s="28">
         <x:v>44520</x:v>
@@ -1808,53 +1808,53 @@
     </x:row>
     <x:row r="14" spans="1:1" ht="23.5">
       <x:c r="A14" s="14" t="s">
-        <x:v>27</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="2:12" ht="20.649999999999999">
       <x:c r="B15" s="29" t="s">
-        <x:v>151</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="C15" s="30"/>
       <x:c r="D15" s="31"/>
       <x:c r="F15" s="29" t="s">
-        <x:v>60</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="G15" s="30"/>
       <x:c r="H15" s="31"/>
       <x:c r="J15" s="29" t="s">
-        <x:v>25</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="K15" s="30"/>
       <x:c r="L15" s="31"/>
     </x:row>
     <x:row r="16" spans="2:12">
       <x:c r="B16" s="2" t="s">
-        <x:v>112</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>105</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D16" s="2" t="s">
-        <x:v>154</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s">
-        <x:v>112</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G16" s="2" t="s">
-        <x:v>105</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H16" s="2" t="s">
-        <x:v>154</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="J16" s="2" t="s">
-        <x:v>112</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="K16" s="2" t="s">
-        <x:v>105</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L16" s="2" t="s">
-        <x:v>154</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="2:12">
@@ -1862,7 +1862,7 @@
         <x:v>2309</x:v>
       </x:c>
       <x:c r="C17" s="4" t="s">
-        <x:v>156</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="D17" s="28">
         <x:v>44521</x:v>
@@ -1871,14 +1871,14 @@
         <x:v>15649</x:v>
       </x:c>
       <x:c r="G17" s="4" t="s">
-        <x:v>33</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H17" s="5"/>
       <x:c r="J17" s="3">
         <x:v>9095</x:v>
       </x:c>
       <x:c r="K17" s="4" t="s">
-        <x:v>72</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="L17" s="28">
         <x:v>44533</x:v>
@@ -1889,7 +1889,7 @@
         <x:v>3085</x:v>
       </x:c>
       <x:c r="C18" s="4" t="s">
-        <x:v>162</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D18" s="28">
         <x:v>44525</x:v>
@@ -1898,14 +1898,14 @@
         <x:v>15650</x:v>
       </x:c>
       <x:c r="G18" s="4" t="s">
-        <x:v>23</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H18" s="5"/>
       <x:c r="J18" s="3">
         <x:v>1759</x:v>
       </x:c>
       <x:c r="K18" s="4" t="s">
-        <x:v>145</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="L18" s="28">
         <x:v>44563</x:v>
@@ -1916,7 +1916,7 @@
         <x:v>1476</x:v>
       </x:c>
       <x:c r="C19" s="4" t="s">
-        <x:v>161</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="D19" s="28">
         <x:v>44526</x:v>
@@ -1925,23 +1925,25 @@
         <x:v>15651</x:v>
       </x:c>
       <x:c r="G19" s="4" t="s">
-        <x:v>29</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H19" s="5"/>
       <x:c r="J19" s="3">
         <x:v>14501</x:v>
       </x:c>
       <x:c r="K19" s="4" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="L19" s="28"/>
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="L19" s="28">
+        <x:v>44564</x:v>
+      </x:c>
     </x:row>
     <x:row r="20" spans="2:12">
       <x:c r="B20" s="3">
         <x:v>1107</x:v>
       </x:c>
       <x:c r="C20" s="4" t="s">
-        <x:v>118</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D20" s="5"/>
       <x:c r="F20" s="3">
@@ -1955,7 +1957,7 @@
         <x:v>14889</x:v>
       </x:c>
       <x:c r="K20" s="4" t="s">
-        <x:v>149</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="L20" s="28"/>
     </x:row>
@@ -1964,7 +1966,7 @@
         <x:v>14500</x:v>
       </x:c>
       <x:c r="C21" s="4" t="s">
-        <x:v>160</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="D21" s="28">
         <x:v>44532</x:v>
@@ -1973,14 +1975,14 @@
         <x:v>15654</x:v>
       </x:c>
       <x:c r="G21" s="4" t="s">
-        <x:v>26</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H21" s="5"/>
       <x:c r="J21" s="3">
         <x:v>15661</x:v>
       </x:c>
       <x:c r="K21" s="4" t="s">
-        <x:v>146</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="L21" s="28"/>
       <x:c r="M21" s="7"/>
@@ -1992,7 +1994,7 @@
         <x:v>6064</x:v>
       </x:c>
       <x:c r="C22" s="4" t="s">
-        <x:v>148</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="D22" s="28">
         <x:v>44531</x:v>
@@ -2001,14 +2003,14 @@
         <x:v>15655</x:v>
       </x:c>
       <x:c r="G22" s="4" t="s">
-        <x:v>22</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H22" s="5"/>
       <x:c r="J22" s="3">
         <x:v>2529</x:v>
       </x:c>
       <x:c r="K22" s="4" t="s">
-        <x:v>126</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="L22" s="28">
         <x:v>44562</x:v>
@@ -2022,7 +2024,7 @@
         <x:v>1748</x:v>
       </x:c>
       <x:c r="C23" s="4" t="s">
-        <x:v>70</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D23" s="28">
         <x:v>44530</x:v>
@@ -2031,14 +2033,14 @@
         <x:v>15656</x:v>
       </x:c>
       <x:c r="G23" s="4" t="s">
-        <x:v>75</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H23" s="5"/>
       <x:c r="J23" s="3">
         <x:v>1248</x:v>
       </x:c>
       <x:c r="K23" s="4" t="s">
-        <x:v>106</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L23" s="28"/>
       <x:c r="M23" s="9"/>
@@ -2053,7 +2055,7 @@
         <x:v>15657</x:v>
       </x:c>
       <x:c r="G24" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H24" s="5"/>
       <x:c r="J24" s="7"/>
@@ -2068,7 +2070,7 @@
         <x:v>18290</x:v>
       </x:c>
       <x:c r="G25" s="11" t="s">
-        <x:v>24</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H25" s="5"/>
       <x:c r="J25" s="9"/>
@@ -2082,34 +2084,34 @@
     </x:row>
     <x:row r="27" spans="2:8" ht="20.649999999999999">
       <x:c r="B27" s="29" t="s">
-        <x:v>31</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C27" s="30"/>
       <x:c r="D27" s="31"/>
       <x:c r="F27" s="29" t="s">
-        <x:v>59</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G27" s="30"/>
       <x:c r="H27" s="31"/>
     </x:row>
     <x:row r="28" spans="2:8">
       <x:c r="B28" s="2" t="s">
-        <x:v>112</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>105</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D28" s="2" t="s">
-        <x:v>154</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s">
-        <x:v>112</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G28" s="2" t="s">
-        <x:v>105</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H28" s="2" t="s">
-        <x:v>154</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="2:8">
@@ -2117,14 +2119,14 @@
         <x:v>10972</x:v>
       </x:c>
       <x:c r="C29" s="4" t="s">
-        <x:v>158</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="D29" s="5"/>
       <x:c r="F29" s="3">
         <x:v>11723</x:v>
       </x:c>
       <x:c r="G29" s="4" t="s">
-        <x:v>158</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="H29" s="5"/>
     </x:row>
@@ -2133,14 +2135,14 @@
         <x:v>10973</x:v>
       </x:c>
       <x:c r="C30" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="D30" s="5"/>
       <x:c r="F30" s="3">
         <x:v>1182</x:v>
       </x:c>
       <x:c r="G30" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="H30" s="5"/>
     </x:row>
@@ -2149,14 +2151,14 @@
         <x:v>10974</x:v>
       </x:c>
       <x:c r="C31" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="D31" s="5"/>
       <x:c r="F31" s="3">
         <x:v>14889</x:v>
       </x:c>
       <x:c r="G31" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="H31" s="5"/>
     </x:row>
@@ -2165,14 +2167,14 @@
         <x:v>10819</x:v>
       </x:c>
       <x:c r="C32" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="D32" s="5"/>
       <x:c r="F32" s="3">
         <x:v>14391</x:v>
       </x:c>
       <x:c r="G32" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="H32" s="5"/>
     </x:row>
@@ -2181,7 +2183,7 @@
         <x:v>10971</x:v>
       </x:c>
       <x:c r="C33" s="4" t="s">
-        <x:v>28</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D33" s="5"/>
       <x:c r="F33" s="7"/>
@@ -2193,7 +2195,7 @@
         <x:v>6603</x:v>
       </x:c>
       <x:c r="C34" s="4" t="s">
-        <x:v>122</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D34" s="5"/>
       <x:c r="F34" s="7"/>
@@ -2202,39 +2204,39 @@
     </x:row>
     <x:row r="36" spans="1:1" ht="23.5">
       <x:c r="A36" s="14" t="s">
-        <x:v>56</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="2:8" ht="20.649999999999999">
       <x:c r="B37" s="29" t="s">
-        <x:v>141</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C37" s="30"/>
       <x:c r="D37" s="31"/>
       <x:c r="F37" s="29" t="s">
-        <x:v>143</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G37" s="30"/>
       <x:c r="H37" s="31"/>
     </x:row>
     <x:row r="38" spans="2:8">
       <x:c r="B38" s="15" t="s">
-        <x:v>112</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C38" s="2" t="s">
-        <x:v>105</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D38" s="2" t="s">
-        <x:v>154</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="F38" s="15" t="s">
-        <x:v>112</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G38" s="2" t="s">
-        <x:v>105</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H38" s="2" t="s">
-        <x:v>154</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="2:8">
@@ -2242,14 +2244,14 @@
         <x:v>1463</x:v>
       </x:c>
       <x:c r="C39" s="4" t="s">
-        <x:v>150</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="D39" s="5"/>
       <x:c r="F39" s="3">
         <x:v>15988</x:v>
       </x:c>
       <x:c r="G39" s="4" t="s">
-        <x:v>48</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H39" s="5"/>
     </x:row>
@@ -2258,14 +2260,14 @@
         <x:v>11726</x:v>
       </x:c>
       <x:c r="C40" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D40" s="5"/>
       <x:c r="F40" s="3">
         <x:v>1149</x:v>
       </x:c>
       <x:c r="G40" s="4" t="s">
-        <x:v>190</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="H40" s="5"/>
     </x:row>
@@ -2274,14 +2276,14 @@
         <x:v>11727</x:v>
       </x:c>
       <x:c r="C41" s="4" t="s">
-        <x:v>34</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D41" s="5"/>
       <x:c r="F41" s="3">
         <x:v>1309</x:v>
       </x:c>
       <x:c r="G41" s="4" t="s">
-        <x:v>131</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="H41" s="5"/>
     </x:row>
@@ -2290,14 +2292,14 @@
         <x:v>9095</x:v>
       </x:c>
       <x:c r="C42" s="4" t="s">
-        <x:v>72</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D42" s="5"/>
       <x:c r="F42" s="3">
         <x:v>11057</x:v>
       </x:c>
       <x:c r="G42" s="4" t="s">
-        <x:v>164</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="H42" s="5"/>
     </x:row>
@@ -2306,14 +2308,14 @@
         <x:v>11052</x:v>
       </x:c>
       <x:c r="C43" s="4" t="s">
-        <x:v>192</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="D43" s="5"/>
       <x:c r="F43" s="3">
         <x:v>2156</x:v>
       </x:c>
       <x:c r="G43" s="4" t="s">
-        <x:v>165</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="H43" s="5"/>
     </x:row>
@@ -2322,14 +2324,14 @@
         <x:v>16194</x:v>
       </x:c>
       <x:c r="C44" s="4" t="s">
-        <x:v>30</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D44" s="5"/>
       <x:c r="F44" s="3">
         <x:v>1932</x:v>
       </x:c>
       <x:c r="G44" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="H44" s="5"/>
     </x:row>
@@ -2338,14 +2340,14 @@
         <x:v>15990</x:v>
       </x:c>
       <x:c r="C45" s="4" t="s">
-        <x:v>57</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D45" s="5"/>
       <x:c r="F45" s="3">
         <x:v>11055</x:v>
       </x:c>
       <x:c r="G45" s="4" t="s">
-        <x:v>46</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="H45" s="5"/>
     </x:row>
@@ -2354,14 +2356,14 @@
         <x:v>10844</x:v>
       </x:c>
       <x:c r="C46" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="D46" s="5"/>
       <x:c r="F46" s="3">
         <x:v>11722</x:v>
       </x:c>
       <x:c r="G46" s="4" t="s">
-        <x:v>51</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="H46" s="5"/>
     </x:row>
@@ -2370,14 +2372,14 @@
         <x:v>2193</x:v>
       </x:c>
       <x:c r="C47" s="11" t="s">
-        <x:v>130</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D47" s="5"/>
       <x:c r="F47" s="10">
         <x:v>11054</x:v>
       </x:c>
       <x:c r="G47" s="11" t="s">
-        <x:v>44</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="H47" s="5"/>
     </x:row>
@@ -2386,14 +2388,14 @@
         <x:v>11053</x:v>
       </x:c>
       <x:c r="C48" s="11" t="s">
-        <x:v>61</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D48" s="5"/>
       <x:c r="F48" s="10">
         <x:v>13398</x:v>
       </x:c>
       <x:c r="G48" s="11" t="s">
-        <x:v>167</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="H48" s="5"/>
     </x:row>
@@ -2402,14 +2404,14 @@
         <x:v>14002</x:v>
       </x:c>
       <x:c r="C49" s="11" t="s">
-        <x:v>142</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D49" s="5"/>
       <x:c r="F49" s="10">
         <x:v>2133</x:v>
       </x:c>
       <x:c r="G49" s="11" t="s">
-        <x:v>179</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="H49" s="5"/>
     </x:row>
@@ -2418,7 +2420,7 @@
         <x:v>1912</x:v>
       </x:c>
       <x:c r="C50" s="11" t="s">
-        <x:v>100</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D50" s="5"/>
       <x:c r="F50" s="9"/>
@@ -2430,7 +2432,7 @@
         <x:v>1699</x:v>
       </x:c>
       <x:c r="C51" s="11" t="s">
-        <x:v>189</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="D51" s="5"/>
       <x:c r="F51" s="9"/>
@@ -2442,7 +2444,7 @@
         <x:v>14501</x:v>
       </x:c>
       <x:c r="C52" s="11" t="s">
-        <x:v>114</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D52" s="5"/>
       <x:c r="F52" s="9"/>
@@ -2454,7 +2456,7 @@
         <x:v>2225</x:v>
       </x:c>
       <x:c r="C53" s="11" t="s">
-        <x:v>124</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D53" s="5"/>
       <x:c r="F53" s="9"/>
@@ -2463,39 +2465,39 @@
     </x:row>
     <x:row r="55" spans="1:1" ht="23.5">
       <x:c r="A55" s="14" t="s">
-        <x:v>78</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="2:8" ht="20.649999999999999">
       <x:c r="B56" s="29" t="s">
-        <x:v>188</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="C56" s="30"/>
       <x:c r="D56" s="31"/>
       <x:c r="F56" s="29" t="s">
-        <x:v>140</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G56" s="30"/>
       <x:c r="H56" s="31"/>
     </x:row>
     <x:row r="57" spans="2:8">
       <x:c r="B57" s="15" t="s">
-        <x:v>112</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C57" s="2" t="s">
-        <x:v>105</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D57" s="2" t="s">
-        <x:v>154</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="F57" s="15" t="s">
-        <x:v>112</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G57" s="2" t="s">
-        <x:v>105</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H57" s="2" t="s">
-        <x:v>154</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="2:8">
@@ -2503,14 +2505,14 @@
         <x:v>10845</x:v>
       </x:c>
       <x:c r="C58" s="4" t="s">
-        <x:v>123</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D58" s="5"/>
       <x:c r="F58" s="3">
         <x:v>1697</x:v>
       </x:c>
       <x:c r="G58" s="4" t="s">
-        <x:v>177</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="H58" s="5"/>
     </x:row>
@@ -2519,14 +2521,14 @@
         <x:v>10866</x:v>
       </x:c>
       <x:c r="C59" s="4" t="s">
-        <x:v>127</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D59" s="5"/>
       <x:c r="F59" s="3">
         <x:v>13913</x:v>
       </x:c>
       <x:c r="G59" s="4" t="s">
-        <x:v>171</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="H59" s="5"/>
     </x:row>
@@ -2535,14 +2537,14 @@
         <x:v>13023</x:v>
       </x:c>
       <x:c r="C60" s="4" t="s">
-        <x:v>170</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="D60" s="5"/>
       <x:c r="F60" s="3">
         <x:v>14226</x:v>
       </x:c>
       <x:c r="G60" s="4" t="s">
-        <x:v>195</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="H60" s="5"/>
     </x:row>
@@ -2551,14 +2553,14 @@
         <x:v>1260</x:v>
       </x:c>
       <x:c r="C61" s="4" t="s">
-        <x:v>79</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D61" s="5"/>
       <x:c r="F61" s="3">
         <x:v>13549</x:v>
       </x:c>
       <x:c r="G61" s="4" t="s">
-        <x:v>178</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="H61" s="5"/>
     </x:row>
@@ -2567,14 +2569,14 @@
         <x:v>11724</x:v>
       </x:c>
       <x:c r="C62" s="4" t="s">
-        <x:v>83</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D62" s="5"/>
       <x:c r="F62" s="3">
         <x:v>1261</x:v>
       </x:c>
       <x:c r="G62" s="4" t="s">
-        <x:v>184</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="H62" s="5"/>
     </x:row>
@@ -2583,7 +2585,7 @@
         <x:v>1707</x:v>
       </x:c>
       <x:c r="C63" s="4" t="s">
-        <x:v>191</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="D63" s="5"/>
       <x:c r="F63" s="7"/>
@@ -2595,7 +2597,7 @@
         <x:v>2667</x:v>
       </x:c>
       <x:c r="C64" s="4" t="s">
-        <x:v>182</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="D64" s="5"/>
       <x:c r="F64" s="7"/>
@@ -2607,7 +2609,7 @@
         <x:v>2178</x:v>
       </x:c>
       <x:c r="C65" s="4" t="s">
-        <x:v>187</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="D65" s="5"/>
       <x:c r="F65" s="7"/>
@@ -2619,7 +2621,7 @@
         <x:v>7576</x:v>
       </x:c>
       <x:c r="C66" s="11" t="s">
-        <x:v>120</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D66" s="5"/>
       <x:c r="F66" s="9"/>
@@ -2631,7 +2633,7 @@
         <x:v>7562</x:v>
       </x:c>
       <x:c r="C67" s="11" t="s">
-        <x:v>180</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="D67" s="5"/>
       <x:c r="F67" s="9"/>
@@ -2645,25 +2647,25 @@
     </x:row>
     <x:row r="69" spans="1:1" ht="23.5">
       <x:c r="A69" s="14" t="s">
-        <x:v>65</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="2:4" ht="20.649999999999999">
       <x:c r="B70" s="29" t="s">
-        <x:v>86</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C70" s="30"/>
       <x:c r="D70" s="31"/>
     </x:row>
     <x:row r="71" spans="2:4">
       <x:c r="B71" s="15" t="s">
-        <x:v>112</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C71" s="2" t="s">
-        <x:v>105</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D71" s="2" t="s">
-        <x:v>154</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="2:4">
@@ -2671,7 +2673,7 @@
         <x:v>16935</x:v>
       </x:c>
       <x:c r="C72" s="4" t="s">
-        <x:v>95</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D72" s="5"/>
     </x:row>
@@ -2680,7 +2682,7 @@
         <x:v>16926</x:v>
       </x:c>
       <x:c r="C73" s="4" t="s">
-        <x:v>98</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D73" s="5"/>
     </x:row>
@@ -2689,7 +2691,7 @@
         <x:v>16927</x:v>
       </x:c>
       <x:c r="C74" s="4" t="s">
-        <x:v>87</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D74" s="5"/>
     </x:row>
@@ -2698,7 +2700,7 @@
         <x:v>14499</x:v>
       </x:c>
       <x:c r="C75" s="4" t="s">
-        <x:v>166</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="D75" s="5"/>
     </x:row>
@@ -2707,7 +2709,7 @@
         <x:v>14890</x:v>
       </x:c>
       <x:c r="C76" s="4" t="s">
-        <x:v>115</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D76" s="5"/>
     </x:row>
@@ -2716,7 +2718,7 @@
         <x:v>15662</x:v>
       </x:c>
       <x:c r="C77" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="D77" s="5"/>
     </x:row>
@@ -2725,7 +2727,7 @@
         <x:v>14503</x:v>
       </x:c>
       <x:c r="C78" s="4" t="s">
-        <x:v>185</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="D78" s="5"/>
     </x:row>
@@ -2734,7 +2736,7 @@
         <x:v>14890</x:v>
       </x:c>
       <x:c r="C79" s="4" t="s">
-        <x:v>115</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D79" s="5"/>
     </x:row>
@@ -2743,7 +2745,7 @@
         <x:v>15685</x:v>
       </x:c>
       <x:c r="C80" s="11" t="s">
-        <x:v>169</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="D80" s="5"/>
     </x:row>
@@ -2752,7 +2754,7 @@
         <x:v>2290</x:v>
       </x:c>
       <x:c r="C81" s="11" t="s">
-        <x:v>99</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D81" s="5"/>
     </x:row>
@@ -2761,7 +2763,7 @@
         <x:v>16931</x:v>
       </x:c>
       <x:c r="C82" s="11" t="s">
-        <x:v>193</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="D82" s="5"/>
     </x:row>
@@ -2770,7 +2772,7 @@
         <x:v>1917</x:v>
       </x:c>
       <x:c r="C83" s="11" t="s">
-        <x:v>97</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D83" s="5"/>
     </x:row>
@@ -2779,7 +2781,7 @@
         <x:v>16967</x:v>
       </x:c>
       <x:c r="C84" s="11" t="s">
-        <x:v>173</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="D84" s="5"/>
     </x:row>
@@ -2788,7 +2790,7 @@
         <x:v>20327</x:v>
       </x:c>
       <x:c r="C85" s="11" t="s">
-        <x:v>93</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D85" s="5"/>
     </x:row>
@@ -2797,7 +2799,7 @@
         <x:v>20055</x:v>
       </x:c>
       <x:c r="C86" s="11" t="s">
-        <x:v>52</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D86" s="5"/>
     </x:row>
@@ -2815,7 +2817,7 @@
     <x:mergeCell ref="B56:D56"/>
     <x:mergeCell ref="F56:H56"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -2837,39 +2839,39 @@
   <x:sheetData>
     <x:row r="1" spans="1:1" ht="26.25">
       <x:c r="A1" s="14" t="s">
-        <x:v>58</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="2:8" ht="20.25">
       <x:c r="B2" s="32" t="s">
-        <x:v>25</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C2" s="32"/>
       <x:c r="D2" s="32"/>
       <x:c r="F2" s="32" t="s">
-        <x:v>85</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G2" s="32"/>
       <x:c r="H2" s="32"/>
     </x:row>
     <x:row r="3" spans="2:8">
       <x:c r="B3" s="16" t="s">
-        <x:v>112</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C3" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D3" s="16" t="s">
-        <x:v>154</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="F3" s="16" t="s">
-        <x:v>112</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G3" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H3" s="16" t="s">
-        <x:v>154</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:8">
@@ -2877,14 +2879,14 @@
         <x:v>6603</x:v>
       </x:c>
       <x:c r="C4" s="18" t="s">
-        <x:v>122</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D4" s="19"/>
       <x:c r="F4" s="17">
         <x:v>2003</x:v>
       </x:c>
       <x:c r="G4" s="18" t="s">
-        <x:v>207</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="H4" s="19"/>
     </x:row>
@@ -2893,14 +2895,14 @@
         <x:v>1182</x:v>
       </x:c>
       <x:c r="C5" s="18" t="s">
-        <x:v>194</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="D5" s="19"/>
       <x:c r="F5" s="17">
         <x:v>1806</x:v>
       </x:c>
       <x:c r="G5" s="18" t="s">
-        <x:v>108</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H5" s="19"/>
     </x:row>
@@ -2909,14 +2911,14 @@
         <x:v>14225</x:v>
       </x:c>
       <x:c r="C6" s="18" t="s">
-        <x:v>194</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="D6" s="19"/>
       <x:c r="F6" s="17">
         <x:v>1644</x:v>
       </x:c>
       <x:c r="G6" s="18" t="s">
-        <x:v>196</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="H6" s="19"/>
     </x:row>
@@ -2925,14 +2927,14 @@
         <x:v>14888</x:v>
       </x:c>
       <x:c r="C7" s="18" t="s">
-        <x:v>92</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D7" s="19"/>
       <x:c r="F7" s="17">
         <x:v>1208</x:v>
       </x:c>
       <x:c r="G7" s="18" t="s">
-        <x:v>96</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H7" s="19"/>
     </x:row>
@@ -2941,14 +2943,14 @@
         <x:v>15658</x:v>
       </x:c>
       <x:c r="C8" s="18" t="s">
-        <x:v>45</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D8" s="19"/>
       <x:c r="F8" s="20">
         <x:v>2143</x:v>
       </x:c>
       <x:c r="G8" s="21" t="s">
-        <x:v>224</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="H8" s="19"/>
     </x:row>
@@ -2957,7 +2959,7 @@
         <x:v>14500</x:v>
       </x:c>
       <x:c r="C9" s="18" t="s">
-        <x:v>160</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="D9" s="19"/>
     </x:row>
@@ -2966,7 +2968,7 @@
         <x:v>16197</x:v>
       </x:c>
       <x:c r="C10" s="18" t="s">
-        <x:v>183</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="D10" s="19"/>
     </x:row>
@@ -2975,7 +2977,7 @@
         <x:v>16198</x:v>
       </x:c>
       <x:c r="C11" s="18" t="s">
-        <x:v>174</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="D11" s="19"/>
     </x:row>
@@ -2984,7 +2986,7 @@
         <x:v>9663</x:v>
       </x:c>
       <x:c r="C12" s="18" t="s">
-        <x:v>175</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="D12" s="19"/>
     </x:row>
@@ -2993,7 +2995,7 @@
         <x:v>2580</x:v>
       </x:c>
       <x:c r="C13" s="21" t="s">
-        <x:v>111</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D13" s="19"/>
     </x:row>
@@ -3002,40 +3004,40 @@
         <x:v>4574</x:v>
       </x:c>
       <x:c r="C14" s="21" t="s">
-        <x:v>181</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="D14" s="19"/>
     </x:row>
     <x:row r="16" spans="2:8" ht="20.25">
       <x:c r="B16" s="32" t="s">
-        <x:v>59</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C16" s="32"/>
       <x:c r="D16" s="32"/>
       <x:c r="F16" s="32" t="s">
-        <x:v>31</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G16" s="32"/>
       <x:c r="H16" s="32"/>
     </x:row>
     <x:row r="17" spans="2:8">
       <x:c r="B17" s="16" t="s">
-        <x:v>112</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C17" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D17" s="16" t="s">
-        <x:v>154</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="F17" s="16" t="s">
-        <x:v>112</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G17" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H17" s="16" t="s">
-        <x:v>154</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="2:8">
@@ -3043,14 +3045,14 @@
         <x:v>14225</x:v>
       </x:c>
       <x:c r="C18" s="18" t="s">
-        <x:v>194</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="D18" s="19"/>
       <x:c r="F18" s="17">
         <x:v>2529</x:v>
       </x:c>
       <x:c r="G18" s="18" t="s">
-        <x:v>126</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="H18" s="19"/>
     </x:row>
@@ -3059,14 +3061,14 @@
         <x:v>1062</x:v>
       </x:c>
       <x:c r="C19" s="18" t="s">
-        <x:v>107</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D19" s="19"/>
       <x:c r="F19" s="17">
         <x:v>1339</x:v>
       </x:c>
       <x:c r="G19" s="18" t="s">
-        <x:v>168</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="H19" s="19"/>
     </x:row>
@@ -3075,14 +3077,14 @@
         <x:v>13460</x:v>
       </x:c>
       <x:c r="C20" s="18" t="s">
-        <x:v>197</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="D20" s="19"/>
       <x:c r="F20" s="17">
         <x:v>14888</x:v>
       </x:c>
       <x:c r="G20" s="18" t="s">
-        <x:v>92</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H20" s="19"/>
     </x:row>
@@ -3091,52 +3093,52 @@
         <x:v>12100</x:v>
       </x:c>
       <x:c r="C21" s="18" t="s">
-        <x:v>84</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D21" s="19"/>
       <x:c r="F21" s="17">
         <x:v>14889</x:v>
       </x:c>
       <x:c r="G21" s="18" t="s">
-        <x:v>149</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="H21" s="19"/>
     </x:row>
     <x:row r="23" spans="1:1" ht="26.25">
       <x:c r="A23" s="14" t="s">
-        <x:v>94</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="2:8" ht="20.25">
       <x:c r="B24" s="32" t="s">
-        <x:v>42</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C24" s="32"/>
       <x:c r="D24" s="32"/>
       <x:c r="F24" s="32" t="s">
-        <x:v>38</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G24" s="32"/>
       <x:c r="H24" s="32"/>
     </x:row>
     <x:row r="25" spans="2:8">
       <x:c r="B25" s="16" t="s">
-        <x:v>112</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C25" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D25" s="16" t="s">
-        <x:v>154</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="F25" s="16" t="s">
-        <x:v>112</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G25" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H25" s="16" t="s">
-        <x:v>154</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="2:8">
@@ -3144,14 +3146,14 @@
         <x:v>16928</x:v>
       </x:c>
       <x:c r="C26" s="18" t="s">
-        <x:v>41</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D26" s="19"/>
       <x:c r="F26" s="17">
         <x:v>16929</x:v>
       </x:c>
       <x:c r="G26" s="18" t="s">
-        <x:v>17</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H26" s="19"/>
     </x:row>
@@ -3160,14 +3162,14 @@
         <x:v>16948</x:v>
       </x:c>
       <x:c r="C27" s="18" t="s">
-        <x:v>209</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="D27" s="19"/>
       <x:c r="F27" s="17">
         <x:v>16947</x:v>
       </x:c>
       <x:c r="G27" s="18" t="s">
-        <x:v>21</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H27" s="19"/>
     </x:row>
@@ -3176,14 +3178,14 @@
         <x:v>14502</x:v>
       </x:c>
       <x:c r="C28" s="18" t="s">
-        <x:v>139</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D28" s="19"/>
       <x:c r="F28" s="17">
         <x:v>12946</x:v>
       </x:c>
       <x:c r="G28" s="18" t="s">
-        <x:v>203</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="H28" s="19"/>
     </x:row>
@@ -3192,14 +3194,14 @@
         <x:v>12886</x:v>
       </x:c>
       <x:c r="C29" s="18" t="s">
-        <x:v>198</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="D29" s="19"/>
       <x:c r="F29" s="17">
         <x:v>16940</x:v>
       </x:c>
       <x:c r="G29" s="18" t="s">
-        <x:v>18</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H29" s="19"/>
     </x:row>
@@ -3208,14 +3210,14 @@
         <x:v>2206</x:v>
       </x:c>
       <x:c r="C30" s="18" t="s">
-        <x:v>39</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D30" s="19"/>
       <x:c r="F30" s="20">
         <x:v>16964</x:v>
       </x:c>
       <x:c r="G30" s="21" t="s">
-        <x:v>36</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H30" s="19"/>
     </x:row>
@@ -3224,7 +3226,7 @@
         <x:v>16946</x:v>
       </x:c>
       <x:c r="C31" s="18" t="s">
-        <x:v>67</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D31" s="19"/>
     </x:row>
@@ -3233,7 +3235,7 @@
         <x:v>14442</x:v>
       </x:c>
       <x:c r="C32" s="18" t="s">
-        <x:v>47</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D32" s="19"/>
     </x:row>
@@ -3242,7 +3244,7 @@
         <x:v>16933</x:v>
       </x:c>
       <x:c r="C33" s="18" t="s">
-        <x:v>49</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D33" s="19"/>
     </x:row>
@@ -3251,7 +3253,7 @@
         <x:v>16954</x:v>
       </x:c>
       <x:c r="C34" s="18" t="s">
-        <x:v>35</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D34" s="19"/>
     </x:row>
@@ -3260,7 +3262,7 @@
         <x:v>16236</x:v>
       </x:c>
       <x:c r="C35" s="21" t="s">
-        <x:v>223</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="D35" s="19"/>
     </x:row>
@@ -3269,7 +3271,7 @@
         <x:v>6087</x:v>
       </x:c>
       <x:c r="C36" s="21" t="s">
-        <x:v>227</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="D36" s="19"/>
     </x:row>
@@ -3278,7 +3280,7 @@
         <x:v>1963</x:v>
       </x:c>
       <x:c r="C37" s="21" t="s">
-        <x:v>214</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="D37" s="19"/>
     </x:row>
@@ -3287,7 +3289,7 @@
         <x:v>10026</x:v>
       </x:c>
       <x:c r="C38" s="21" t="s">
-        <x:v>200</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="D38" s="19"/>
     </x:row>
@@ -3296,7 +3298,7 @@
         <x:v>14395</x:v>
       </x:c>
       <x:c r="C39" s="21" t="s">
-        <x:v>128</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D39" s="19"/>
     </x:row>
@@ -3305,7 +3307,7 @@
         <x:v>5014</x:v>
       </x:c>
       <x:c r="C40" s="21" t="s">
-        <x:v>199</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="D40" s="19"/>
     </x:row>
@@ -3314,7 +3316,7 @@
         <x:v>9376</x:v>
       </x:c>
       <x:c r="C41" s="21" t="s">
-        <x:v>133</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D41" s="19"/>
     </x:row>
@@ -3323,7 +3325,7 @@
         <x:v>1600</x:v>
       </x:c>
       <x:c r="C42" s="21" t="s">
-        <x:v>40</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D42" s="19"/>
     </x:row>
@@ -3332,7 +3334,7 @@
         <x:v>17086</x:v>
       </x:c>
       <x:c r="C43" s="21" t="s">
-        <x:v>225</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="D43" s="19"/>
     </x:row>
@@ -3341,7 +3343,7 @@
         <x:v>4991</x:v>
       </x:c>
       <x:c r="C44" s="21" t="s">
-        <x:v>185</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="D44" s="19"/>
     </x:row>
@@ -3350,7 +3352,7 @@
         <x:v>2234</x:v>
       </x:c>
       <x:c r="C45" s="21" t="s">
-        <x:v>117</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D45" s="19"/>
     </x:row>
@@ -3359,7 +3361,7 @@
         <x:v>12906</x:v>
       </x:c>
       <x:c r="C46" s="21" t="s">
-        <x:v>37</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D46" s="19"/>
     </x:row>
@@ -3368,7 +3370,7 @@
         <x:v>17141</x:v>
       </x:c>
       <x:c r="C47" s="21" t="s">
-        <x:v>220</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="D47" s="19"/>
     </x:row>
@@ -3377,31 +3379,31 @@
         <x:v>17142</x:v>
       </x:c>
       <x:c r="C48" s="21" t="s">
-        <x:v>211</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="D48" s="19"/>
     </x:row>
     <x:row r="50" spans="1:1" ht="26.25">
       <x:c r="A50" s="14" t="s">
-        <x:v>56</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="2:4" ht="20.25">
       <x:c r="B51" s="32" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C51" s="32"/>
       <x:c r="D51" s="32"/>
     </x:row>
     <x:row r="52" spans="2:4">
       <x:c r="B52" s="16" t="s">
-        <x:v>112</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C52" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D52" s="16" t="s">
-        <x:v>154</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="2:4">
@@ -3409,7 +3411,7 @@
         <x:v>11048</x:v>
       </x:c>
       <x:c r="C53" s="18" t="s">
-        <x:v>202</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="D53" s="19"/>
     </x:row>
@@ -3418,7 +3420,7 @@
         <x:v>11060</x:v>
       </x:c>
       <x:c r="C54" s="18" t="s">
-        <x:v>216</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="D54" s="19"/>
     </x:row>
@@ -3427,7 +3429,7 @@
         <x:v>10942</x:v>
       </x:c>
       <x:c r="C55" s="18" t="s">
-        <x:v>215</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="D55" s="19"/>
     </x:row>
@@ -3436,7 +3438,7 @@
         <x:v>15989</x:v>
       </x:c>
       <x:c r="C56" s="18" t="s">
-        <x:v>43</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D56" s="19"/>
     </x:row>
@@ -3445,7 +3447,7 @@
         <x:v>11066</x:v>
       </x:c>
       <x:c r="C57" s="18" t="s">
-        <x:v>213</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="D57" s="19"/>
     </x:row>
@@ -3454,7 +3456,7 @@
         <x:v>12865</x:v>
       </x:c>
       <x:c r="C58" s="18" t="s">
-        <x:v>206</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="D58" s="19"/>
     </x:row>
@@ -3463,7 +3465,7 @@
         <x:v>1495</x:v>
       </x:c>
       <x:c r="C59" s="18" t="s">
-        <x:v>219</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="D59" s="19"/>
     </x:row>
@@ -3472,7 +3474,7 @@
         <x:v>12869</x:v>
       </x:c>
       <x:c r="C60" s="18" t="s">
-        <x:v>222</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="D60" s="19"/>
     </x:row>
@@ -3481,7 +3483,7 @@
         <x:v>10422</x:v>
       </x:c>
       <x:c r="C61" s="18" t="s">
-        <x:v>109</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D61" s="19"/>
     </x:row>
@@ -3490,7 +3492,7 @@
         <x:v>2293</x:v>
       </x:c>
       <x:c r="C62" s="21" t="s">
-        <x:v>226</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="D62" s="19"/>
     </x:row>
@@ -3499,7 +3501,7 @@
         <x:v>2294</x:v>
       </x:c>
       <x:c r="C63" s="21" t="s">
-        <x:v>208</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="D63" s="19"/>
     </x:row>
@@ -3508,7 +3510,7 @@
         <x:v>11058</x:v>
       </x:c>
       <x:c r="C64" s="21" t="s">
-        <x:v>221</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="D64" s="19"/>
     </x:row>
@@ -3517,7 +3519,7 @@
         <x:v>9251</x:v>
       </x:c>
       <x:c r="C65" s="21" t="s">
-        <x:v>116</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D65" s="19"/>
     </x:row>
@@ -3526,7 +3528,7 @@
         <x:v>9252</x:v>
       </x:c>
       <x:c r="C66" s="21" t="s">
-        <x:v>210</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="D66" s="19"/>
     </x:row>
@@ -3535,7 +3537,7 @@
         <x:v>5582</x:v>
       </x:c>
       <x:c r="C67" s="21" t="s">
-        <x:v>20</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D67" s="19"/>
     </x:row>
@@ -3544,7 +3546,7 @@
         <x:v>5557</x:v>
       </x:c>
       <x:c r="C68" s="21" t="s">
-        <x:v>134</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D68" s="19"/>
     </x:row>
@@ -3555,25 +3557,25 @@
     </x:row>
     <x:row r="70" spans="1:1" ht="26.25">
       <x:c r="A70" s="14" t="s">
-        <x:v>50</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="2:4" ht="20.25">
       <x:c r="B71" s="32" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C71" s="32"/>
       <x:c r="D71" s="32"/>
     </x:row>
     <x:row r="72" spans="2:4">
       <x:c r="B72" s="16" t="s">
-        <x:v>112</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C72" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D72" s="16" t="s">
-        <x:v>154</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="2:4">
@@ -3581,7 +3583,7 @@
         <x:v>16234</x:v>
       </x:c>
       <x:c r="C73" s="18" t="s">
-        <x:v>204</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="D73" s="19"/>
     </x:row>
@@ -3590,7 +3592,7 @@
         <x:v>16235</x:v>
       </x:c>
       <x:c r="C74" s="18" t="s">
-        <x:v>212</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="D74" s="19"/>
     </x:row>
@@ -3599,7 +3601,7 @@
         <x:v>17144</x:v>
       </x:c>
       <x:c r="C75" s="18" t="s">
-        <x:v>16</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D75" s="19"/>
     </x:row>
@@ -3608,7 +3610,7 @@
         <x:v>17143</x:v>
       </x:c>
       <x:c r="C76" s="18" t="s">
-        <x:v>137</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D76" s="19"/>
     </x:row>
@@ -3617,7 +3619,7 @@
         <x:v>17140</x:v>
       </x:c>
       <x:c r="C77" s="18" t="s">
-        <x:v>4</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D77" s="19"/>
     </x:row>
@@ -3626,7 +3628,7 @@
         <x:v>17780</x:v>
       </x:c>
       <x:c r="C78" s="18" t="s">
-        <x:v>205</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="D78" s="19"/>
     </x:row>
@@ -3635,7 +3637,7 @@
         <x:v>17837</x:v>
       </x:c>
       <x:c r="C79" s="18" t="s">
-        <x:v>6</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D79" s="19"/>
     </x:row>
@@ -3644,7 +3646,7 @@
         <x:v>17822</x:v>
       </x:c>
       <x:c r="C80" s="18" t="s">
-        <x:v>217</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="D80" s="19"/>
     </x:row>
@@ -3653,7 +3655,7 @@
         <x:v>16939</x:v>
       </x:c>
       <x:c r="C81" s="18" t="s">
-        <x:v>15</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D81" s="19"/>
     </x:row>
@@ -3662,7 +3664,7 @@
         <x:v>16974</x:v>
       </x:c>
       <x:c r="C82" s="21" t="s">
-        <x:v>218</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="D82" s="19"/>
     </x:row>
@@ -3671,7 +3673,7 @@
         <x:v>20061</x:v>
       </x:c>
       <x:c r="C83" s="21" t="s">
-        <x:v>2</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D83" s="19"/>
     </x:row>
@@ -3680,7 +3682,7 @@
         <x:v>19236</x:v>
       </x:c>
       <x:c r="C84" s="21" t="s">
-        <x:v>201</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="D84" s="19"/>
     </x:row>
@@ -3689,7 +3691,7 @@
         <x:v>19237</x:v>
       </x:c>
       <x:c r="C85" s="21" t="s">
-        <x:v>236</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="D85" s="19"/>
     </x:row>
@@ -3719,7 +3721,7 @@
     <x:mergeCell ref="B24:D24"/>
     <x:mergeCell ref="F24:H24"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -3742,53 +3744,53 @@
   <x:sheetData>
     <x:row r="1" spans="1:1" ht="26.25">
       <x:c r="A1" s="14" t="s">
-        <x:v>9</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="2:12" ht="20.25">
       <x:c r="B2" s="33" t="s">
-        <x:v>53</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C2" s="33"/>
       <x:c r="D2" s="33"/>
       <x:c r="F2" s="33" t="s">
-        <x:v>68</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G2" s="33"/>
       <x:c r="H2" s="33"/>
       <x:c r="J2" s="33" t="s">
-        <x:v>62</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="K2" s="33"/>
       <x:c r="L2" s="33"/>
     </x:row>
     <x:row r="3" spans="2:12">
       <x:c r="B3" s="22" t="s">
-        <x:v>112</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C3" s="22" t="s">
-        <x:v>105</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D3" s="22" t="s">
-        <x:v>154</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="F3" s="22" t="s">
-        <x:v>112</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G3" s="22" t="s">
-        <x:v>105</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H3" s="22" t="s">
-        <x:v>154</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="J3" s="22" t="s">
-        <x:v>112</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="K3" s="22" t="s">
-        <x:v>105</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L3" s="22" t="s">
-        <x:v>154</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:12">
@@ -3796,21 +3798,21 @@
         <x:v>16968</x:v>
       </x:c>
       <x:c r="C4" s="24" t="s">
-        <x:v>3</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D4" s="25"/>
       <x:c r="F4" s="23">
         <x:v>17779</x:v>
       </x:c>
       <x:c r="G4" s="24" t="s">
-        <x:v>243</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="H4" s="25"/>
       <x:c r="J4" s="23">
         <x:v>16985</x:v>
       </x:c>
       <x:c r="K4" s="24" t="s">
-        <x:v>8</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="L4" s="25"/>
     </x:row>
@@ -3819,21 +3821,21 @@
         <x:v>16917</x:v>
       </x:c>
       <x:c r="C5" s="24" t="s">
-        <x:v>11</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D5" s="25"/>
       <x:c r="F5" s="23">
         <x:v>17070</x:v>
       </x:c>
       <x:c r="G5" s="24" t="s">
-        <x:v>10</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H5" s="25"/>
       <x:c r="J5" s="23">
         <x:v>17090</x:v>
       </x:c>
       <x:c r="K5" s="24" t="s">
-        <x:v>230</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="L5" s="25"/>
     </x:row>
@@ -3842,21 +3844,21 @@
         <x:v>16922</x:v>
       </x:c>
       <x:c r="C6" s="24" t="s">
-        <x:v>0</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D6" s="25"/>
       <x:c r="F6" s="23">
         <x:v>17069</x:v>
       </x:c>
       <x:c r="G6" s="24" t="s">
-        <x:v>14</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H6" s="25"/>
       <x:c r="J6" s="23">
         <x:v>12931</x:v>
       </x:c>
       <x:c r="K6" s="24" t="s">
-        <x:v>244</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="L6" s="25"/>
     </x:row>
@@ -3865,21 +3867,21 @@
         <x:v>16924</x:v>
       </x:c>
       <x:c r="C7" s="24" t="s">
-        <x:v>257</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="D7" s="25"/>
       <x:c r="F7" s="23">
         <x:v>16638</x:v>
       </x:c>
       <x:c r="G7" s="24" t="s">
-        <x:v>13</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H7" s="25"/>
       <x:c r="J7" s="23">
         <x:v>16958</x:v>
       </x:c>
       <x:c r="K7" s="24" t="s">
-        <x:v>239</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="L7" s="25"/>
     </x:row>
@@ -3888,21 +3890,21 @@
         <x:v>16936</x:v>
       </x:c>
       <x:c r="C8" s="24" t="s">
-        <x:v>259</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="D8" s="25"/>
       <x:c r="F8" s="23">
         <x:v>17085</x:v>
       </x:c>
       <x:c r="G8" s="24" t="s">
-        <x:v>12</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H8" s="25"/>
       <x:c r="J8" s="23">
         <x:v>12908</x:v>
       </x:c>
       <x:c r="K8" s="24" t="s">
-        <x:v>235</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="L8" s="25"/>
     </x:row>
@@ -3911,21 +3913,21 @@
         <x:v>16937</x:v>
       </x:c>
       <x:c r="C9" s="24" t="s">
-        <x:v>238</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="D9" s="25"/>
       <x:c r="F9" s="23">
         <x:v>17825</x:v>
       </x:c>
       <x:c r="G9" s="24" t="s">
-        <x:v>247</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="H9" s="25"/>
       <x:c r="J9" s="23">
         <x:v>16957</x:v>
       </x:c>
       <x:c r="K9" s="24" t="s">
-        <x:v>90</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="L9" s="25"/>
     </x:row>
@@ -3934,21 +3936,21 @@
         <x:v>16938</x:v>
       </x:c>
       <x:c r="C10" s="24" t="s">
-        <x:v>231</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="D10" s="25"/>
       <x:c r="F10" s="23">
         <x:v>16987</x:v>
       </x:c>
       <x:c r="G10" s="24" t="s">
-        <x:v>1</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H10" s="25"/>
       <x:c r="J10" s="23">
         <x:v>16971</x:v>
       </x:c>
       <x:c r="K10" s="24" t="s">
-        <x:v>254</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="L10" s="25"/>
     </x:row>
@@ -3957,21 +3959,21 @@
         <x:v>16943</x:v>
       </x:c>
       <x:c r="C11" s="24" t="s">
-        <x:v>232</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="D11" s="25"/>
       <x:c r="F11" s="23">
         <x:v>16988</x:v>
       </x:c>
       <x:c r="G11" s="24" t="s">
-        <x:v>144</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H11" s="25"/>
       <x:c r="J11" s="23">
         <x:v>17472</x:v>
       </x:c>
       <x:c r="K11" s="24" t="s">
-        <x:v>76</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L11" s="25"/>
     </x:row>
@@ -3980,21 +3982,21 @@
         <x:v>16637</x:v>
       </x:c>
       <x:c r="C12" s="24" t="s">
-        <x:v>245</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="D12" s="25"/>
       <x:c r="F12" s="23">
         <x:v>15684</x:v>
       </x:c>
       <x:c r="G12" s="24" t="s">
-        <x:v>246</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="H12" s="25"/>
       <x:c r="J12" s="23">
         <x:v>14056</x:v>
       </x:c>
       <x:c r="K12" s="24" t="s">
-        <x:v>91</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="L12" s="25"/>
     </x:row>
@@ -4003,14 +4005,14 @@
         <x:v>15683</x:v>
       </x:c>
       <x:c r="C13" s="27" t="s">
-        <x:v>121</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D13" s="25"/>
       <x:c r="F13" s="26">
         <x:v>16945</x:v>
       </x:c>
       <x:c r="G13" s="27" t="s">
-        <x:v>55</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="H13" s="25"/>
       <x:c r="J13" s="9"/>
@@ -4022,14 +4024,14 @@
         <x:v>17088</x:v>
       </x:c>
       <x:c r="C14" s="27" t="s">
-        <x:v>250</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D14" s="25"/>
       <x:c r="F14" s="26">
         <x:v>16953</x:v>
       </x:c>
       <x:c r="G14" s="27" t="s">
-        <x:v>249</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="H14" s="25"/>
       <x:c r="J14" s="9"/>
@@ -4041,14 +4043,14 @@
         <x:v>15686</x:v>
       </x:c>
       <x:c r="C15" s="27" t="s">
-        <x:v>251</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D15" s="25"/>
       <x:c r="F15" s="26">
         <x:v>17136</x:v>
       </x:c>
       <x:c r="G15" s="27" t="s">
-        <x:v>233</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="H15" s="25"/>
       <x:c r="J15" s="9"/>
@@ -4060,14 +4062,14 @@
         <x:v>2210</x:v>
       </x:c>
       <x:c r="C16" s="27" t="s">
-        <x:v>240</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="D16" s="25"/>
       <x:c r="F16" s="26">
         <x:v>17471</x:v>
       </x:c>
       <x:c r="G16" s="27" t="s">
-        <x:v>242</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="H16" s="25"/>
       <x:c r="J16" s="9"/>
@@ -4079,7 +4081,7 @@
         <x:v>2422</x:v>
       </x:c>
       <x:c r="C17" s="27" t="s">
-        <x:v>7</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D17" s="25"/>
       <x:c r="F17" s="9"/>
@@ -4091,7 +4093,7 @@
         <x:v>17089</x:v>
       </x:c>
       <x:c r="C18" s="27" t="s">
-        <x:v>237</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="D18" s="25"/>
       <x:c r="F18" s="9"/>
@@ -4103,7 +4105,7 @@
         <x:v>17406</x:v>
       </x:c>
       <x:c r="C19" s="27" t="s">
-        <x:v>5</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D19" s="25"/>
       <x:c r="F19" s="9"/>
@@ -4115,7 +4117,7 @@
         <x:v>17135</x:v>
       </x:c>
       <x:c r="C20" s="27" t="s">
-        <x:v>253</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D20" s="25"/>
       <x:c r="F20" s="9"/>
@@ -4127,7 +4129,7 @@
         <x:v>17281</x:v>
       </x:c>
       <x:c r="C21" s="27" t="s">
-        <x:v>135</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D21" s="25"/>
       <x:c r="F21" s="9"/>
@@ -4136,39 +4138,39 @@
     </x:row>
     <x:row r="23" spans="1:1" ht="26.25">
       <x:c r="A23" s="14" t="s">
-        <x:v>94</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="2:8" ht="20.25">
       <x:c r="B24" s="33" t="s">
-        <x:v>42</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C24" s="33"/>
       <x:c r="D24" s="33"/>
       <x:c r="F24" s="33" t="s">
-        <x:v>38</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G24" s="33"/>
       <x:c r="H24" s="33"/>
     </x:row>
     <x:row r="25" spans="2:8">
       <x:c r="B25" s="22" t="s">
-        <x:v>112</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C25" s="22" t="s">
-        <x:v>105</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D25" s="22" t="s">
-        <x:v>154</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="F25" s="22" t="s">
-        <x:v>112</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G25" s="22" t="s">
-        <x:v>105</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H25" s="22" t="s">
-        <x:v>154</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="2:8">
@@ -4176,14 +4178,14 @@
         <x:v>8111</x:v>
       </x:c>
       <x:c r="C26" s="24" t="s">
-        <x:v>252</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="D26" s="25"/>
       <x:c r="F26" s="23">
         <x:v>2252</x:v>
       </x:c>
       <x:c r="G26" s="24" t="s">
-        <x:v>234</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="H26" s="25"/>
     </x:row>
@@ -4192,14 +4194,14 @@
         <x:v>17071</x:v>
       </x:c>
       <x:c r="C27" s="24" t="s">
-        <x:v>255</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D27" s="25"/>
       <x:c r="F27" s="23">
         <x:v>2056</x:v>
       </x:c>
       <x:c r="G27" s="24" t="s">
-        <x:v>103</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H27" s="25"/>
     </x:row>
@@ -4208,14 +4210,14 @@
         <x:v>16973</x:v>
       </x:c>
       <x:c r="C28" s="24" t="s">
-        <x:v>256</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="D28" s="25"/>
       <x:c r="F28" s="23">
         <x:v>14263</x:v>
       </x:c>
       <x:c r="G28" s="24" t="s">
-        <x:v>229</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="H28" s="25"/>
     </x:row>
@@ -4224,7 +4226,7 @@
         <x:v>1175</x:v>
       </x:c>
       <x:c r="C29" s="24" t="s">
-        <x:v>110</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D29" s="25"/>
     </x:row>
@@ -4233,7 +4235,7 @@
         <x:v>16959</x:v>
       </x:c>
       <x:c r="C30" s="24" t="s">
-        <x:v>82</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D30" s="25"/>
     </x:row>
@@ -4242,7 +4244,7 @@
         <x:v>16952</x:v>
       </x:c>
       <x:c r="C31" s="24" t="s">
-        <x:v>81</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D31" s="25"/>
     </x:row>
@@ -4251,7 +4253,7 @@
         <x:v>12851</x:v>
       </x:c>
       <x:c r="C32" s="24" t="s">
-        <x:v>241</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="D32" s="25"/>
     </x:row>
@@ -4260,7 +4262,7 @@
         <x:v>9328</x:v>
       </x:c>
       <x:c r="C33" s="24" t="s">
-        <x:v>102</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D33" s="25"/>
     </x:row>
@@ -4269,7 +4271,7 @@
         <x:v>16920</x:v>
       </x:c>
       <x:c r="C34" s="24" t="s">
-        <x:v>228</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="D34" s="25"/>
     </x:row>
@@ -4278,7 +4280,7 @@
         <x:v>15653</x:v>
       </x:c>
       <x:c r="C35" s="27" t="s">
-        <x:v>258</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D35" s="25"/>
     </x:row>
@@ -4287,7 +4289,7 @@
         <x:v>15558</x:v>
       </x:c>
       <x:c r="C36" s="27" t="s">
-        <x:v>248</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="D36" s="25"/>
     </x:row>
@@ -4296,7 +4298,7 @@
         <x:v>1385</x:v>
       </x:c>
       <x:c r="C37" s="27" t="s">
-        <x:v>101</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D37" s="25"/>
     </x:row>
@@ -4307,25 +4309,25 @@
     </x:row>
     <x:row r="39" spans="1:1" ht="26.25">
       <x:c r="A39" s="14" t="s">
-        <x:v>56</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="2:4" ht="20.25">
       <x:c r="B40" s="33" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C40" s="33"/>
       <x:c r="D40" s="33"/>
     </x:row>
     <x:row r="41" spans="2:4">
       <x:c r="B41" s="22" t="s">
-        <x:v>112</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C41" s="22" t="s">
-        <x:v>105</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D41" s="22" t="s">
-        <x:v>154</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="2:4">
@@ -4333,7 +4335,7 @@
         <x:v>1695</x:v>
       </x:c>
       <x:c r="C42" s="24" t="s">
-        <x:v>88</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D42" s="25"/>
     </x:row>
@@ -4342,7 +4344,7 @@
         <x:v>11049</x:v>
       </x:c>
       <x:c r="C43" s="24" t="s">
-        <x:v>89</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D43" s="25"/>
     </x:row>
@@ -4351,7 +4353,7 @@
         <x:v>12969</x:v>
       </x:c>
       <x:c r="C44" s="24" t="s">
-        <x:v>132</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D44" s="25"/>
     </x:row>
@@ -4360,7 +4362,7 @@
         <x:v>14238</x:v>
       </x:c>
       <x:c r="C45" s="24" t="s">
-        <x:v>271</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="D45" s="25"/>
     </x:row>
@@ -4369,7 +4371,7 @@
         <x:v>12026</x:v>
       </x:c>
       <x:c r="C46" s="24" t="s">
-        <x:v>272</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="D46" s="25"/>
     </x:row>
@@ -4378,7 +4380,7 @@
         <x:v>12996</x:v>
       </x:c>
       <x:c r="C47" s="24" t="s">
-        <x:v>261</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D47" s="25"/>
     </x:row>
@@ -4387,7 +4389,7 @@
         <x:v>2281</x:v>
       </x:c>
       <x:c r="C48" s="24" t="s">
-        <x:v>268</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D48" s="25"/>
     </x:row>
@@ -4396,7 +4398,7 @@
         <x:v>3012</x:v>
       </x:c>
       <x:c r="C49" s="24" t="s">
-        <x:v>80</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D49" s="25"/>
     </x:row>
@@ -4405,7 +4407,7 @@
         <x:v>2616</x:v>
       </x:c>
       <x:c r="C50" s="24" t="s">
-        <x:v>269</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D50" s="25"/>
     </x:row>
@@ -4414,7 +4416,7 @@
         <x:v>1413</x:v>
       </x:c>
       <x:c r="C51" s="27" t="s">
-        <x:v>77</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D51" s="25"/>
     </x:row>
@@ -4423,7 +4425,7 @@
         <x:v>10564</x:v>
       </x:c>
       <x:c r="C52" s="27" t="s">
-        <x:v>260</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="D52" s="25"/>
     </x:row>
@@ -4432,7 +4434,7 @@
         <x:v>1970</x:v>
       </x:c>
       <x:c r="C53" s="27" t="s">
-        <x:v>104</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D53" s="25"/>
     </x:row>
@@ -4441,7 +4443,7 @@
         <x:v>2163</x:v>
       </x:c>
       <x:c r="C54" s="27" t="s">
-        <x:v>262</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D54" s="25"/>
     </x:row>
@@ -4450,31 +4452,31 @@
         <x:v>12872</x:v>
       </x:c>
       <x:c r="C55" s="27" t="s">
-        <x:v>264</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="D55" s="25"/>
     </x:row>
     <x:row r="57" spans="1:1" ht="26.25">
       <x:c r="A57" s="14" t="s">
-        <x:v>50</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="2:4" ht="20.25">
       <x:c r="B58" s="33" t="s">
-        <x:v>86</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C58" s="33"/>
       <x:c r="D58" s="33"/>
     </x:row>
     <x:row r="59" spans="2:4">
       <x:c r="B59" s="22" t="s">
-        <x:v>112</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C59" s="22" t="s">
-        <x:v>105</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D59" s="22" t="s">
-        <x:v>154</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="2:4">
@@ -4482,7 +4484,7 @@
         <x:v>1913</x:v>
       </x:c>
       <x:c r="C60" s="24" t="s">
-        <x:v>113</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D60" s="25"/>
     </x:row>
@@ -4491,7 +4493,7 @@
         <x:v>1952</x:v>
       </x:c>
       <x:c r="C61" s="24" t="s">
-        <x:v>263</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D61" s="25"/>
     </x:row>
@@ -4500,7 +4502,7 @@
         <x:v>1959</x:v>
       </x:c>
       <x:c r="C62" s="24" t="s">
-        <x:v>266</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D62" s="25"/>
     </x:row>
@@ -4509,7 +4511,7 @@
         <x:v>4577</x:v>
       </x:c>
       <x:c r="C63" s="24" t="s">
-        <x:v>136</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D63" s="25"/>
     </x:row>
@@ -4518,7 +4520,7 @@
         <x:v>2064</x:v>
       </x:c>
       <x:c r="C64" s="24" t="s">
-        <x:v>267</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="D64" s="25"/>
     </x:row>
@@ -4527,7 +4529,7 @@
         <x:v>3107</x:v>
       </x:c>
       <x:c r="C65" s="24" t="s">
-        <x:v>265</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="D65" s="25"/>
     </x:row>
@@ -4536,7 +4538,7 @@
         <x:v>2571</x:v>
       </x:c>
       <x:c r="C66" s="24" t="s">
-        <x:v>270</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D66" s="25"/>
     </x:row>
@@ -4545,7 +4547,7 @@
         <x:v>1089</x:v>
       </x:c>
       <x:c r="C67" s="24" t="s">
-        <x:v>71</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D67" s="25"/>
     </x:row>
@@ -4554,7 +4556,7 @@
         <x:v>20056</x:v>
       </x:c>
       <x:c r="C68" s="24" t="s">
-        <x:v>64</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="D68" s="25"/>
     </x:row>
@@ -4563,7 +4565,7 @@
         <x:v>20057</x:v>
       </x:c>
       <x:c r="C69" s="27" t="s">
-        <x:v>54</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D69" s="25"/>
     </x:row>
@@ -4572,7 +4574,7 @@
         <x:v>20058</x:v>
       </x:c>
       <x:c r="C70" s="27" t="s">
-        <x:v>63</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D70" s="25"/>
     </x:row>
@@ -4581,7 +4583,7 @@
         <x:v>5373</x:v>
       </x:c>
       <x:c r="C71" s="27" t="s">
-        <x:v>119</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D71" s="25"/>
     </x:row>
@@ -4605,7 +4607,7 @@
     <x:mergeCell ref="F24:H24"/>
     <x:mergeCell ref="B40:D40"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/study_algo_record_date.xlsx
+++ b/study_algo_record_date.xlsx
@@ -23,33 +23,432 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="273">
   <x:si>
+    <x:t>카드 구매하기 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N과 M (5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2 x n 타일링 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>외판원 순회 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>새로운 하노이 탑</x:t>
+  </x:si>
+  <x:si>
+    <x:t>그래프 알고리즘</x:t>
+  </x:si>
+  <x:si>
+    <x:t>움직이는 미로 탈출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DFS 스페셜 저지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2 x n 타일링</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브루트 포스 - 재귀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>말이 되고픈 원숭이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벽 부수고 이동하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1, 2, 3 더하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BFS 알고리즘</x:t>
+  </x:si>
+  <x:si>
+    <x:t>골드바흐의 추측</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. 그래프와 BFS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N과 M (3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뱀과 사다리 게임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>올바른 괄호 문자열</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N과 M (7)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박스 안의 열쇠</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스타트링크 타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수 이어 쓰기 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체스판 여행 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브루트 포스 - 순열</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체스판 여행 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연결 요소의 개수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N과 M (8)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다리 만들기 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DFS와 BFS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N과 M (4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부분합</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리모컨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>토마토</x:t>
+  </x:si>
+  <x:si>
+    <x:t>번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LCS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작업</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성곽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>약수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수학</x:t>
+  </x:si>
+  <x:si>
+    <x:t>큐</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이친수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BFS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맞춰봐</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈옥</x:t>
+  </x:si>
+  <x:si>
+    <x:t>열쇠</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벌집</x:t>
+  </x:si>
+  <x:si>
+    <x:t>덱</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동물원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소코반</x:t>
+  </x:si>
+  <x:si>
+    <x:t>달팽이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배달</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나머지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연구소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가르침</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연속합</x:t>
+  </x:si>
+  <x:si>
+    <x:t>큐빙</x:t>
+  </x:si>
+  <x:si>
+    <x:t>괄호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부등호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1학년</x:t>
+  </x:si>
+  <x:si>
+    <x:t>야구공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>낚시왕</x:t>
+  </x:si>
+  <x:si>
+    <x:t>건배</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로또</x:t>
+  </x:si>
+  <x:si>
+    <x:t>퇴사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4연산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경사로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스도쿠</x:t>
+  </x:si>
+  <x:si>
+    <x:t>감시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>합분해</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가장 긴 증가하는 부분 수열 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baaaaaduk2(Easy)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이나믹 프로그래밍 Part 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이나믹 프로그래밍 Part 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벽 부수고 이동하기 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가장 큰 증가 부분 수열</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1, 2, 3 더하기 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벽 부수고 이동하기 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매직 스퀘어로 변경하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가장 긴 바이토닉 부분 수열</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1, 2, 3 더하기 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컨베이어 벨트 n이의 로봇</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마법사 상어와 토네이도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1, 2, 3 더하기 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. 다이나믹 프로그래밍</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브루트 포스 Part 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가장 긴 감소하는 부분 수열</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벽 부수고 이동하기 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브루트 포스 - 비트마스크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브루트 포스 Part 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마법사 상어와 파이어볼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. 시뮬레이션과 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연산자 끼워넣기 (2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최대공약수와 최소공배수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브루트 포스 Part 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브루트 포스 - N과 M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5. 시뮬레이션과 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마법사 상어와 파이어스톰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가장 긴 증가하는 부분 수열</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 브루트 포스 연습</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BFS 스페셜 저지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>괄호 추가하기 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>새로운 게임 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배열 돌리기 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계란으로 계란치기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한윤정이 이탈리아에…</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maaaaaaze</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2x2x2 큐브</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연산자 끼워넣기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 번호판 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 그래프와 BFS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이차원 배열과 연산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>팰린드롬 만들기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배열 돌리기 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모노미노도미노 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로마 숫자 만들기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N과 M (2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NM과 K (1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 브루트 포스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서울 지하철 2호선</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파이프 옮기기 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>십자가 2개 놓기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미세먼지 안녕!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>양념 반 후라이드 반</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 브루트 포스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N과 M (1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파이프 옮기기 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이나믹 프로그래밍</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공통 부분 문자열</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N과 M (6)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Two Dots</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부분수열의 합 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정육면체 전개도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LCD Test</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브루트 포스 - 기타</x:t>
+  </x:si>
+  <x:si>
+    <x:t>K번째 좋은 문자열</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배열 돌리기 1</x:t>
+  </x:si>
+  <x:si>
     <x:t>행렬 곱셈 순서</x:t>
   </x:si>
   <x:si>
+    <x:t>배열 돌리기 3</x:t>
+  </x:si>
+  <x:si>
     <x:t>체스판 위의 공</x:t>
   </x:si>
   <x:si>
-    <x:t>배열 돌리기 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>K번째 좋은 문자열</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부분수열의 합 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배열 돌리기 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정육면체 전개도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LCD Test</x:t>
-  </x:si>
-  <x:si>
-    <x:t>브루트 포스 - 기타</x:t>
-  </x:si>
-  <x:si>
     <x:t>시뮬레이션과 구현</x:t>
   </x:si>
   <x:si>
@@ -59,460 +458,91 @@
     <x:t>2048 (Easy)</x:t>
   </x:si>
   <x:si>
-    <x:t>연산자 끼워넣기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>팰린드롬 만들기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 그래프와 BFS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배열 돌리기 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계란으로 계란치기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모노미노도미노 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>새로운 게임 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한윤정이 이탈리아에…</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Maaaaaaze</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 번호판 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배열 돌리기 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로마 숫자 만들기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이차원 배열과 연산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2x2x2 큐브</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BFS 스페셜 저지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>괄호 추가하기 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이나믹 프로그래밍</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공통 부분 문자열</x:t>
-  </x:si>
-  <x:si>
-    <x:t>십자가 2개 놓기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 브루트 포스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>파이프 옮기기 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Two Dots</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서울 지하철 2호선</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N과 M (2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N과 M (6)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NM과 K (1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>파이프 옮기기 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>양념 반 후라이드 반</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미세먼지 안녕!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 브루트 포스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N과 M (1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>움직이는 미로 탈출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFS 스페셜 저지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2 x n 타일링</x:t>
-  </x:si>
-  <x:si>
-    <x:t>브루트 포스 - 재귀</x:t>
-  </x:si>
-  <x:si>
-    <x:t>새로운 하노이 탑</x:t>
-  </x:si>
-  <x:si>
-    <x:t>그래프 알고리즘</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벽 부수고 이동하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>말이 되고픈 원숭이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>외판원 순회 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카드 구매하기 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N과 M (5)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2 x n 타일링 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>브루트 포스 - 순열</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N과 M (3)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BFS 알고리즘</x:t>
-  </x:si>
-  <x:si>
-    <x:t>골드바흐의 추측</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뱀과 사다리 게임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1, 2, 3 더하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수 이어 쓰기 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4. 그래프와 BFS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>올바른 괄호 문자열</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스타트링크 타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N과 M (7)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N과 M (8)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박스 안의 열쇠</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체스판 여행 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체스판 여행 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연결 요소의 개수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFS와 BFS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다리 만들기 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N과 M (4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baaaaaduk2(Easy)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가장 긴 증가하는 부분 수열 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이나믹 프로그래밍 Part 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이나믹 프로그래밍 Part 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부분합</x:t>
-  </x:si>
-  <x:si>
-    <x:t>토마토</x:t>
-  </x:si>
-  <x:si>
-    <x:t>번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성곽</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리모컨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작업</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LCS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가르침</x:t>
-  </x:si>
-  <x:si>
-    <x:t>큐빙</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맞춰봐</x:t>
-  </x:si>
-  <x:si>
-    <x:t>건배</x:t>
-  </x:si>
-  <x:si>
-    <x:t>괄호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스도쿠</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배달</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연속합</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벌집</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경사로</x:t>
-  </x:si>
-  <x:si>
-    <x:t>열쇠</x:t>
-  </x:si>
-  <x:si>
-    <x:t>달팽이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>퇴사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>야구공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나머지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>덱</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4연산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소코반</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수학</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탈옥</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연구소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1학년</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동물원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>감시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부등호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ABC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>낚시왕</x:t>
-  </x:si>
-  <x:si>
-    <x:t>약수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로또</x:t>
-  </x:si>
-  <x:si>
-    <x:t>큐</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이친수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BFS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>합분해</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1, 2, 3 더하기 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>매직 스퀘어로 변경하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가장 큰 증가 부분 수열</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1, 2, 3 더하기 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벽 부수고 이동하기 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벽 부수고 이동하기 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>브루트 포스 Part 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가장 긴 감소하는 부분 수열</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컨베이어 벨트 n이의 로봇</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1, 2, 3 더하기 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마법사 상어와 토네이도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3. 다이나믹 프로그래밍</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가장 긴 바이토닉 부분 수열</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4. 시뮬레이션과 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연산자 끼워넣기 (2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>브루트 포스 Part 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>브루트 포스 - 비트마스크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최대공약수와 최소공배수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마법사 상어와 파이어볼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5. 시뮬레이션과 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 브루트 포스 연습</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벽 부수고 이동하기 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>브루트 포스 - N과 M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마법사 상어와 파이어스톰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가장 긴 증가하는 부분 수열</x:t>
-  </x:si>
-  <x:si>
-    <x:t>브루트 포스 Part 3</x:t>
+    <x:t>숨바꼭질 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BOJ 거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점프 게임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사다리 조작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게리맨더링</x:t>
+  </x:si>
+  <x:si>
+    <x:t>직사각형 탈출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐슬 디펜스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>팔굽혀펴기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>초콜릿 자르기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데스노트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>플레이리스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>달팽이3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게리맨더링 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등차수열 변환</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나3곱2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>괄호 추가하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>두 배 더하기</x:t>
   </x:si>
   <x:si>
     <x:t>Acka</x:t>
   </x:si>
   <x:si>
-    <x:t>게리맨더링 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등차수열 변환</x:t>
-  </x:si>
-  <x:si>
-    <x:t>숨바꼭질 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>두 배 더하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나3곱2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데스노트</x:t>
-  </x:si>
-  <x:si>
     <x:t>출근 기록</x:t>
   </x:si>
   <x:si>
-    <x:t>달팽이3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BOJ 거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>괄호 추가하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점프 게임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐슬 디펜스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사다리 조작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>직사각형 탈출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>팔굽혀펴기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>초콜릿 자르기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게리맨더링</x:t>
-  </x:si>
-  <x:si>
-    <x:t>플레이리스트</x:t>
+    <x:t>치킨 배달</x:t>
+  </x:si>
+  <x:si>
+    <x:t>달팽이2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배열 B의 값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A -&gt; B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 수학</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일곱 난쟁이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날짜 계산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>십자가 찾기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>숨바꼭질 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>링크와 스타트</x:t>
   </x:si>
   <x:si>
     <x:t>IPv6</x:t>
@@ -521,325 +551,295 @@
     <x:t>IP 주소</x:t>
   </x:si>
   <x:si>
-    <x:t>십자가 찾기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>치킨 배달</x:t>
+    <x:t>소수 찾기</x:t>
   </x:si>
   <x:si>
     <x:t>소형기관차</x:t>
   </x:si>
   <x:si>
+    <x:t>이전 순열</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0과 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>암호 만들기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>색종이 - 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주사위 윷놀이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>약수의 합 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스타트와 링크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다음 순열</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소수 구하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사탕 게임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브루트 포스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테트로미노</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1로 만들기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카잉 달력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차이를 최대로</x:t>
+  </x:si>
+  <x:si>
     <x:t>구슬 탈출 4</x:t>
   </x:si>
   <x:si>
-    <x:t>색종이 - 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0과 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배열 B의 값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A -&gt; B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>달팽이2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주사위 윷놀이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>숨바꼭질 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>암호 만들기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>링크와 스타트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스타트와 링크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소수 찾기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>약수의 합 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이전 순열</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일곱 난쟁이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다음 순열</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소수 구하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차이를 최대로</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사탕 게임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>브루트 포스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테트로미노</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1로 만들기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카잉 달력</x:t>
-  </x:si>
-  <x:si>
     <x:t>모든 순열</x:t>
   </x:si>
   <x:si>
     <x:t>푼 날짜</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 수학</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날짜 계산</x:t>
+    <x:t>포도주 시식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부분수열의 합</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이모티콘</x:t>
+  </x:si>
+  <x:si>
+    <x:t>드래곤 커브</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정수 삼각형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오르막 수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연속합 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주사위 굴리기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이분 그래프</x:t>
+  </x:si>
+  <x:si>
+    <x:t>큐와 그래프</x:t>
+  </x:si>
+  <x:si>
+    <x:t>겉넓이 구하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타일 채우기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>숨바꼭질</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABCDE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>톱니바퀴(2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단어 수학</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로봇 청소기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쉬운 계단 수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나이트의 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>두 동전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알고스팟</x:t>
+  </x:si>
+  <x:si>
+    <x:t>숨바꼭질 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N-Queen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미로 탐색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카드 구매하기</x:t>
   </x:si>
   <x:si>
     <x:t>숨바꼭질 4</x:t>
   </x:si>
   <x:si>
-    <x:t>나이트의 이동</x:t>
+    <x:t>배열 복원하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제곱수의 합</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단지번호붙이기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RGB거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에너지 모으기</x:t>
   </x:si>
   <x:si>
     <x:t>스도미노쿠</x:t>
   </x:si>
   <x:si>
-    <x:t>두 동전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로봇 청소기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ABCDE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단지번호붙이기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단어 수학</x:t>
-  </x:si>
-  <x:si>
-    <x:t>숨바꼭질 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쉬운 계단 수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알고스팟</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연속합 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배열 복원하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N-Queen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에너지 모으기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>톱니바퀴(2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미로 탐색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>큐와 그래프</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RGB거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이분 그래프</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카드 구매하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제곱수의 합</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포도주 시식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부분수열의 합</x:t>
-  </x:si>
-  <x:si>
-    <x:t>겉넓이 구하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이모티콘</x:t>
-  </x:si>
-  <x:si>
-    <x:t>숨바꼭질</x:t>
-  </x:si>
-  <x:si>
-    <x:t>드래곤 커브</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주사위 굴리기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정수 삼각형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오르막 수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타일 채우기</x:t>
+    <x:t>뮤탈리스크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수들의 합 2</x:t>
   </x:si>
   <x:si>
     <x:t>동전 2</x:t>
   </x:si>
   <x:si>
+    <x:t>크리보드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>두 배열의 합</x:t>
+  </x:si>
+  <x:si>
+    <x:t>육각 보드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동전 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데스 나이트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아기 상어 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인구 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타리스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>돌 그룹</x:t>
+  </x:si>
+  <x:si>
+    <x:t>새로운 게임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LCS 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점프 점프</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연구소 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소수 경로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레벨 햄버거</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아기 상어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파일 합치기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적록색약</x:t>
+  </x:si>
+  <x:si>
     <x:t>나무 재테크</x:t>
   </x:si>
   <x:si>
+    <x:t>소수의 연속합</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원판 돌리기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연구소 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이동하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>청소년 상어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저 통신</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평범한 배낭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스타트링크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구슬 탈출 2</x:t>
+  </x:si>
+  <x:si>
     <x:t>팰린드롬?</x:t>
   </x:si>
   <x:si>
-    <x:t>크리보드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뮤탈리스크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>청소년 상어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수들의 합 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>두 배열의 합</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타리스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소수의 연속합</x:t>
-  </x:si>
-  <x:si>
-    <x:t>육각 보드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데스 나이트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점프 점프</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아기 상어 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동전 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저 통신</x:t>
-  </x:si>
-  <x:si>
-    <x:t>돌 그룹</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스타트링크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인구 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>새로운 게임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구슬 탈출 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LCS 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>파일 합치기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소수 경로</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원판 돌리기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적록색약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평범한 배낭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연구소 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레벨 햄버거</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연구소 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아기 상어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이동하기</x:t>
+    <x:t>줄 세우기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>숫자 재배치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>확장 게임</x:t>
   </x:si>
   <x:si>
     <x:t>미로 탈출하기</x:t>
   </x:si>
   <x:si>
+    <x:t>어른 상어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>숫자판 점프</x:t>
+  </x:si>
+  <x:si>
+    <x:t>두 스티커</x:t>
+  </x:si>
+  <x:si>
+    <x:t>텔레포트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>텔레포트 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카드 놓기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캠프 준비</x:t>
+  </x:si>
+  <x:si>
     <x:t>색종이 붙이기</x:t>
   </x:si>
   <x:si>
     <x:t>세 친구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>두 스티커</x:t>
-  </x:si>
-  <x:si>
-    <x:t>확장 게임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>숫자 재배치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>텔레포트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>숫자판 점프</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카드 놓기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캠프 준비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>줄 세우기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>텔레포트 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어른 상어</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1659,7 +1659,7 @@
   <x:dimension ref="A1:S86"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="L20" activeCellId="0" sqref="L20:L20"/>
+      <x:selection activeCell="D30" activeCellId="0" sqref="D30:D30"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -1678,25 +1678,25 @@
   <x:sheetData>
     <x:row r="1" spans="1:1" ht="23.5">
       <x:c r="A1" s="14" t="s">
-        <x:v>194</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="2:4" ht="20.649999999999999">
       <x:c r="B2" s="29" t="s">
-        <x:v>104</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C2" s="30"/>
       <x:c r="D2" s="31"/>
     </x:row>
     <x:row r="3" spans="2:4">
       <x:c r="B3" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D3" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:4">
@@ -1704,7 +1704,7 @@
         <x:v>10430</x:v>
       </x:c>
       <x:c r="C4" s="4" t="s">
-        <x:v>100</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D4" s="28">
         <x:v>44508</x:v>
@@ -1726,7 +1726,7 @@
         <x:v>1037</x:v>
       </x:c>
       <x:c r="C6" s="4" t="s">
-        <x:v>113</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D6" s="28">
         <x:v>44516</x:v>
@@ -1737,7 +1737,7 @@
         <x:v>17427</x:v>
       </x:c>
       <x:c r="C7" s="4" t="s">
-        <x:v>181</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="D7" s="28">
         <x:v>44519</x:v>
@@ -1748,7 +1748,7 @@
         <x:v>17425</x:v>
       </x:c>
       <x:c r="C8" s="4" t="s">
-        <x:v>181</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="D8" s="28">
         <x:v>44519</x:v>
@@ -1759,7 +1759,7 @@
         <x:v>2609</x:v>
       </x:c>
       <x:c r="C9" s="4" t="s">
-        <x:v>136</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D9" s="28">
         <x:v>44519</x:v>
@@ -1770,7 +1770,7 @@
         <x:v>1978</x:v>
       </x:c>
       <x:c r="C10" s="4" t="s">
-        <x:v>180</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="D10" s="28">
         <x:v>44519</x:v>
@@ -1781,7 +1781,7 @@
         <x:v>1929</x:v>
       </x:c>
       <x:c r="C11" s="4" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="D11" s="28">
         <x:v>44519</x:v>
@@ -1792,7 +1792,7 @@
         <x:v>6588</x:v>
       </x:c>
       <x:c r="C12" s="4" t="s">
-        <x:v>58</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D12" s="28">
         <x:v>44520</x:v>
@@ -1808,7 +1808,7 @@
     </x:row>
     <x:row r="14" spans="1:1" ht="23.5">
       <x:c r="A14" s="14" t="s">
-        <x:v>41</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="2:12" ht="20.649999999999999">
@@ -1818,43 +1818,43 @@
       <x:c r="C15" s="30"/>
       <x:c r="D15" s="31"/>
       <x:c r="F15" s="29" t="s">
-        <x:v>141</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="G15" s="30"/>
       <x:c r="H15" s="31"/>
       <x:c r="J15" s="29" t="s">
-        <x:v>46</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="K15" s="30"/>
       <x:c r="L15" s="31"/>
     </x:row>
     <x:row r="16" spans="2:12">
       <x:c r="B16" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D16" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G16" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H16" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="J16" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="K16" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="L16" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="2:12">
@@ -1862,7 +1862,7 @@
         <x:v>2309</x:v>
       </x:c>
       <x:c r="C17" s="4" t="s">
-        <x:v>183</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D17" s="28">
         <x:v>44521</x:v>
@@ -1871,14 +1871,14 @@
         <x:v>15649</x:v>
       </x:c>
       <x:c r="G17" s="4" t="s">
-        <x:v>42</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="H17" s="5"/>
       <x:c r="J17" s="3">
         <x:v>9095</x:v>
       </x:c>
       <x:c r="K17" s="4" t="s">
-        <x:v>60</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="L17" s="28">
         <x:v>44533</x:v>
@@ -1898,14 +1898,14 @@
         <x:v>15650</x:v>
       </x:c>
       <x:c r="G18" s="4" t="s">
-        <x:v>35</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="H18" s="5"/>
       <x:c r="J18" s="3">
         <x:v>1759</x:v>
       </x:c>
       <x:c r="K18" s="4" t="s">
-        <x:v>177</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="L18" s="28">
         <x:v>44563</x:v>
@@ -1916,7 +1916,7 @@
         <x:v>1476</x:v>
       </x:c>
       <x:c r="C19" s="4" t="s">
-        <x:v>195</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D19" s="28">
         <x:v>44526</x:v>
@@ -1925,14 +1925,14 @@
         <x:v>15651</x:v>
       </x:c>
       <x:c r="G19" s="4" t="s">
-        <x:v>56</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H19" s="5"/>
       <x:c r="J19" s="3">
         <x:v>14501</x:v>
       </x:c>
       <x:c r="K19" s="4" t="s">
-        <x:v>98</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="L19" s="28">
         <x:v>44564</x:v>
@@ -1943,21 +1943,21 @@
         <x:v>1107</x:v>
       </x:c>
       <x:c r="C20" s="4" t="s">
-        <x:v>83</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D20" s="5"/>
       <x:c r="F20" s="3">
         <x:v>15652</x:v>
       </x:c>
       <x:c r="G20" s="4" t="s">
-        <x:v>73</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H20" s="5"/>
       <x:c r="J20" s="3">
         <x:v>14889</x:v>
       </x:c>
       <x:c r="K20" s="4" t="s">
-        <x:v>179</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="L20" s="28"/>
     </x:row>
@@ -1975,14 +1975,14 @@
         <x:v>15654</x:v>
       </x:c>
       <x:c r="G21" s="4" t="s">
-        <x:v>53</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H21" s="5"/>
       <x:c r="J21" s="3">
         <x:v>15661</x:v>
       </x:c>
       <x:c r="K21" s="4" t="s">
-        <x:v>178</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="L21" s="28"/>
       <x:c r="M21" s="7"/>
@@ -2003,14 +2003,14 @@
         <x:v>15655</x:v>
       </x:c>
       <x:c r="G22" s="4" t="s">
-        <x:v>36</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="H22" s="5"/>
       <x:c r="J22" s="3">
         <x:v>2529</x:v>
       </x:c>
       <x:c r="K22" s="4" t="s">
-        <x:v>110</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="L22" s="28">
         <x:v>44562</x:v>
@@ -2024,7 +2024,7 @@
         <x:v>1748</x:v>
       </x:c>
       <x:c r="C23" s="4" t="s">
-        <x:v>61</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D23" s="28">
         <x:v>44530</x:v>
@@ -2033,14 +2033,14 @@
         <x:v>15656</x:v>
       </x:c>
       <x:c r="G23" s="4" t="s">
-        <x:v>65</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H23" s="5"/>
       <x:c r="J23" s="3">
         <x:v>1248</x:v>
       </x:c>
       <x:c r="K23" s="4" t="s">
-        <x:v>88</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="L23" s="28"/>
       <x:c r="M23" s="9"/>
@@ -2055,7 +2055,7 @@
         <x:v>15657</x:v>
       </x:c>
       <x:c r="G24" s="4" t="s">
-        <x:v>66</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H24" s="5"/>
       <x:c r="J24" s="7"/>
@@ -2070,7 +2070,7 @@
         <x:v>18290</x:v>
       </x:c>
       <x:c r="G25" s="11" t="s">
-        <x:v>37</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H25" s="5"/>
       <x:c r="J25" s="9"/>
@@ -2084,34 +2084,34 @@
     </x:row>
     <x:row r="27" spans="2:8" ht="20.649999999999999">
       <x:c r="B27" s="29" t="s">
-        <x:v>55</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C27" s="30"/>
       <x:c r="D27" s="31"/>
       <x:c r="F27" s="29" t="s">
-        <x:v>135</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="G27" s="30"/>
       <x:c r="H27" s="31"/>
     </x:row>
     <x:row r="28" spans="2:8">
       <x:c r="B28" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D28" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G28" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H28" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="2:8">
@@ -2119,14 +2119,16 @@
         <x:v>10972</x:v>
       </x:c>
       <x:c r="C29" s="4" t="s">
-        <x:v>184</x:v>
-      </x:c>
-      <x:c r="D29" s="5"/>
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="D29" s="28">
+        <x:v>44565</x:v>
+      </x:c>
       <x:c r="F29" s="3">
         <x:v>11723</x:v>
       </x:c>
       <x:c r="G29" s="4" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="H29" s="5"/>
     </x:row>
@@ -2135,14 +2137,14 @@
         <x:v>10973</x:v>
       </x:c>
       <x:c r="C30" s="4" t="s">
-        <x:v>182</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="D30" s="5"/>
       <x:c r="F30" s="3">
         <x:v>1182</x:v>
       </x:c>
       <x:c r="G30" s="4" t="s">
-        <x:v>182</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="H30" s="5"/>
     </x:row>
@@ -2151,14 +2153,14 @@
         <x:v>10974</x:v>
       </x:c>
       <x:c r="C31" s="4" t="s">
-        <x:v>192</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="D31" s="5"/>
       <x:c r="F31" s="3">
         <x:v>14889</x:v>
       </x:c>
       <x:c r="G31" s="4" t="s">
-        <x:v>192</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="H31" s="5"/>
     </x:row>
@@ -2167,14 +2169,14 @@
         <x:v>10819</x:v>
       </x:c>
       <x:c r="C32" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="D32" s="5"/>
       <x:c r="F32" s="3">
         <x:v>14391</x:v>
       </x:c>
       <x:c r="G32" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="H32" s="5"/>
     </x:row>
@@ -2183,7 +2185,7 @@
         <x:v>10971</x:v>
       </x:c>
       <x:c r="C33" s="4" t="s">
-        <x:v>51</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D33" s="5"/>
       <x:c r="F33" s="7"/>
@@ -2195,7 +2197,7 @@
         <x:v>6603</x:v>
       </x:c>
       <x:c r="C34" s="4" t="s">
-        <x:v>114</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D34" s="5"/>
       <x:c r="F34" s="7"/>
@@ -2204,39 +2206,39 @@
     </x:row>
     <x:row r="36" spans="1:1" ht="23.5">
       <x:c r="A36" s="14" t="s">
-        <x:v>130</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="2:8" ht="20.649999999999999">
       <x:c r="B37" s="29" t="s">
-        <x:v>76</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C37" s="30"/>
       <x:c r="D37" s="31"/>
       <x:c r="F37" s="29" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G37" s="30"/>
       <x:c r="H37" s="31"/>
     </x:row>
     <x:row r="38" spans="2:8">
       <x:c r="B38" s="15" t="s">
-        <x:v>81</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C38" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D38" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="F38" s="15" t="s">
-        <x:v>81</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G38" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H38" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="2:8">
@@ -2251,7 +2253,7 @@
         <x:v>15988</x:v>
       </x:c>
       <x:c r="G39" s="4" t="s">
-        <x:v>119</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H39" s="5"/>
     </x:row>
@@ -2260,14 +2262,14 @@
         <x:v>11726</x:v>
       </x:c>
       <x:c r="C40" s="4" t="s">
-        <x:v>45</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D40" s="5"/>
       <x:c r="F40" s="3">
         <x:v>1149</x:v>
       </x:c>
       <x:c r="G40" s="4" t="s">
-        <x:v>214</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="H40" s="5"/>
     </x:row>
@@ -2276,14 +2278,14 @@
         <x:v>11727</x:v>
       </x:c>
       <x:c r="C41" s="4" t="s">
-        <x:v>54</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D41" s="5"/>
       <x:c r="F41" s="3">
         <x:v>1309</x:v>
       </x:c>
       <x:c r="G41" s="4" t="s">
-        <x:v>108</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H41" s="5"/>
     </x:row>
@@ -2292,14 +2294,14 @@
         <x:v>9095</x:v>
       </x:c>
       <x:c r="C42" s="4" t="s">
-        <x:v>60</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D42" s="5"/>
       <x:c r="F42" s="3">
         <x:v>11057</x:v>
       </x:c>
       <x:c r="G42" s="4" t="s">
-        <x:v>226</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="H42" s="5"/>
     </x:row>
@@ -2308,14 +2310,14 @@
         <x:v>11052</x:v>
       </x:c>
       <x:c r="C43" s="4" t="s">
-        <x:v>216</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="D43" s="5"/>
       <x:c r="F43" s="3">
         <x:v>2156</x:v>
       </x:c>
       <x:c r="G43" s="4" t="s">
-        <x:v>218</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="H43" s="5"/>
     </x:row>
@@ -2324,14 +2326,14 @@
         <x:v>16194</x:v>
       </x:c>
       <x:c r="C44" s="4" t="s">
-        <x:v>52</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D44" s="5"/>
       <x:c r="F44" s="3">
         <x:v>1932</x:v>
       </x:c>
       <x:c r="G44" s="4" t="s">
-        <x:v>225</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="H44" s="5"/>
     </x:row>
@@ -2340,14 +2342,14 @@
         <x:v>15990</x:v>
       </x:c>
       <x:c r="C45" s="4" t="s">
-        <x:v>128</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D45" s="5"/>
       <x:c r="F45" s="3">
         <x:v>11055</x:v>
       </x:c>
       <x:c r="G45" s="4" t="s">
-        <x:v>121</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H45" s="5"/>
     </x:row>
@@ -2356,14 +2358,14 @@
         <x:v>10844</x:v>
       </x:c>
       <x:c r="C46" s="4" t="s">
-        <x:v>205</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="D46" s="5"/>
       <x:c r="F46" s="3">
         <x:v>11722</x:v>
       </x:c>
       <x:c r="G46" s="4" t="s">
-        <x:v>126</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H46" s="5"/>
     </x:row>
@@ -2372,14 +2374,14 @@
         <x:v>2193</x:v>
       </x:c>
       <x:c r="C47" s="11" t="s">
-        <x:v>116</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D47" s="5"/>
       <x:c r="F47" s="10">
         <x:v>11054</x:v>
       </x:c>
       <x:c r="G47" s="11" t="s">
-        <x:v>131</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H47" s="5"/>
     </x:row>
@@ -2388,14 +2390,14 @@
         <x:v>11053</x:v>
       </x:c>
       <x:c r="C48" s="11" t="s">
-        <x:v>143</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D48" s="5"/>
       <x:c r="F48" s="10">
         <x:v>13398</x:v>
       </x:c>
       <x:c r="G48" s="11" t="s">
-        <x:v>207</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="H48" s="5"/>
     </x:row>
@@ -2404,14 +2406,14 @@
         <x:v>14002</x:v>
       </x:c>
       <x:c r="C49" s="11" t="s">
-        <x:v>75</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D49" s="5"/>
       <x:c r="F49" s="10">
         <x:v>2133</x:v>
       </x:c>
       <x:c r="G49" s="11" t="s">
-        <x:v>227</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="H49" s="5"/>
     </x:row>
@@ -2420,7 +2422,7 @@
         <x:v>1912</x:v>
       </x:c>
       <x:c r="C50" s="11" t="s">
-        <x:v>93</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D50" s="5"/>
       <x:c r="F50" s="9"/>
@@ -2432,7 +2434,7 @@
         <x:v>1699</x:v>
       </x:c>
       <x:c r="C51" s="11" t="s">
-        <x:v>217</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="D51" s="5"/>
       <x:c r="F51" s="9"/>
@@ -2444,7 +2446,7 @@
         <x:v>14501</x:v>
       </x:c>
       <x:c r="C52" s="11" t="s">
-        <x:v>98</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D52" s="5"/>
       <x:c r="F52" s="9"/>
@@ -2456,7 +2458,7 @@
         <x:v>2225</x:v>
       </x:c>
       <x:c r="C53" s="11" t="s">
-        <x:v>118</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D53" s="5"/>
       <x:c r="F53" s="9"/>
@@ -2465,39 +2467,39 @@
     </x:row>
     <x:row r="55" spans="1:1" ht="23.5">
       <x:c r="A55" s="14" t="s">
-        <x:v>62</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="2:8" ht="20.649999999999999">
       <x:c r="B56" s="29" t="s">
-        <x:v>213</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="C56" s="30"/>
       <x:c r="D56" s="31"/>
       <x:c r="F56" s="29" t="s">
-        <x:v>117</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G56" s="30"/>
       <x:c r="H56" s="31"/>
     </x:row>
     <x:row r="57" spans="2:8">
       <x:c r="B57" s="15" t="s">
-        <x:v>81</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C57" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D57" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="F57" s="15" t="s">
-        <x:v>81</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G57" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H57" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="2:8">
@@ -2505,14 +2507,14 @@
         <x:v>10845</x:v>
       </x:c>
       <x:c r="C58" s="4" t="s">
-        <x:v>115</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D58" s="5"/>
       <x:c r="F58" s="3">
         <x:v>1697</x:v>
       </x:c>
       <x:c r="G58" s="4" t="s">
-        <x:v>222</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="H58" s="5"/>
     </x:row>
@@ -2521,14 +2523,14 @@
         <x:v>10866</x:v>
       </x:c>
       <x:c r="C59" s="4" t="s">
-        <x:v>101</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D59" s="5"/>
       <x:c r="F59" s="3">
         <x:v>13913</x:v>
       </x:c>
       <x:c r="G59" s="4" t="s">
-        <x:v>196</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="H59" s="5"/>
     </x:row>
@@ -2537,14 +2539,14 @@
         <x:v>13023</x:v>
       </x:c>
       <x:c r="C60" s="4" t="s">
-        <x:v>201</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="D60" s="5"/>
       <x:c r="F60" s="3">
         <x:v>14226</x:v>
       </x:c>
       <x:c r="G60" s="4" t="s">
-        <x:v>221</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="H60" s="5"/>
     </x:row>
@@ -2553,14 +2555,14 @@
         <x:v>1260</x:v>
       </x:c>
       <x:c r="C61" s="4" t="s">
-        <x:v>71</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D61" s="5"/>
       <x:c r="F61" s="3">
         <x:v>13549</x:v>
       </x:c>
       <x:c r="G61" s="4" t="s">
-        <x:v>204</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="H61" s="5"/>
     </x:row>
@@ -2569,14 +2571,14 @@
         <x:v>11724</x:v>
       </x:c>
       <x:c r="C62" s="4" t="s">
-        <x:v>70</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D62" s="5"/>
       <x:c r="F62" s="3">
         <x:v>1261</x:v>
       </x:c>
       <x:c r="G62" s="4" t="s">
-        <x:v>206</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="H62" s="5"/>
     </x:row>
@@ -2585,7 +2587,7 @@
         <x:v>1707</x:v>
       </x:c>
       <x:c r="C63" s="4" t="s">
-        <x:v>215</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D63" s="5"/>
       <x:c r="F63" s="7"/>
@@ -2597,7 +2599,7 @@
         <x:v>2667</x:v>
       </x:c>
       <x:c r="C64" s="4" t="s">
-        <x:v>202</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="D64" s="5"/>
       <x:c r="F64" s="7"/>
@@ -2609,7 +2611,7 @@
         <x:v>2178</x:v>
       </x:c>
       <x:c r="C65" s="4" t="s">
-        <x:v>212</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="D65" s="5"/>
       <x:c r="F65" s="7"/>
@@ -2621,7 +2623,7 @@
         <x:v>7576</x:v>
       </x:c>
       <x:c r="C66" s="11" t="s">
-        <x:v>80</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D66" s="5"/>
       <x:c r="F66" s="9"/>
@@ -2633,7 +2635,7 @@
         <x:v>7562</x:v>
       </x:c>
       <x:c r="C67" s="11" t="s">
-        <x:v>197</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="D67" s="5"/>
       <x:c r="F67" s="9"/>
@@ -2647,25 +2649,25 @@
     </x:row>
     <x:row r="69" spans="1:1" ht="23.5">
       <x:c r="A69" s="14" t="s">
-        <x:v>138</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="2:4" ht="20.649999999999999">
       <x:c r="B70" s="29" t="s">
-        <x:v>9</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C70" s="30"/>
       <x:c r="D70" s="31"/>
     </x:row>
     <x:row r="71" spans="2:4">
       <x:c r="B71" s="15" t="s">
-        <x:v>81</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C71" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D71" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="2:4">
@@ -2673,7 +2675,7 @@
         <x:v>16935</x:v>
       </x:c>
       <x:c r="C72" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D72" s="5"/>
     </x:row>
@@ -2682,7 +2684,7 @@
         <x:v>16926</x:v>
       </x:c>
       <x:c r="C73" s="4" t="s">
-        <x:v>5</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="D73" s="5"/>
     </x:row>
@@ -2691,7 +2693,7 @@
         <x:v>16927</x:v>
       </x:c>
       <x:c r="C74" s="4" t="s">
-        <x:v>15</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D74" s="5"/>
     </x:row>
@@ -2700,7 +2702,7 @@
         <x:v>14499</x:v>
       </x:c>
       <x:c r="C75" s="4" t="s">
-        <x:v>224</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="D75" s="5"/>
     </x:row>
@@ -2709,7 +2711,7 @@
         <x:v>14890</x:v>
       </x:c>
       <x:c r="C76" s="4" t="s">
-        <x:v>95</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D76" s="5"/>
     </x:row>
@@ -2718,7 +2720,7 @@
         <x:v>15662</x:v>
       </x:c>
       <x:c r="C77" s="4" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="D77" s="5"/>
     </x:row>
@@ -2727,7 +2729,7 @@
         <x:v>14503</x:v>
       </x:c>
       <x:c r="C78" s="4" t="s">
-        <x:v>200</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="D78" s="5"/>
     </x:row>
@@ -2736,7 +2738,7 @@
         <x:v>14890</x:v>
       </x:c>
       <x:c r="C79" s="4" t="s">
-        <x:v>95</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D79" s="5"/>
     </x:row>
@@ -2745,7 +2747,7 @@
         <x:v>15685</x:v>
       </x:c>
       <x:c r="C80" s="11" t="s">
-        <x:v>223</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="D80" s="5"/>
     </x:row>
@@ -2754,7 +2756,7 @@
         <x:v>2290</x:v>
       </x:c>
       <x:c r="C81" s="11" t="s">
-        <x:v>7</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D81" s="5"/>
     </x:row>
@@ -2763,7 +2765,7 @@
         <x:v>16931</x:v>
       </x:c>
       <x:c r="C82" s="11" t="s">
-        <x:v>220</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="D82" s="5"/>
     </x:row>
@@ -2772,7 +2774,7 @@
         <x:v>1917</x:v>
       </x:c>
       <x:c r="C83" s="11" t="s">
-        <x:v>6</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="D83" s="5"/>
     </x:row>
@@ -2781,7 +2783,7 @@
         <x:v>16967</x:v>
       </x:c>
       <x:c r="C84" s="11" t="s">
-        <x:v>208</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="D84" s="5"/>
     </x:row>
@@ -2790,7 +2792,7 @@
         <x:v>20327</x:v>
       </x:c>
       <x:c r="C85" s="11" t="s">
-        <x:v>10</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D85" s="5"/>
     </x:row>
@@ -2799,7 +2801,7 @@
         <x:v>20055</x:v>
       </x:c>
       <x:c r="C86" s="11" t="s">
-        <x:v>127</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D86" s="5"/>
     </x:row>
@@ -2839,39 +2841,39 @@
   <x:sheetData>
     <x:row r="1" spans="1:1" ht="26.25">
       <x:c r="A1" s="14" t="s">
-        <x:v>139</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="2:8" ht="20.25">
       <x:c r="B2" s="32" t="s">
-        <x:v>46</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="32"/>
       <x:c r="D2" s="32"/>
       <x:c r="F2" s="32" t="s">
-        <x:v>8</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="G2" s="32"/>
       <x:c r="H2" s="32"/>
     </x:row>
     <x:row r="3" spans="2:8">
       <x:c r="B3" s="16" t="s">
-        <x:v>81</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C3" s="16" t="s">
-        <x:v>78</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D3" s="16" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="F3" s="16" t="s">
-        <x:v>81</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G3" s="16" t="s">
-        <x:v>78</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H3" s="16" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:8">
@@ -2879,14 +2881,14 @@
         <x:v>6603</x:v>
       </x:c>
       <x:c r="C4" s="18" t="s">
-        <x:v>114</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D4" s="19"/>
       <x:c r="F4" s="17">
         <x:v>2003</x:v>
       </x:c>
       <x:c r="G4" s="18" t="s">
-        <x:v>234</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="H4" s="19"/>
     </x:row>
@@ -2895,14 +2897,14 @@
         <x:v>1182</x:v>
       </x:c>
       <x:c r="C5" s="18" t="s">
-        <x:v>219</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="D5" s="19"/>
       <x:c r="F5" s="17">
         <x:v>1806</x:v>
       </x:c>
       <x:c r="G5" s="18" t="s">
-        <x:v>79</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H5" s="19"/>
     </x:row>
@@ -2911,14 +2913,14 @@
         <x:v>14225</x:v>
       </x:c>
       <x:c r="C6" s="18" t="s">
-        <x:v>219</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="D6" s="19"/>
       <x:c r="F6" s="17">
         <x:v>1644</x:v>
       </x:c>
       <x:c r="G6" s="18" t="s">
-        <x:v>237</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="H6" s="19"/>
     </x:row>
@@ -2927,14 +2929,14 @@
         <x:v>14888</x:v>
       </x:c>
       <x:c r="C7" s="18" t="s">
-        <x:v>12</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D7" s="19"/>
       <x:c r="F7" s="17">
         <x:v>1208</x:v>
       </x:c>
       <x:c r="G7" s="18" t="s">
-        <x:v>4</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="H7" s="19"/>
     </x:row>
@@ -2943,14 +2945,14 @@
         <x:v>15658</x:v>
       </x:c>
       <x:c r="C8" s="18" t="s">
-        <x:v>133</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D8" s="19"/>
       <x:c r="F8" s="20">
         <x:v>2143</x:v>
       </x:c>
       <x:c r="G8" s="21" t="s">
-        <x:v>235</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="H8" s="19"/>
     </x:row>
@@ -2968,7 +2970,7 @@
         <x:v>16197</x:v>
       </x:c>
       <x:c r="C10" s="18" t="s">
-        <x:v>199</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="D10" s="19"/>
     </x:row>
@@ -2977,7 +2979,7 @@
         <x:v>16198</x:v>
       </x:c>
       <x:c r="C11" s="18" t="s">
-        <x:v>210</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="D11" s="19"/>
     </x:row>
@@ -2986,7 +2988,7 @@
         <x:v>9663</x:v>
       </x:c>
       <x:c r="C12" s="18" t="s">
-        <x:v>209</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="D12" s="19"/>
     </x:row>
@@ -2995,7 +2997,7 @@
         <x:v>2580</x:v>
       </x:c>
       <x:c r="C13" s="21" t="s">
-        <x:v>91</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D13" s="19"/>
     </x:row>
@@ -3004,40 +3006,40 @@
         <x:v>4574</x:v>
       </x:c>
       <x:c r="C14" s="21" t="s">
-        <x:v>198</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="D14" s="19"/>
     </x:row>
     <x:row r="16" spans="2:8" ht="20.25">
       <x:c r="B16" s="32" t="s">
-        <x:v>135</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C16" s="32"/>
       <x:c r="D16" s="32"/>
       <x:c r="F16" s="32" t="s">
-        <x:v>55</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G16" s="32"/>
       <x:c r="H16" s="32"/>
     </x:row>
     <x:row r="17" spans="2:8">
       <x:c r="B17" s="16" t="s">
-        <x:v>81</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C17" s="16" t="s">
-        <x:v>78</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D17" s="16" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="F17" s="16" t="s">
-        <x:v>81</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G17" s="16" t="s">
-        <x:v>78</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H17" s="16" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="2:8">
@@ -3045,14 +3047,14 @@
         <x:v>14225</x:v>
       </x:c>
       <x:c r="C18" s="18" t="s">
-        <x:v>219</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="D18" s="19"/>
       <x:c r="F18" s="17">
         <x:v>2529</x:v>
       </x:c>
       <x:c r="G18" s="18" t="s">
-        <x:v>110</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H18" s="19"/>
     </x:row>
@@ -3061,14 +3063,14 @@
         <x:v>1062</x:v>
       </x:c>
       <x:c r="C19" s="18" t="s">
-        <x:v>86</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D19" s="19"/>
       <x:c r="F19" s="17">
         <x:v>1339</x:v>
       </x:c>
       <x:c r="G19" s="18" t="s">
-        <x:v>203</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="H19" s="19"/>
     </x:row>
@@ -3077,14 +3079,14 @@
         <x:v>13460</x:v>
       </x:c>
       <x:c r="C20" s="18" t="s">
-        <x:v>248</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="D20" s="19"/>
       <x:c r="F20" s="17">
         <x:v>14888</x:v>
       </x:c>
       <x:c r="G20" s="18" t="s">
-        <x:v>12</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="H20" s="19"/>
     </x:row>
@@ -3093,52 +3095,52 @@
         <x:v>12100</x:v>
       </x:c>
       <x:c r="C21" s="18" t="s">
-        <x:v>11</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="D21" s="19"/>
       <x:c r="F21" s="17">
         <x:v>14889</x:v>
       </x:c>
       <x:c r="G21" s="18" t="s">
-        <x:v>179</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="H21" s="19"/>
     </x:row>
     <x:row r="23" spans="1:1" ht="26.25">
       <x:c r="A23" s="14" t="s">
-        <x:v>14</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="2:8" ht="20.25">
       <x:c r="B24" s="32" t="s">
-        <x:v>57</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C24" s="32"/>
       <x:c r="D24" s="32"/>
       <x:c r="F24" s="32" t="s">
-        <x:v>48</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G24" s="32"/>
       <x:c r="H24" s="32"/>
     </x:row>
     <x:row r="25" spans="2:8">
       <x:c r="B25" s="16" t="s">
-        <x:v>81</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C25" s="16" t="s">
-        <x:v>78</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D25" s="16" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="F25" s="16" t="s">
-        <x:v>81</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G25" s="16" t="s">
-        <x:v>78</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H25" s="16" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="2:8">
@@ -3146,14 +3148,14 @@
         <x:v>16928</x:v>
       </x:c>
       <x:c r="C26" s="18" t="s">
-        <x:v>59</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D26" s="19"/>
       <x:c r="F26" s="17">
         <x:v>16929</x:v>
       </x:c>
       <x:c r="G26" s="18" t="s">
-        <x:v>33</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="H26" s="19"/>
     </x:row>
@@ -3162,14 +3164,14 @@
         <x:v>16948</x:v>
       </x:c>
       <x:c r="C27" s="18" t="s">
-        <x:v>239</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="D27" s="19"/>
       <x:c r="F27" s="17">
         <x:v>16947</x:v>
       </x:c>
       <x:c r="G27" s="18" t="s">
-        <x:v>34</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="H27" s="19"/>
     </x:row>
@@ -3178,14 +3180,14 @@
         <x:v>14502</x:v>
       </x:c>
       <x:c r="C28" s="18" t="s">
-        <x:v>106</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D28" s="19"/>
       <x:c r="F28" s="17">
         <x:v>12946</x:v>
       </x:c>
       <x:c r="G28" s="18" t="s">
-        <x:v>238</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="H28" s="19"/>
     </x:row>
@@ -3194,14 +3196,14 @@
         <x:v>12886</x:v>
       </x:c>
       <x:c r="C29" s="18" t="s">
-        <x:v>244</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="D29" s="19"/>
       <x:c r="F29" s="17">
         <x:v>16940</x:v>
       </x:c>
       <x:c r="G29" s="18" t="s">
-        <x:v>26</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H29" s="19"/>
     </x:row>
@@ -3210,14 +3212,14 @@
         <x:v>2206</x:v>
       </x:c>
       <x:c r="C30" s="18" t="s">
-        <x:v>49</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D30" s="19"/>
       <x:c r="F30" s="20">
         <x:v>16964</x:v>
       </x:c>
       <x:c r="G30" s="21" t="s">
-        <x:v>44</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H30" s="19"/>
     </x:row>
@@ -3226,7 +3228,7 @@
         <x:v>16946</x:v>
       </x:c>
       <x:c r="C31" s="18" t="s">
-        <x:v>140</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D31" s="19"/>
     </x:row>
@@ -3235,7 +3237,7 @@
         <x:v>14442</x:v>
       </x:c>
       <x:c r="C32" s="18" t="s">
-        <x:v>124</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D32" s="19"/>
     </x:row>
@@ -3244,7 +3246,7 @@
         <x:v>16933</x:v>
       </x:c>
       <x:c r="C33" s="18" t="s">
-        <x:v>123</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D33" s="19"/>
     </x:row>
@@ -3253,7 +3255,7 @@
         <x:v>16954</x:v>
       </x:c>
       <x:c r="C34" s="18" t="s">
-        <x:v>43</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D34" s="19"/>
     </x:row>
@@ -3262,7 +3264,7 @@
         <x:v>16236</x:v>
       </x:c>
       <x:c r="C35" s="21" t="s">
-        <x:v>258</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="D35" s="19"/>
     </x:row>
@@ -3271,7 +3273,7 @@
         <x:v>6087</x:v>
       </x:c>
       <x:c r="C36" s="21" t="s">
-        <x:v>243</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="D36" s="19"/>
     </x:row>
@@ -3280,7 +3282,7 @@
         <x:v>1963</x:v>
       </x:c>
       <x:c r="C37" s="21" t="s">
-        <x:v>251</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="D37" s="19"/>
     </x:row>
@@ -3289,7 +3291,7 @@
         <x:v>10026</x:v>
       </x:c>
       <x:c r="C38" s="21" t="s">
-        <x:v>253</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="D38" s="19"/>
     </x:row>
@@ -3298,7 +3300,7 @@
         <x:v>14395</x:v>
       </x:c>
       <x:c r="C39" s="21" t="s">
-        <x:v>102</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D39" s="19"/>
     </x:row>
@@ -3307,7 +3309,7 @@
         <x:v>5014</x:v>
       </x:c>
       <x:c r="C40" s="21" t="s">
-        <x:v>245</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="D40" s="19"/>
     </x:row>
@@ -3316,7 +3318,7 @@
         <x:v>9376</x:v>
       </x:c>
       <x:c r="C41" s="21" t="s">
-        <x:v>105</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D41" s="19"/>
     </x:row>
@@ -3325,7 +3327,7 @@
         <x:v>1600</x:v>
       </x:c>
       <x:c r="C42" s="21" t="s">
-        <x:v>50</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D42" s="19"/>
     </x:row>
@@ -3334,7 +3336,7 @@
         <x:v>17086</x:v>
       </x:c>
       <x:c r="C43" s="21" t="s">
-        <x:v>241</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="D43" s="19"/>
     </x:row>
@@ -3343,7 +3345,7 @@
         <x:v>4991</x:v>
       </x:c>
       <x:c r="C44" s="21" t="s">
-        <x:v>200</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="D44" s="19"/>
     </x:row>
@@ -3352,7 +3354,7 @@
         <x:v>2234</x:v>
       </x:c>
       <x:c r="C45" s="21" t="s">
-        <x:v>82</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D45" s="19"/>
     </x:row>
@@ -3361,7 +3363,7 @@
         <x:v>12906</x:v>
       </x:c>
       <x:c r="C46" s="21" t="s">
-        <x:v>47</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D46" s="19"/>
     </x:row>
@@ -3370,7 +3372,7 @@
         <x:v>17141</x:v>
       </x:c>
       <x:c r="C47" s="21" t="s">
-        <x:v>257</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="D47" s="19"/>
     </x:row>
@@ -3379,31 +3381,31 @@
         <x:v>17142</x:v>
       </x:c>
       <x:c r="C48" s="21" t="s">
-        <x:v>255</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="D48" s="19"/>
     </x:row>
     <x:row r="50" spans="1:1" ht="26.25">
       <x:c r="A50" s="14" t="s">
-        <x:v>130</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="2:4" ht="20.25">
       <x:c r="B51" s="32" t="s">
-        <x:v>28</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C51" s="32"/>
       <x:c r="D51" s="32"/>
     </x:row>
     <x:row r="52" spans="2:4">
       <x:c r="B52" s="16" t="s">
-        <x:v>81</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C52" s="16" t="s">
-        <x:v>78</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D52" s="16" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="2:4">
@@ -3411,7 +3413,7 @@
         <x:v>11048</x:v>
       </x:c>
       <x:c r="C53" s="18" t="s">
-        <x:v>259</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="D53" s="19"/>
     </x:row>
@@ -3420,7 +3422,7 @@
         <x:v>11060</x:v>
       </x:c>
       <x:c r="C54" s="18" t="s">
-        <x:v>240</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="D54" s="19"/>
     </x:row>
@@ -3429,7 +3431,7 @@
         <x:v>10942</x:v>
       </x:c>
       <x:c r="C55" s="18" t="s">
-        <x:v>230</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="D55" s="19"/>
     </x:row>
@@ -3438,7 +3440,7 @@
         <x:v>15989</x:v>
       </x:c>
       <x:c r="C56" s="18" t="s">
-        <x:v>122</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D56" s="19"/>
     </x:row>
@@ -3447,7 +3449,7 @@
         <x:v>11066</x:v>
       </x:c>
       <x:c r="C57" s="18" t="s">
-        <x:v>250</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="D57" s="19"/>
     </x:row>
@@ -3456,7 +3458,7 @@
         <x:v>12865</x:v>
       </x:c>
       <x:c r="C58" s="18" t="s">
-        <x:v>254</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="D58" s="19"/>
     </x:row>
@@ -3465,7 +3467,7 @@
         <x:v>1495</x:v>
       </x:c>
       <x:c r="C59" s="18" t="s">
-        <x:v>236</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="D59" s="19"/>
     </x:row>
@@ -3474,7 +3476,7 @@
         <x:v>12869</x:v>
       </x:c>
       <x:c r="C60" s="18" t="s">
-        <x:v>232</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="D60" s="19"/>
     </x:row>
@@ -3483,7 +3485,7 @@
         <x:v>10422</x:v>
       </x:c>
       <x:c r="C61" s="18" t="s">
-        <x:v>90</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D61" s="19"/>
     </x:row>
@@ -3492,7 +3494,7 @@
         <x:v>2293</x:v>
       </x:c>
       <x:c r="C62" s="21" t="s">
-        <x:v>242</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="D62" s="19"/>
     </x:row>
@@ -3501,7 +3503,7 @@
         <x:v>2294</x:v>
       </x:c>
       <x:c r="C63" s="21" t="s">
-        <x:v>228</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="D63" s="19"/>
     </x:row>
@@ -3519,7 +3521,7 @@
         <x:v>9251</x:v>
       </x:c>
       <x:c r="C65" s="21" t="s">
-        <x:v>85</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D65" s="19"/>
     </x:row>
@@ -3528,7 +3530,7 @@
         <x:v>9252</x:v>
       </x:c>
       <x:c r="C66" s="21" t="s">
-        <x:v>249</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="D66" s="19"/>
     </x:row>
@@ -3537,7 +3539,7 @@
         <x:v>5582</x:v>
       </x:c>
       <x:c r="C67" s="21" t="s">
-        <x:v>29</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D67" s="19"/>
     </x:row>
@@ -3546,7 +3548,7 @@
         <x:v>5557</x:v>
       </x:c>
       <x:c r="C68" s="21" t="s">
-        <x:v>107</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D68" s="19"/>
     </x:row>
@@ -3557,25 +3559,25 @@
     </x:row>
     <x:row r="70" spans="1:1" ht="26.25">
       <x:c r="A70" s="14" t="s">
-        <x:v>132</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="2:4" ht="20.25">
       <x:c r="B71" s="32" t="s">
-        <x:v>28</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C71" s="32"/>
       <x:c r="D71" s="32"/>
     </x:row>
     <x:row r="72" spans="2:4">
       <x:c r="B72" s="16" t="s">
-        <x:v>81</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C72" s="16" t="s">
-        <x:v>78</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D72" s="16" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="2:4">
@@ -3583,7 +3585,7 @@
         <x:v>16234</x:v>
       </x:c>
       <x:c r="C73" s="18" t="s">
-        <x:v>246</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="D73" s="19"/>
     </x:row>
@@ -3592,7 +3594,7 @@
         <x:v>16235</x:v>
       </x:c>
       <x:c r="C74" s="18" t="s">
-        <x:v>229</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="D74" s="19"/>
     </x:row>
@@ -3601,7 +3603,7 @@
         <x:v>17144</x:v>
       </x:c>
       <x:c r="C75" s="18" t="s">
-        <x:v>40</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D75" s="19"/>
     </x:row>
@@ -3610,7 +3612,7 @@
         <x:v>17143</x:v>
       </x:c>
       <x:c r="C76" s="18" t="s">
-        <x:v>112</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D76" s="19"/>
     </x:row>
@@ -3619,7 +3621,7 @@
         <x:v>17140</x:v>
       </x:c>
       <x:c r="C77" s="18" t="s">
-        <x:v>24</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D77" s="19"/>
     </x:row>
@@ -3628,7 +3630,7 @@
         <x:v>17780</x:v>
       </x:c>
       <x:c r="C78" s="18" t="s">
-        <x:v>247</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="D78" s="19"/>
     </x:row>
@@ -3637,7 +3639,7 @@
         <x:v>17837</x:v>
       </x:c>
       <x:c r="C79" s="18" t="s">
-        <x:v>18</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D79" s="19"/>
     </x:row>
@@ -3646,7 +3648,7 @@
         <x:v>17822</x:v>
       </x:c>
       <x:c r="C80" s="18" t="s">
-        <x:v>252</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="D80" s="19"/>
     </x:row>
@@ -3655,7 +3657,7 @@
         <x:v>16939</x:v>
       </x:c>
       <x:c r="C81" s="18" t="s">
-        <x:v>25</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D81" s="19"/>
     </x:row>
@@ -3664,7 +3666,7 @@
         <x:v>16974</x:v>
       </x:c>
       <x:c r="C82" s="21" t="s">
-        <x:v>256</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="D82" s="19"/>
     </x:row>
@@ -3673,7 +3675,7 @@
         <x:v>20061</x:v>
       </x:c>
       <x:c r="C83" s="21" t="s">
-        <x:v>17</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D83" s="19"/>
     </x:row>
@@ -3682,7 +3684,7 @@
         <x:v>19236</x:v>
       </x:c>
       <x:c r="C84" s="21" t="s">
-        <x:v>233</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="D84" s="19"/>
     </x:row>
@@ -3691,7 +3693,7 @@
         <x:v>19237</x:v>
       </x:c>
       <x:c r="C85" s="21" t="s">
-        <x:v>272</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="D85" s="19"/>
     </x:row>
@@ -3744,53 +3746,53 @@
   <x:sheetData>
     <x:row r="1" spans="1:1" ht="26.25">
       <x:c r="A1" s="14" t="s">
-        <x:v>31</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="2:12" ht="20.25">
       <x:c r="B2" s="33" t="s">
-        <x:v>125</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C2" s="33"/>
       <x:c r="D2" s="33"/>
       <x:c r="F2" s="33" t="s">
-        <x:v>134</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="G2" s="33"/>
       <x:c r="H2" s="33"/>
       <x:c r="J2" s="33" t="s">
-        <x:v>144</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="K2" s="33"/>
       <x:c r="L2" s="33"/>
     </x:row>
     <x:row r="3" spans="2:12">
       <x:c r="B3" s="22" t="s">
-        <x:v>81</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C3" s="22" t="s">
-        <x:v>78</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D3" s="22" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="F3" s="22" t="s">
-        <x:v>81</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G3" s="22" t="s">
-        <x:v>78</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H3" s="22" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="J3" s="22" t="s">
-        <x:v>81</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="K3" s="22" t="s">
-        <x:v>78</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="L3" s="22" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:12">
@@ -3798,21 +3800,21 @@
         <x:v>16968</x:v>
       </x:c>
       <x:c r="C4" s="24" t="s">
-        <x:v>21</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D4" s="25"/>
       <x:c r="F4" s="23">
         <x:v>17779</x:v>
       </x:c>
       <x:c r="G4" s="24" t="s">
-        <x:v>146</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="H4" s="25"/>
       <x:c r="J4" s="23">
         <x:v>16985</x:v>
       </x:c>
       <x:c r="K4" s="24" t="s">
-        <x:v>20</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="L4" s="25"/>
     </x:row>
@@ -3821,21 +3823,21 @@
         <x:v>16917</x:v>
       </x:c>
       <x:c r="C5" s="24" t="s">
-        <x:v>39</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D5" s="25"/>
       <x:c r="F5" s="23">
         <x:v>17070</x:v>
       </x:c>
       <x:c r="G5" s="24" t="s">
-        <x:v>38</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="H5" s="25"/>
       <x:c r="J5" s="23">
         <x:v>17090</x:v>
       </x:c>
       <x:c r="K5" s="24" t="s">
-        <x:v>260</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="L5" s="25"/>
     </x:row>
@@ -3844,21 +3846,21 @@
         <x:v>16922</x:v>
       </x:c>
       <x:c r="C6" s="24" t="s">
-        <x:v>23</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D6" s="25"/>
       <x:c r="F6" s="23">
         <x:v>17069</x:v>
       </x:c>
       <x:c r="G6" s="24" t="s">
-        <x:v>32</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="H6" s="25"/>
       <x:c r="J6" s="23">
         <x:v>12931</x:v>
       </x:c>
       <x:c r="K6" s="24" t="s">
-        <x:v>149</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="L6" s="25"/>
     </x:row>
@@ -3867,21 +3869,21 @@
         <x:v>16924</x:v>
       </x:c>
       <x:c r="C7" s="24" t="s">
-        <x:v>166</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="D7" s="25"/>
       <x:c r="F7" s="23">
         <x:v>16638</x:v>
       </x:c>
       <x:c r="G7" s="24" t="s">
-        <x:v>27</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="H7" s="25"/>
       <x:c r="J7" s="23">
         <x:v>16958</x:v>
       </x:c>
       <x:c r="K7" s="24" t="s">
-        <x:v>266</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="L7" s="25"/>
     </x:row>
@@ -3890,21 +3892,21 @@
         <x:v>16936</x:v>
       </x:c>
       <x:c r="C8" s="24" t="s">
-        <x:v>150</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="D8" s="25"/>
       <x:c r="F8" s="23">
         <x:v>17085</x:v>
       </x:c>
       <x:c r="G8" s="24" t="s">
-        <x:v>30</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="H8" s="25"/>
       <x:c r="J8" s="23">
         <x:v>12908</x:v>
       </x:c>
       <x:c r="K8" s="24" t="s">
-        <x:v>271</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="L8" s="25"/>
     </x:row>
@@ -3913,21 +3915,21 @@
         <x:v>16937</x:v>
       </x:c>
       <x:c r="C9" s="24" t="s">
-        <x:v>263</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="D9" s="25"/>
       <x:c r="F9" s="23">
         <x:v>17825</x:v>
       </x:c>
       <x:c r="G9" s="24" t="s">
-        <x:v>175</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="H9" s="25"/>
       <x:c r="J9" s="23">
         <x:v>16957</x:v>
       </x:c>
       <x:c r="K9" s="24" t="s">
-        <x:v>1</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="L9" s="25"/>
     </x:row>
@@ -3936,21 +3938,21 @@
         <x:v>16938</x:v>
       </x:c>
       <x:c r="C10" s="24" t="s">
-        <x:v>269</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="D10" s="25"/>
       <x:c r="F10" s="23">
         <x:v>16987</x:v>
       </x:c>
       <x:c r="G10" s="24" t="s">
-        <x:v>16</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="H10" s="25"/>
       <x:c r="J10" s="23">
         <x:v>16971</x:v>
       </x:c>
       <x:c r="K10" s="24" t="s">
-        <x:v>172</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="L10" s="25"/>
     </x:row>
@@ -3959,21 +3961,21 @@
         <x:v>16943</x:v>
       </x:c>
       <x:c r="C11" s="24" t="s">
-        <x:v>265</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="D11" s="25"/>
       <x:c r="F11" s="23">
         <x:v>16988</x:v>
       </x:c>
       <x:c r="G11" s="24" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H11" s="25"/>
       <x:c r="J11" s="23">
         <x:v>17472</x:v>
       </x:c>
       <x:c r="K11" s="24" t="s">
-        <x:v>72</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="L11" s="25"/>
     </x:row>
@@ -3982,21 +3984,21 @@
         <x:v>16637</x:v>
       </x:c>
       <x:c r="C12" s="24" t="s">
-        <x:v>155</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="D12" s="25"/>
       <x:c r="F12" s="23">
         <x:v>15684</x:v>
       </x:c>
       <x:c r="G12" s="24" t="s">
-        <x:v>158</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="H12" s="25"/>
       <x:c r="J12" s="23">
         <x:v>14056</x:v>
       </x:c>
       <x:c r="K12" s="24" t="s">
-        <x:v>3</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="L12" s="25"/>
     </x:row>
@@ -4005,14 +4007,14 @@
         <x:v>15683</x:v>
       </x:c>
       <x:c r="C13" s="27" t="s">
-        <x:v>109</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D13" s="25"/>
       <x:c r="F13" s="26">
         <x:v>16945</x:v>
       </x:c>
       <x:c r="G13" s="27" t="s">
-        <x:v>120</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H13" s="25"/>
       <x:c r="J13" s="9"/>
@@ -4024,14 +4026,14 @@
         <x:v>17088</x:v>
       </x:c>
       <x:c r="C14" s="27" t="s">
-        <x:v>147</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="D14" s="25"/>
       <x:c r="F14" s="26">
         <x:v>16953</x:v>
       </x:c>
       <x:c r="G14" s="27" t="s">
-        <x:v>173</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="H14" s="25"/>
       <x:c r="J14" s="9"/>
@@ -4043,14 +4045,14 @@
         <x:v>15686</x:v>
       </x:c>
       <x:c r="C15" s="27" t="s">
-        <x:v>167</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="D15" s="25"/>
       <x:c r="F15" s="26">
         <x:v>17136</x:v>
       </x:c>
       <x:c r="G15" s="27" t="s">
-        <x:v>261</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="H15" s="25"/>
       <x:c r="J15" s="9"/>
@@ -4062,14 +4064,14 @@
         <x:v>2210</x:v>
       </x:c>
       <x:c r="C16" s="27" t="s">
-        <x:v>267</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="D16" s="25"/>
       <x:c r="F16" s="26">
         <x:v>17471</x:v>
       </x:c>
       <x:c r="G16" s="27" t="s">
-        <x:v>162</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="H16" s="25"/>
       <x:c r="J16" s="9"/>
@@ -4081,7 +4083,7 @@
         <x:v>2422</x:v>
       </x:c>
       <x:c r="C17" s="27" t="s">
-        <x:v>19</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D17" s="25"/>
       <x:c r="F17" s="9"/>
@@ -4093,7 +4095,7 @@
         <x:v>17089</x:v>
       </x:c>
       <x:c r="C18" s="27" t="s">
-        <x:v>262</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="D18" s="25"/>
       <x:c r="F18" s="9"/>
@@ -4105,7 +4107,7 @@
         <x:v>17406</x:v>
       </x:c>
       <x:c r="C19" s="27" t="s">
-        <x:v>22</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D19" s="25"/>
       <x:c r="F19" s="9"/>
@@ -4117,7 +4119,7 @@
         <x:v>17135</x:v>
       </x:c>
       <x:c r="C20" s="27" t="s">
-        <x:v>157</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D20" s="25"/>
       <x:c r="F20" s="9"/>
@@ -4129,7 +4131,7 @@
         <x:v>17281</x:v>
       </x:c>
       <x:c r="C21" s="27" t="s">
-        <x:v>99</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D21" s="25"/>
       <x:c r="F21" s="9"/>
@@ -4138,39 +4140,39 @@
     </x:row>
     <x:row r="23" spans="1:1" ht="26.25">
       <x:c r="A23" s="14" t="s">
-        <x:v>14</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="2:8" ht="20.25">
       <x:c r="B24" s="33" t="s">
-        <x:v>57</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C24" s="33"/>
       <x:c r="D24" s="33"/>
       <x:c r="F24" s="33" t="s">
-        <x:v>48</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G24" s="33"/>
       <x:c r="H24" s="33"/>
     </x:row>
     <x:row r="25" spans="2:8">
       <x:c r="B25" s="22" t="s">
-        <x:v>81</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C25" s="22" t="s">
-        <x:v>78</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D25" s="22" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="F25" s="22" t="s">
-        <x:v>81</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G25" s="22" t="s">
-        <x:v>78</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H25" s="22" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="2:8">
@@ -4178,14 +4180,14 @@
         <x:v>8111</x:v>
       </x:c>
       <x:c r="C26" s="24" t="s">
-        <x:v>171</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="D26" s="25"/>
       <x:c r="F26" s="23">
         <x:v>2252</x:v>
       </x:c>
       <x:c r="G26" s="24" t="s">
-        <x:v>270</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="H26" s="25"/>
     </x:row>
@@ -4194,14 +4196,14 @@
         <x:v>17071</x:v>
       </x:c>
       <x:c r="C27" s="24" t="s">
-        <x:v>148</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D27" s="25"/>
       <x:c r="F27" s="23">
         <x:v>2056</x:v>
       </x:c>
       <x:c r="G27" s="24" t="s">
-        <x:v>84</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H27" s="25"/>
     </x:row>
@@ -4210,14 +4212,14 @@
         <x:v>16973</x:v>
       </x:c>
       <x:c r="C28" s="24" t="s">
-        <x:v>159</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="D28" s="25"/>
       <x:c r="F28" s="23">
         <x:v>14263</x:v>
       </x:c>
       <x:c r="G28" s="24" t="s">
-        <x:v>268</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="H28" s="25"/>
     </x:row>
@@ -4226,7 +4228,7 @@
         <x:v>1175</x:v>
       </x:c>
       <x:c r="C29" s="24" t="s">
-        <x:v>92</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D29" s="25"/>
     </x:row>
@@ -4235,7 +4237,7 @@
         <x:v>16959</x:v>
       </x:c>
       <x:c r="C30" s="24" t="s">
-        <x:v>69</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D30" s="25"/>
     </x:row>
@@ -4244,7 +4246,7 @@
         <x:v>16952</x:v>
       </x:c>
       <x:c r="C31" s="24" t="s">
-        <x:v>68</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D31" s="25"/>
     </x:row>
@@ -4253,7 +4255,7 @@
         <x:v>12851</x:v>
       </x:c>
       <x:c r="C32" s="24" t="s">
-        <x:v>176</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="D32" s="25"/>
     </x:row>
@@ -4262,7 +4264,7 @@
         <x:v>9328</x:v>
       </x:c>
       <x:c r="C33" s="24" t="s">
-        <x:v>96</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D33" s="25"/>
     </x:row>
@@ -4271,7 +4273,7 @@
         <x:v>16920</x:v>
       </x:c>
       <x:c r="C34" s="24" t="s">
-        <x:v>264</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="D34" s="25"/>
     </x:row>
@@ -4280,7 +4282,7 @@
         <x:v>15653</x:v>
       </x:c>
       <x:c r="C35" s="27" t="s">
-        <x:v>169</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="D35" s="25"/>
     </x:row>
@@ -4289,7 +4291,7 @@
         <x:v>15558</x:v>
       </x:c>
       <x:c r="C36" s="27" t="s">
-        <x:v>156</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D36" s="25"/>
     </x:row>
@@ -4298,7 +4300,7 @@
         <x:v>1385</x:v>
       </x:c>
       <x:c r="C37" s="27" t="s">
-        <x:v>94</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D37" s="25"/>
     </x:row>
@@ -4309,25 +4311,25 @@
     </x:row>
     <x:row r="39" spans="1:1" ht="26.25">
       <x:c r="A39" s="14" t="s">
-        <x:v>130</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="2:4" ht="20.25">
       <x:c r="B40" s="33" t="s">
-        <x:v>28</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C40" s="33"/>
       <x:c r="D40" s="33"/>
     </x:row>
     <x:row r="41" spans="2:4">
       <x:c r="B41" s="22" t="s">
-        <x:v>81</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C41" s="22" t="s">
-        <x:v>78</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D41" s="22" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="2:4">
@@ -4335,7 +4337,7 @@
         <x:v>1695</x:v>
       </x:c>
       <x:c r="C42" s="24" t="s">
-        <x:v>13</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D42" s="25"/>
     </x:row>
@@ -4344,7 +4346,7 @@
         <x:v>11049</x:v>
       </x:c>
       <x:c r="C43" s="24" t="s">
-        <x:v>0</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="D43" s="25"/>
     </x:row>
@@ -4353,7 +4355,7 @@
         <x:v>12969</x:v>
       </x:c>
       <x:c r="C44" s="24" t="s">
-        <x:v>111</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D44" s="25"/>
     </x:row>
@@ -4362,7 +4364,7 @@
         <x:v>14238</x:v>
       </x:c>
       <x:c r="C45" s="24" t="s">
-        <x:v>152</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="D45" s="25"/>
     </x:row>
@@ -4371,7 +4373,7 @@
         <x:v>12026</x:v>
       </x:c>
       <x:c r="C46" s="24" t="s">
-        <x:v>154</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="D46" s="25"/>
     </x:row>
@@ -4380,7 +4382,7 @@
         <x:v>12996</x:v>
       </x:c>
       <x:c r="C47" s="24" t="s">
-        <x:v>145</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D47" s="25"/>
     </x:row>
@@ -4389,7 +4391,7 @@
         <x:v>2281</x:v>
       </x:c>
       <x:c r="C48" s="24" t="s">
-        <x:v>151</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="D48" s="25"/>
     </x:row>
@@ -4398,7 +4400,7 @@
         <x:v>3012</x:v>
       </x:c>
       <x:c r="C49" s="24" t="s">
-        <x:v>63</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D49" s="25"/>
     </x:row>
@@ -4407,7 +4409,7 @@
         <x:v>2616</x:v>
       </x:c>
       <x:c r="C50" s="24" t="s">
-        <x:v>168</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="D50" s="25"/>
     </x:row>
@@ -4416,7 +4418,7 @@
         <x:v>1413</x:v>
       </x:c>
       <x:c r="C51" s="27" t="s">
-        <x:v>67</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D51" s="25"/>
     </x:row>
@@ -4425,7 +4427,7 @@
         <x:v>10564</x:v>
       </x:c>
       <x:c r="C52" s="27" t="s">
-        <x:v>160</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="D52" s="25"/>
     </x:row>
@@ -4434,7 +4436,7 @@
         <x:v>1970</x:v>
       </x:c>
       <x:c r="C53" s="27" t="s">
-        <x:v>89</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D53" s="25"/>
     </x:row>
@@ -4443,7 +4445,7 @@
         <x:v>2163</x:v>
       </x:c>
       <x:c r="C54" s="27" t="s">
-        <x:v>161</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D54" s="25"/>
     </x:row>
@@ -4452,31 +4454,31 @@
         <x:v>12872</x:v>
       </x:c>
       <x:c r="C55" s="27" t="s">
-        <x:v>163</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="D55" s="25"/>
     </x:row>
     <x:row r="57" spans="1:1" ht="26.25">
       <x:c r="A57" s="14" t="s">
-        <x:v>132</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="2:4" ht="20.25">
       <x:c r="B58" s="33" t="s">
-        <x:v>9</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C58" s="33"/>
       <x:c r="D58" s="33"/>
     </x:row>
     <x:row r="59" spans="2:4">
       <x:c r="B59" s="22" t="s">
-        <x:v>81</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C59" s="22" t="s">
-        <x:v>78</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D59" s="22" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="2:4">
@@ -4484,7 +4486,7 @@
         <x:v>1913</x:v>
       </x:c>
       <x:c r="C60" s="24" t="s">
-        <x:v>97</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D60" s="25"/>
     </x:row>
@@ -4493,7 +4495,7 @@
         <x:v>1952</x:v>
       </x:c>
       <x:c r="C61" s="24" t="s">
-        <x:v>174</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="D61" s="25"/>
     </x:row>
@@ -4502,7 +4504,7 @@
         <x:v>1959</x:v>
       </x:c>
       <x:c r="C62" s="24" t="s">
-        <x:v>153</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="D62" s="25"/>
     </x:row>
@@ -4511,7 +4513,7 @@
         <x:v>4577</x:v>
       </x:c>
       <x:c r="C63" s="24" t="s">
-        <x:v>103</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D63" s="25"/>
     </x:row>
@@ -4520,7 +4522,7 @@
         <x:v>2064</x:v>
       </x:c>
       <x:c r="C64" s="24" t="s">
-        <x:v>165</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D64" s="25"/>
     </x:row>
@@ -4529,7 +4531,7 @@
         <x:v>3107</x:v>
       </x:c>
       <x:c r="C65" s="24" t="s">
-        <x:v>164</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D65" s="25"/>
     </x:row>
@@ -4538,7 +4540,7 @@
         <x:v>2571</x:v>
       </x:c>
       <x:c r="C66" s="24" t="s">
-        <x:v>170</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="D66" s="25"/>
     </x:row>
@@ -4547,7 +4549,7 @@
         <x:v>1089</x:v>
       </x:c>
       <x:c r="C67" s="24" t="s">
-        <x:v>64</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D67" s="25"/>
     </x:row>
@@ -4556,7 +4558,7 @@
         <x:v>20056</x:v>
       </x:c>
       <x:c r="C68" s="24" t="s">
-        <x:v>137</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D68" s="25"/>
     </x:row>
@@ -4565,7 +4567,7 @@
         <x:v>20057</x:v>
       </x:c>
       <x:c r="C69" s="27" t="s">
-        <x:v>129</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D69" s="25"/>
     </x:row>
@@ -4574,7 +4576,7 @@
         <x:v>20058</x:v>
       </x:c>
       <x:c r="C70" s="27" t="s">
-        <x:v>142</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D70" s="25"/>
     </x:row>
@@ -4583,7 +4585,7 @@
         <x:v>5373</x:v>
       </x:c>
       <x:c r="C71" s="27" t="s">
-        <x:v>87</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D71" s="25"/>
     </x:row>

--- a/study_algo_record_date.xlsx
+++ b/study_algo_record_date.xlsx
@@ -23,232 +23,766 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="273">
   <x:si>
+    <x:t>2048 (Easy)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수학</x:t>
+  </x:si>
+  <x:si>
+    <x:t>퇴사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작업</x:t>
+  </x:si>
+  <x:si>
+    <x:t>큐</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈옥</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BFS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동물원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연구소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LCS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나머지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가르침</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연속합</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소코반</x:t>
+  </x:si>
+  <x:si>
+    <x:t>달팽이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배달</x:t>
+  </x:si>
+  <x:si>
+    <x:t>괄호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1학년</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성곽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>약수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>야구공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맞춰봐</x:t>
+  </x:si>
+  <x:si>
+    <x:t>열쇠</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로또</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벌집</x:t>
+  </x:si>
+  <x:si>
+    <x:t>건배</x:t>
+  </x:si>
+  <x:si>
+    <x:t>덱</x:t>
+  </x:si>
+  <x:si>
+    <x:t>번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>큐빙</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부등호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>낚시왕</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이친수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>감시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경사로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스도쿠</x:t>
+  </x:si>
+  <x:si>
+    <x:t>합분해</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4연산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부분합</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리모컨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>토마토</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체스판 여행 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연결 요소의 개수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N과 M (8)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N과 M (7)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브루트 포스 - 순열</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뱀과 사다리 게임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다리 만들기 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DFS와 BFS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. 그래프와 BFS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N과 M (3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박스 안의 열쇠</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스타트링크 타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수 이어 쓰기 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>골드바흐의 추측</x:t>
+  </x:si>
+  <x:si>
+    <x:t>올바른 괄호 문자열</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체스판 여행 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N과 M (4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DFS 스페셜 저지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2 x n 타일링</x:t>
+  </x:si>
+  <x:si>
     <x:t>카드 구매하기 2</x:t>
   </x:si>
   <x:si>
     <x:t>N과 M (5)</x:t>
   </x:si>
   <x:si>
+    <x:t>외판원 순회 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>새로운 하노이 탑</x:t>
+  </x:si>
+  <x:si>
+    <x:t>그래프 알고리즘</x:t>
+  </x:si>
+  <x:si>
     <x:t>2 x n 타일링 2</x:t>
   </x:si>
   <x:si>
-    <x:t>외판원 순회 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>새로운 하노이 탑</x:t>
-  </x:si>
-  <x:si>
-    <x:t>그래프 알고리즘</x:t>
-  </x:si>
-  <x:si>
     <x:t>움직이는 미로 탈출</x:t>
   </x:si>
   <x:si>
-    <x:t>DFS 스페셜 저지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2 x n 타일링</x:t>
-  </x:si>
-  <x:si>
     <x:t>브루트 포스 - 재귀</x:t>
   </x:si>
   <x:si>
+    <x:t>1, 2, 3 더하기</x:t>
+  </x:si>
+  <x:si>
     <x:t>말이 되고픈 원숭이</x:t>
   </x:si>
   <x:si>
     <x:t>벽 부수고 이동하기</x:t>
   </x:si>
   <x:si>
-    <x:t>1, 2, 3 더하기</x:t>
-  </x:si>
-  <x:si>
     <x:t>BFS 알고리즘</x:t>
   </x:si>
   <x:si>
-    <x:t>골드바흐의 추측</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4. 그래프와 BFS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N과 M (3)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뱀과 사다리 게임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>올바른 괄호 문자열</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N과 M (7)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박스 안의 열쇠</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스타트링크 타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수 이어 쓰기 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체스판 여행 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>브루트 포스 - 순열</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체스판 여행 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연결 요소의 개수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N과 M (8)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다리 만들기 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFS와 BFS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N과 M (4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부분합</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리모컨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>토마토</x:t>
-  </x:si>
-  <x:si>
-    <x:t>번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LCS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작업</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성곽</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ABC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>약수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수학</x:t>
-  </x:si>
-  <x:si>
-    <x:t>큐</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이친수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BFS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맞춰봐</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탈옥</x:t>
-  </x:si>
-  <x:si>
-    <x:t>열쇠</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벌집</x:t>
-  </x:si>
-  <x:si>
-    <x:t>덱</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동물원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소코반</x:t>
-  </x:si>
-  <x:si>
-    <x:t>달팽이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배달</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나머지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연구소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가르침</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연속합</x:t>
-  </x:si>
-  <x:si>
-    <x:t>큐빙</x:t>
-  </x:si>
-  <x:si>
-    <x:t>괄호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부등호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1학년</x:t>
-  </x:si>
-  <x:si>
-    <x:t>야구공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>낚시왕</x:t>
-  </x:si>
-  <x:si>
-    <x:t>건배</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로또</x:t>
-  </x:si>
-  <x:si>
-    <x:t>퇴사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4연산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경사로</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스도쿠</x:t>
-  </x:si>
-  <x:si>
-    <x:t>감시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>합분해</x:t>
+    <x:t>다이나믹 프로그래밍 Part 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baaaaaduk2(Easy)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이나믹 프로그래밍 Part 1</x:t>
   </x:si>
   <x:si>
     <x:t>가장 긴 증가하는 부분 수열 4</x:t>
   </x:si>
   <x:si>
-    <x:t>Baaaaaduk2(Easy)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이나믹 프로그래밍 Part 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이나믹 프로그래밍 Part 2</x:t>
+    <x:t>체스판 위의 공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파이프 옮기기 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정육면체 전개도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배열 돌리기 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시뮬레이션과 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브루트 포스 - 기타</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배열 돌리기 6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행렬 곱셈 순서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이나믹 프로그래밍</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공통 부분 문자열</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N과 M (6)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Two Dots</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부분수열의 합 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LCD Test</x:t>
+  </x:si>
+  <x:si>
+    <x:t>K번째 좋은 문자열</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배열 돌리기 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 그래프와 BFS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>새로운 게임 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계란으로 계란치기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한윤정이 이탈리아에…</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BFS 스페셜 저지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2x2x2 큐브</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maaaaaaze</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연산자 끼워넣기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>괄호 추가하기 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배열 돌리기 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차량 번호판 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이차원 배열과 연산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>십자가 2개 놓기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 브루트 포스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N과 M (1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배열 돌리기 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 브루트 포스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N과 M (2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NM과 K (1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서울 지하철 2호선</x:t>
+  </x:si>
+  <x:si>
+    <x:t>팰린드롬 만들기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로마 숫자 만들기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모노미노도미노 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파이프 옮기기 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미세먼지 안녕!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>양념 반 후라이드 반</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브루트 포스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>숨바꼭질</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연속합 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>약수의 합 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정수 삼각형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>푼 날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모든 순열</x:t>
+  </x:si>
+  <x:si>
+    <x:t>드래곤 커브</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오르막 수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소형기관차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사탕 게임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스타트와 링크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카잉 달력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다음 순열</x:t>
+  </x:si>
+  <x:si>
+    <x:t>색종이 - 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주사위 윷놀이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소수 구하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0과 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차이를 최대로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이모티콘</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주사위 굴리기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테트로미노</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이분 그래프</x:t>
+  </x:si>
+  <x:si>
+    <x:t>큐와 그래프</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구슬 탈출 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>암호 만들기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1로 만들기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포도주 시식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부분수열의 합</x:t>
+  </x:si>
+  <x:si>
+    <x:t>겉넓이 구하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이전 순열</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타일 채우기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나이트의 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배열 복원하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수들의 합 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>새로운 게임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>숨바꼭질 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>숨바꼭질 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스도미노쿠</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뮤탈리스크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알고스팟</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단어 수학</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제곱수의 합</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쉬운 계단 수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N-Queen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동전 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>육각 보드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RGB거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미로 탐색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>크리보드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로봇 청소기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>톱니바퀴(2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동전 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데스 나이트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에너지 모으기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아기 상어 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타리스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>두 배열의 합</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카드 구매하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인구 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>두 동전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>돌 그룹</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단지번호붙이기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABCDE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캠프 준비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>색종이 붙이기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아기 상어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구슬 탈출 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세 친구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연구소 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소수 경로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연구소 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스타트링크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>확장 게임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>팰린드롬?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원판 돌리기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파일 합치기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>청소년 상어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레벨 햄버거</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평범한 배낭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점프 점프</x:t>
+  </x:si>
+  <x:si>
+    <x:t>줄 세우기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저 통신</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이동하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어른 상어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>두 스티커</x:t>
+  </x:si>
+  <x:si>
+    <x:t>숫자 재배치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>텔레포트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>텔레포트 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LCS 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미로 탈출하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나무 재테크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적록색약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소수의 연속합</x:t>
+  </x:si>
+  <x:si>
+    <x:t>숫자판 점프</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카드 놓기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>두 배 더하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>출근 기록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>달팽이3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사다리 조작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐슬 디펜스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>초콜릿 자르기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점프 게임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게리맨더링 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데스노트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Acka</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BOJ 거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>숨바꼭질 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게리맨더링</x:t>
+  </x:si>
+  <x:si>
+    <x:t>플레이리스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등차수열 변환</x:t>
+  </x:si>
+  <x:si>
+    <x:t>직사각형 탈출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>팔굽혀펴기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나3곱2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>괄호 추가하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IP 주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배열 B의 값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소수 찾기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A -&gt; B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>치킨 배달</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일곱 난쟁이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>십자가 찾기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날짜 계산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>숨바꼭질 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 수학</x:t>
+  </x:si>
+  <x:si>
+    <x:t>달팽이2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>링크와 스타트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IPv6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브루트 포스 Part 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마법사 상어와 토네이도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매직 스퀘어로 변경하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가장 긴 감소하는 부분 수열</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컨베이어 벨트 n이의 로봇</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벽 부수고 이동하기 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. 다이나믹 프로그래밍</x:t>
   </x:si>
   <x:si>
     <x:t>벽 부수고 이동하기 2</x:t>
@@ -260,10 +794,7 @@
     <x:t>1, 2, 3 더하기 3</x:t>
   </x:si>
   <x:si>
-    <x:t>벽 부수고 이동하기 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>매직 스퀘어로 변경하기</x:t>
+    <x:t>1, 2, 3 더하기 4</x:t>
   </x:si>
   <x:si>
     <x:t>가장 긴 바이토닉 부분 수열</x:t>
@@ -272,574 +803,43 @@
     <x:t>1, 2, 3 더하기 5</x:t>
   </x:si>
   <x:si>
-    <x:t>컨베이어 벨트 n이의 로봇</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마법사 상어와 토네이도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1, 2, 3 더하기 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3. 다이나믹 프로그래밍</x:t>
-  </x:si>
-  <x:si>
-    <x:t>브루트 포스 Part 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가장 긴 감소하는 부분 수열</x:t>
-  </x:si>
-  <x:si>
     <x:t>벽 부수고 이동하기 4</x:t>
   </x:si>
   <x:si>
     <x:t>브루트 포스 - 비트마스크</x:t>
   </x:si>
   <x:si>
+    <x:t>4. 시뮬레이션과 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연산자 끼워넣기 (2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최대공약수와 최소공배수</x:t>
+  </x:si>
+  <x:si>
     <x:t>브루트 포스 Part 2</x:t>
   </x:si>
   <x:si>
     <x:t>마법사 상어와 파이어볼</x:t>
   </x:si>
   <x:si>
-    <x:t>4. 시뮬레이션과 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연산자 끼워넣기 (2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최대공약수와 최소공배수</x:t>
+    <x:t>1. 브루트 포스 연습</x:t>
   </x:si>
   <x:si>
     <x:t>브루트 포스 Part 3</x:t>
   </x:si>
   <x:si>
+    <x:t>가장 긴 증가하는 부분 수열</x:t>
+  </x:si>
+  <x:si>
     <x:t>브루트 포스 - N과 M</x:t>
   </x:si>
   <x:si>
+    <x:t>마법사 상어와 파이어스톰</x:t>
+  </x:si>
+  <x:si>
     <x:t>5. 시뮬레이션과 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마법사 상어와 파이어스톰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가장 긴 증가하는 부분 수열</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 브루트 포스 연습</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BFS 스페셜 저지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>괄호 추가하기 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>새로운 게임 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배열 돌리기 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계란으로 계란치기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한윤정이 이탈리아에…</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Maaaaaaze</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2x2x2 큐브</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연산자 끼워넣기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차량 번호판 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 그래프와 BFS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이차원 배열과 연산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>팰린드롬 만들기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배열 돌리기 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모노미노도미노 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로마 숫자 만들기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N과 M (2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NM과 K (1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 브루트 포스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서울 지하철 2호선</x:t>
-  </x:si>
-  <x:si>
-    <x:t>파이프 옮기기 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>십자가 2개 놓기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미세먼지 안녕!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>양념 반 후라이드 반</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 브루트 포스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N과 M (1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>파이프 옮기기 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이나믹 프로그래밍</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공통 부분 문자열</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N과 M (6)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Two Dots</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부분수열의 합 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정육면체 전개도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LCD Test</x:t>
-  </x:si>
-  <x:si>
-    <x:t>브루트 포스 - 기타</x:t>
-  </x:si>
-  <x:si>
-    <x:t>K번째 좋은 문자열</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배열 돌리기 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행렬 곱셈 순서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배열 돌리기 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체스판 위의 공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시뮬레이션과 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배열 돌리기 6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2048 (Easy)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>숨바꼭질 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BOJ 거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점프 게임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사다리 조작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게리맨더링</x:t>
-  </x:si>
-  <x:si>
-    <x:t>직사각형 탈출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐슬 디펜스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>팔굽혀펴기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>초콜릿 자르기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데스노트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>플레이리스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>달팽이3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게리맨더링 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등차수열 변환</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나3곱2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>괄호 추가하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>두 배 더하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Acka</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출근 기록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>치킨 배달</x:t>
-  </x:si>
-  <x:si>
-    <x:t>달팽이2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배열 B의 값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A -&gt; B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 수학</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일곱 난쟁이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날짜 계산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>십자가 찾기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>숨바꼭질 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>링크와 스타트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IPv6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IP 주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소수 찾기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소형기관차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이전 순열</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0과 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>암호 만들기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>색종이 - 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주사위 윷놀이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>약수의 합 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스타트와 링크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다음 순열</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소수 구하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사탕 게임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>브루트 포스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테트로미노</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1로 만들기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카잉 달력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차이를 최대로</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구슬 탈출 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모든 순열</x:t>
-  </x:si>
-  <x:si>
-    <x:t>푼 날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포도주 시식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부분수열의 합</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이모티콘</x:t>
-  </x:si>
-  <x:si>
-    <x:t>드래곤 커브</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정수 삼각형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오르막 수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연속합 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주사위 굴리기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이분 그래프</x:t>
-  </x:si>
-  <x:si>
-    <x:t>큐와 그래프</x:t>
-  </x:si>
-  <x:si>
-    <x:t>겉넓이 구하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타일 채우기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>숨바꼭질</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ABCDE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>톱니바퀴(2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단어 수학</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로봇 청소기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쉬운 계단 수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나이트의 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>두 동전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알고스팟</x:t>
-  </x:si>
-  <x:si>
-    <x:t>숨바꼭질 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N-Queen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미로 탐색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카드 구매하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>숨바꼭질 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배열 복원하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제곱수의 합</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단지번호붙이기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RGB거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에너지 모으기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스도미노쿠</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뮤탈리스크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수들의 합 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동전 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>크리보드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>두 배열의 합</x:t>
-  </x:si>
-  <x:si>
-    <x:t>육각 보드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동전 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데스 나이트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아기 상어 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인구 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타리스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>돌 그룹</x:t>
-  </x:si>
-  <x:si>
-    <x:t>새로운 게임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LCS 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점프 점프</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연구소 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소수 경로</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레벨 햄버거</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아기 상어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>파일 합치기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적록색약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나무 재테크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소수의 연속합</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원판 돌리기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연구소 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이동하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>청소년 상어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저 통신</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평범한 배낭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스타트링크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구슬 탈출 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>팰린드롬?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>줄 세우기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>숫자 재배치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>확장 게임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미로 탈출하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어른 상어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>숫자판 점프</x:t>
-  </x:si>
-  <x:si>
-    <x:t>두 스티커</x:t>
-  </x:si>
-  <x:si>
-    <x:t>텔레포트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>텔레포트 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카드 놓기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캠프 준비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>색종이 붙이기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세 친구</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1659,7 +1659,7 @@
   <x:dimension ref="A1:S86"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D30" activeCellId="0" sqref="D30:D30"/>
+      <x:selection activeCell="D31" activeCellId="0" sqref="D31:D31"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -1678,25 +1678,25 @@
   <x:sheetData>
     <x:row r="1" spans="1:1" ht="23.5">
       <x:c r="A1" s="14" t="s">
-        <x:v>168</x:v>
+        <x:v>243</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="2:4" ht="20.649999999999999">
       <x:c r="B2" s="29" t="s">
-        <x:v>41</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="30"/>
       <x:c r="D2" s="31"/>
     </x:row>
     <x:row r="3" spans="2:4">
       <x:c r="B3" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D3" s="2" t="s">
-        <x:v>195</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:4">
@@ -1704,7 +1704,7 @@
         <x:v>10430</x:v>
       </x:c>
       <x:c r="C4" s="4" t="s">
-        <x:v>54</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D4" s="28">
         <x:v>44508</x:v>
@@ -1726,7 +1726,7 @@
         <x:v>1037</x:v>
       </x:c>
       <x:c r="C6" s="4" t="s">
-        <x:v>40</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D6" s="28">
         <x:v>44516</x:v>
@@ -1737,7 +1737,7 @@
         <x:v>17427</x:v>
       </x:c>
       <x:c r="C7" s="4" t="s">
-        <x:v>183</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D7" s="28">
         <x:v>44519</x:v>
@@ -1748,7 +1748,7 @@
         <x:v>17425</x:v>
       </x:c>
       <x:c r="C8" s="4" t="s">
-        <x:v>183</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D8" s="28">
         <x:v>44519</x:v>
@@ -1759,7 +1759,7 @@
         <x:v>2609</x:v>
       </x:c>
       <x:c r="C9" s="4" t="s">
-        <x:v>95</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="D9" s="28">
         <x:v>44519</x:v>
@@ -1770,7 +1770,7 @@
         <x:v>1978</x:v>
       </x:c>
       <x:c r="C10" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="D10" s="28">
         <x:v>44519</x:v>
@@ -1781,7 +1781,7 @@
         <x:v>1929</x:v>
       </x:c>
       <x:c r="C11" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D11" s="28">
         <x:v>44519</x:v>
@@ -1792,7 +1792,7 @@
         <x:v>6588</x:v>
       </x:c>
       <x:c r="C12" s="4" t="s">
-        <x:v>14</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D12" s="28">
         <x:v>44520</x:v>
@@ -1808,53 +1808,53 @@
     </x:row>
     <x:row r="14" spans="1:1" ht="23.5">
       <x:c r="A14" s="14" t="s">
-        <x:v>126</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="2:12" ht="20.649999999999999">
       <x:c r="B15" s="29" t="s">
-        <x:v>188</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C15" s="30"/>
       <x:c r="D15" s="31"/>
       <x:c r="F15" s="29" t="s">
-        <x:v>97</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="G15" s="30"/>
       <x:c r="H15" s="31"/>
       <x:c r="J15" s="29" t="s">
-        <x:v>9</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="K15" s="30"/>
       <x:c r="L15" s="31"/>
     </x:row>
     <x:row r="16" spans="2:12">
       <x:c r="B16" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D16" s="2" t="s">
-        <x:v>195</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G16" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H16" s="2" t="s">
-        <x:v>195</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="J16" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K16" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="L16" s="2" t="s">
-        <x:v>195</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="2:12">
@@ -1862,7 +1862,7 @@
         <x:v>2309</x:v>
       </x:c>
       <x:c r="C17" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="D17" s="28">
         <x:v>44521</x:v>
@@ -1871,14 +1871,14 @@
         <x:v>15649</x:v>
       </x:c>
       <x:c r="G17" s="4" t="s">
-        <x:v>127</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="H17" s="5"/>
       <x:c r="J17" s="3">
         <x:v>9095</x:v>
       </x:c>
       <x:c r="K17" s="4" t="s">
-        <x:v>12</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="L17" s="28">
         <x:v>44533</x:v>
@@ -1889,7 +1889,7 @@
         <x:v>3085</x:v>
       </x:c>
       <x:c r="C18" s="4" t="s">
-        <x:v>187</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D18" s="28">
         <x:v>44525</x:v>
@@ -1898,14 +1898,14 @@
         <x:v>15650</x:v>
       </x:c>
       <x:c r="G18" s="4" t="s">
-        <x:v>118</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="H18" s="5"/>
       <x:c r="J18" s="3">
         <x:v>1759</x:v>
       </x:c>
       <x:c r="K18" s="4" t="s">
-        <x:v>180</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="L18" s="28">
         <x:v>44563</x:v>
@@ -1916,7 +1916,7 @@
         <x:v>1476</x:v>
       </x:c>
       <x:c r="C19" s="4" t="s">
-        <x:v>170</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="D19" s="28">
         <x:v>44526</x:v>
@@ -1925,14 +1925,14 @@
         <x:v>15651</x:v>
       </x:c>
       <x:c r="G19" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H19" s="5"/>
       <x:c r="J19" s="3">
         <x:v>14501</x:v>
       </x:c>
       <x:c r="K19" s="4" t="s">
-        <x:v>66</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="L19" s="28">
         <x:v>44564</x:v>
@@ -1943,21 +1943,21 @@
         <x:v>1107</x:v>
       </x:c>
       <x:c r="C20" s="4" t="s">
-        <x:v>33</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D20" s="5"/>
       <x:c r="F20" s="3">
         <x:v>15652</x:v>
       </x:c>
       <x:c r="G20" s="4" t="s">
-        <x:v>30</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H20" s="5"/>
       <x:c r="J20" s="3">
         <x:v>14889</x:v>
       </x:c>
       <x:c r="K20" s="4" t="s">
-        <x:v>184</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="L20" s="28"/>
     </x:row>
@@ -1966,7 +1966,7 @@
         <x:v>14500</x:v>
       </x:c>
       <x:c r="C21" s="4" t="s">
-        <x:v>189</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D21" s="28">
         <x:v>44532</x:v>
@@ -1975,14 +1975,14 @@
         <x:v>15654</x:v>
       </x:c>
       <x:c r="G21" s="4" t="s">
-        <x:v>1</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H21" s="5"/>
       <x:c r="J21" s="3">
         <x:v>15661</x:v>
       </x:c>
       <x:c r="K21" s="4" t="s">
-        <x:v>173</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="L21" s="28"/>
       <x:c r="M21" s="7"/>
@@ -1994,7 +1994,7 @@
         <x:v>6064</x:v>
       </x:c>
       <x:c r="C22" s="4" t="s">
-        <x:v>191</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="D22" s="28">
         <x:v>44531</x:v>
@@ -2003,14 +2003,14 @@
         <x:v>15655</x:v>
       </x:c>
       <x:c r="G22" s="4" t="s">
-        <x:v>131</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H22" s="5"/>
       <x:c r="J22" s="3">
         <x:v>2529</x:v>
       </x:c>
       <x:c r="K22" s="4" t="s">
-        <x:v>60</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L22" s="28">
         <x:v>44562</x:v>
@@ -2024,7 +2024,7 @@
         <x:v>1748</x:v>
       </x:c>
       <x:c r="C23" s="4" t="s">
-        <x:v>22</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D23" s="28">
         <x:v>44530</x:v>
@@ -2033,14 +2033,14 @@
         <x:v>15656</x:v>
       </x:c>
       <x:c r="G23" s="4" t="s">
-        <x:v>19</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H23" s="5"/>
       <x:c r="J23" s="3">
         <x:v>1248</x:v>
       </x:c>
       <x:c r="K23" s="4" t="s">
-        <x:v>45</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="L23" s="28"/>
       <x:c r="M23" s="9"/>
@@ -2055,7 +2055,7 @@
         <x:v>15657</x:v>
       </x:c>
       <x:c r="G24" s="4" t="s">
-        <x:v>27</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H24" s="5"/>
       <x:c r="J24" s="7"/>
@@ -2070,7 +2070,7 @@
         <x:v>18290</x:v>
       </x:c>
       <x:c r="G25" s="11" t="s">
-        <x:v>119</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="H25" s="5"/>
       <x:c r="J25" s="9"/>
@@ -2084,34 +2084,34 @@
     </x:row>
     <x:row r="27" spans="2:8" ht="20.649999999999999">
       <x:c r="B27" s="29" t="s">
-        <x:v>24</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C27" s="30"/>
       <x:c r="D27" s="31"/>
       <x:c r="F27" s="29" t="s">
-        <x:v>90</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="G27" s="30"/>
       <x:c r="H27" s="31"/>
     </x:row>
     <x:row r="28" spans="2:8">
       <x:c r="B28" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D28" s="2" t="s">
-        <x:v>195</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G28" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H28" s="2" t="s">
-        <x:v>195</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="2:8">
@@ -2119,7 +2119,7 @@
         <x:v>10972</x:v>
       </x:c>
       <x:c r="C29" s="4" t="s">
-        <x:v>185</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="D29" s="28">
         <x:v>44565</x:v>
@@ -2128,7 +2128,7 @@
         <x:v>11723</x:v>
       </x:c>
       <x:c r="G29" s="4" t="s">
-        <x:v>185</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="H29" s="5"/>
     </x:row>
@@ -2137,14 +2137,16 @@
         <x:v>10973</x:v>
       </x:c>
       <x:c r="C30" s="4" t="s">
-        <x:v>178</x:v>
-      </x:c>
-      <x:c r="D30" s="5"/>
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="D30" s="28">
+        <x:v>44566</x:v>
+      </x:c>
       <x:c r="F30" s="3">
         <x:v>1182</x:v>
       </x:c>
       <x:c r="G30" s="4" t="s">
-        <x:v>178</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="H30" s="5"/>
     </x:row>
@@ -2153,14 +2155,14 @@
         <x:v>10974</x:v>
       </x:c>
       <x:c r="C31" s="4" t="s">
-        <x:v>194</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D31" s="5"/>
       <x:c r="F31" s="3">
         <x:v>14889</x:v>
       </x:c>
       <x:c r="G31" s="4" t="s">
-        <x:v>194</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="H31" s="5"/>
     </x:row>
@@ -2169,14 +2171,14 @@
         <x:v>10819</x:v>
       </x:c>
       <x:c r="C32" s="4" t="s">
-        <x:v>192</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="D32" s="5"/>
       <x:c r="F32" s="3">
         <x:v>14391</x:v>
       </x:c>
       <x:c r="G32" s="4" t="s">
-        <x:v>192</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="H32" s="5"/>
     </x:row>
@@ -2185,7 +2187,7 @@
         <x:v>10971</x:v>
       </x:c>
       <x:c r="C33" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D33" s="5"/>
       <x:c r="F33" s="7"/>
@@ -2197,7 +2199,7 @@
         <x:v>6603</x:v>
       </x:c>
       <x:c r="C34" s="4" t="s">
-        <x:v>65</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D34" s="5"/>
       <x:c r="F34" s="7"/>
@@ -2206,39 +2208,39 @@
     </x:row>
     <x:row r="36" spans="1:1" ht="23.5">
       <x:c r="A36" s="14" t="s">
-        <x:v>86</x:v>
+        <x:v>253</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="2:8" ht="20.649999999999999">
       <x:c r="B37" s="29" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C37" s="30"/>
       <x:c r="D37" s="31"/>
       <x:c r="F37" s="29" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G37" s="30"/>
       <x:c r="H37" s="31"/>
     </x:row>
     <x:row r="38" spans="2:8">
       <x:c r="B38" s="15" t="s">
-        <x:v>35</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C38" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D38" s="2" t="s">
-        <x:v>195</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F38" s="15" t="s">
-        <x:v>35</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G38" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H38" s="2" t="s">
-        <x:v>195</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="2:8">
@@ -2246,14 +2248,14 @@
         <x:v>1463</x:v>
       </x:c>
       <x:c r="C39" s="4" t="s">
-        <x:v>190</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D39" s="5"/>
       <x:c r="F39" s="3">
         <x:v>15988</x:v>
       </x:c>
       <x:c r="G39" s="4" t="s">
-        <x:v>78</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="H39" s="5"/>
     </x:row>
@@ -2262,14 +2264,14 @@
         <x:v>11726</x:v>
       </x:c>
       <x:c r="C40" s="4" t="s">
-        <x:v>8</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D40" s="5"/>
       <x:c r="F40" s="3">
         <x:v>1149</x:v>
       </x:c>
       <x:c r="G40" s="4" t="s">
-        <x:v>225</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="H40" s="5"/>
     </x:row>
@@ -2278,14 +2280,14 @@
         <x:v>11727</x:v>
       </x:c>
       <x:c r="C41" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D41" s="5"/>
       <x:c r="F41" s="3">
         <x:v>1309</x:v>
       </x:c>
       <x:c r="G41" s="4" t="s">
-        <x:v>50</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H41" s="5"/>
     </x:row>
@@ -2294,14 +2296,14 @@
         <x:v>9095</x:v>
       </x:c>
       <x:c r="C42" s="4" t="s">
-        <x:v>12</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D42" s="5"/>
       <x:c r="F42" s="3">
         <x:v>11057</x:v>
       </x:c>
       <x:c r="G42" s="4" t="s">
-        <x:v>201</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="H42" s="5"/>
     </x:row>
@@ -2310,14 +2312,14 @@
         <x:v>11052</x:v>
       </x:c>
       <x:c r="C43" s="4" t="s">
-        <x:v>220</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="D43" s="5"/>
       <x:c r="F43" s="3">
         <x:v>2156</x:v>
       </x:c>
       <x:c r="G43" s="4" t="s">
-        <x:v>196</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="H43" s="5"/>
     </x:row>
@@ -2326,14 +2328,14 @@
         <x:v>16194</x:v>
       </x:c>
       <x:c r="C44" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D44" s="5"/>
       <x:c r="F44" s="3">
         <x:v>1932</x:v>
       </x:c>
       <x:c r="G44" s="4" t="s">
-        <x:v>200</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="H44" s="5"/>
     </x:row>
@@ -2342,14 +2344,14 @@
         <x:v>15990</x:v>
       </x:c>
       <x:c r="C45" s="4" t="s">
-        <x:v>82</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="D45" s="5"/>
       <x:c r="F45" s="3">
         <x:v>11055</x:v>
       </x:c>
       <x:c r="G45" s="4" t="s">
-        <x:v>77</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="H45" s="5"/>
     </x:row>
@@ -2358,14 +2360,14 @@
         <x:v>10844</x:v>
       </x:c>
       <x:c r="C46" s="4" t="s">
-        <x:v>213</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D46" s="5"/>
       <x:c r="F46" s="3">
         <x:v>11722</x:v>
       </x:c>
       <x:c r="G46" s="4" t="s">
-        <x:v>88</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="H46" s="5"/>
     </x:row>
@@ -2374,14 +2376,14 @@
         <x:v>2193</x:v>
       </x:c>
       <x:c r="C47" s="11" t="s">
-        <x:v>43</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D47" s="5"/>
       <x:c r="F47" s="10">
         <x:v>11054</x:v>
       </x:c>
       <x:c r="G47" s="11" t="s">
-        <x:v>81</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="H47" s="5"/>
     </x:row>
@@ -2390,14 +2392,14 @@
         <x:v>11053</x:v>
       </x:c>
       <x:c r="C48" s="11" t="s">
-        <x:v>100</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="D48" s="5"/>
       <x:c r="F48" s="10">
         <x:v>13398</x:v>
       </x:c>
       <x:c r="G48" s="11" t="s">
-        <x:v>202</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="H48" s="5"/>
     </x:row>
@@ -2406,14 +2408,14 @@
         <x:v>14002</x:v>
       </x:c>
       <x:c r="C49" s="11" t="s">
-        <x:v>72</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D49" s="5"/>
       <x:c r="F49" s="10">
         <x:v>2133</x:v>
       </x:c>
       <x:c r="G49" s="11" t="s">
-        <x:v>207</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="H49" s="5"/>
     </x:row>
@@ -2422,7 +2424,7 @@
         <x:v>1912</x:v>
       </x:c>
       <x:c r="C50" s="11" t="s">
-        <x:v>57</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D50" s="5"/>
       <x:c r="F50" s="9"/>
@@ -2434,7 +2436,7 @@
         <x:v>1699</x:v>
       </x:c>
       <x:c r="C51" s="11" t="s">
-        <x:v>223</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D51" s="5"/>
       <x:c r="F51" s="9"/>
@@ -2446,7 +2448,7 @@
         <x:v>14501</x:v>
       </x:c>
       <x:c r="C52" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D52" s="5"/>
       <x:c r="F52" s="9"/>
@@ -2458,7 +2460,7 @@
         <x:v>2225</x:v>
       </x:c>
       <x:c r="C53" s="11" t="s">
-        <x:v>71</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D53" s="5"/>
       <x:c r="F53" s="9"/>
@@ -2467,39 +2469,39 @@
     </x:row>
     <x:row r="55" spans="1:1" ht="23.5">
       <x:c r="A55" s="14" t="s">
-        <x:v>15</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="2:8" ht="20.649999999999999">
       <x:c r="B56" s="29" t="s">
-        <x:v>205</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C56" s="30"/>
       <x:c r="D56" s="31"/>
       <x:c r="F56" s="29" t="s">
-        <x:v>44</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G56" s="30"/>
       <x:c r="H56" s="31"/>
     </x:row>
     <x:row r="57" spans="2:8">
       <x:c r="B57" s="15" t="s">
-        <x:v>35</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C57" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D57" s="2" t="s">
-        <x:v>195</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F57" s="15" t="s">
-        <x:v>35</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G57" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H57" s="2" t="s">
-        <x:v>195</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="2:8">
@@ -2507,14 +2509,14 @@
         <x:v>10845</x:v>
       </x:c>
       <x:c r="C58" s="4" t="s">
-        <x:v>42</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D58" s="5"/>
       <x:c r="F58" s="3">
         <x:v>1697</x:v>
       </x:c>
       <x:c r="G58" s="4" t="s">
-        <x:v>208</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="H58" s="5"/>
     </x:row>
@@ -2523,14 +2525,14 @@
         <x:v>10866</x:v>
       </x:c>
       <x:c r="C59" s="4" t="s">
-        <x:v>49</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D59" s="5"/>
       <x:c r="F59" s="3">
         <x:v>13913</x:v>
       </x:c>
       <x:c r="G59" s="4" t="s">
-        <x:v>221</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="H59" s="5"/>
     </x:row>
@@ -2539,14 +2541,14 @@
         <x:v>13023</x:v>
       </x:c>
       <x:c r="C60" s="4" t="s">
-        <x:v>209</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="D60" s="5"/>
       <x:c r="F60" s="3">
         <x:v>14226</x:v>
       </x:c>
       <x:c r="G60" s="4" t="s">
-        <x:v>198</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="H60" s="5"/>
     </x:row>
@@ -2555,14 +2557,14 @@
         <x:v>1260</x:v>
       </x:c>
       <x:c r="C61" s="4" t="s">
-        <x:v>29</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D61" s="5"/>
       <x:c r="F61" s="3">
         <x:v>13549</x:v>
       </x:c>
       <x:c r="G61" s="4" t="s">
-        <x:v>217</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="H61" s="5"/>
     </x:row>
@@ -2571,14 +2573,14 @@
         <x:v>11724</x:v>
       </x:c>
       <x:c r="C62" s="4" t="s">
-        <x:v>26</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D62" s="5"/>
       <x:c r="F62" s="3">
         <x:v>1261</x:v>
       </x:c>
       <x:c r="G62" s="4" t="s">
-        <x:v>216</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="H62" s="5"/>
     </x:row>
@@ -2587,7 +2589,7 @@
         <x:v>1707</x:v>
       </x:c>
       <x:c r="C63" s="4" t="s">
-        <x:v>204</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D63" s="5"/>
       <x:c r="F63" s="7"/>
@@ -2599,7 +2601,7 @@
         <x:v>2667</x:v>
       </x:c>
       <x:c r="C64" s="4" t="s">
-        <x:v>224</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="D64" s="5"/>
       <x:c r="F64" s="7"/>
@@ -2611,7 +2613,7 @@
         <x:v>2178</x:v>
       </x:c>
       <x:c r="C65" s="4" t="s">
-        <x:v>219</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D65" s="5"/>
       <x:c r="F65" s="7"/>
@@ -2623,7 +2625,7 @@
         <x:v>7576</x:v>
       </x:c>
       <x:c r="C66" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D66" s="5"/>
       <x:c r="F66" s="9"/>
@@ -2635,7 +2637,7 @@
         <x:v>7562</x:v>
       </x:c>
       <x:c r="C67" s="11" t="s">
-        <x:v>214</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D67" s="5"/>
       <x:c r="F67" s="9"/>
@@ -2649,25 +2651,25 @@
     </x:row>
     <x:row r="69" spans="1:1" ht="23.5">
       <x:c r="A69" s="14" t="s">
-        <x:v>98</x:v>
+        <x:v>272</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="2:4" ht="20.649999999999999">
       <x:c r="B70" s="29" t="s">
-        <x:v>142</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C70" s="30"/>
       <x:c r="D70" s="31"/>
     </x:row>
     <x:row r="71" spans="2:4">
       <x:c r="B71" s="15" t="s">
-        <x:v>35</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C71" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D71" s="2" t="s">
-        <x:v>195</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="2:4">
@@ -2675,7 +2677,7 @@
         <x:v>16935</x:v>
       </x:c>
       <x:c r="C72" s="4" t="s">
-        <x:v>140</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D72" s="5"/>
     </x:row>
@@ -2684,7 +2686,7 @@
         <x:v>16926</x:v>
       </x:c>
       <x:c r="C73" s="4" t="s">
-        <x:v>138</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D73" s="5"/>
     </x:row>
@@ -2693,7 +2695,7 @@
         <x:v>16927</x:v>
       </x:c>
       <x:c r="C74" s="4" t="s">
-        <x:v>105</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D74" s="5"/>
     </x:row>
@@ -2702,7 +2704,7 @@
         <x:v>14499</x:v>
       </x:c>
       <x:c r="C75" s="4" t="s">
-        <x:v>203</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="D75" s="5"/>
     </x:row>
@@ -2711,7 +2713,7 @@
         <x:v>14890</x:v>
       </x:c>
       <x:c r="C76" s="4" t="s">
-        <x:v>68</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D76" s="5"/>
     </x:row>
@@ -2720,7 +2722,7 @@
         <x:v>15662</x:v>
       </x:c>
       <x:c r="C77" s="4" t="s">
-        <x:v>210</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D77" s="5"/>
     </x:row>
@@ -2729,7 +2731,7 @@
         <x:v>14503</x:v>
       </x:c>
       <x:c r="C78" s="4" t="s">
-        <x:v>212</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D78" s="5"/>
     </x:row>
@@ -2738,7 +2740,7 @@
         <x:v>14890</x:v>
       </x:c>
       <x:c r="C79" s="4" t="s">
-        <x:v>68</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D79" s="5"/>
     </x:row>
@@ -2747,7 +2749,7 @@
         <x:v>15685</x:v>
       </x:c>
       <x:c r="C80" s="11" t="s">
-        <x:v>199</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D80" s="5"/>
     </x:row>
@@ -2756,7 +2758,7 @@
         <x:v>2290</x:v>
       </x:c>
       <x:c r="C81" s="11" t="s">
-        <x:v>135</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D81" s="5"/>
     </x:row>
@@ -2765,7 +2767,7 @@
         <x:v>16931</x:v>
       </x:c>
       <x:c r="C82" s="11" t="s">
-        <x:v>206</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D82" s="5"/>
     </x:row>
@@ -2774,7 +2776,7 @@
         <x:v>1917</x:v>
       </x:c>
       <x:c r="C83" s="11" t="s">
-        <x:v>134</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D83" s="5"/>
     </x:row>
@@ -2783,7 +2785,7 @@
         <x:v>16967</x:v>
       </x:c>
       <x:c r="C84" s="11" t="s">
-        <x:v>222</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="D84" s="5"/>
     </x:row>
@@ -2792,7 +2794,7 @@
         <x:v>20327</x:v>
       </x:c>
       <x:c r="C85" s="11" t="s">
-        <x:v>143</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D85" s="5"/>
     </x:row>
@@ -2801,7 +2803,7 @@
         <x:v>20055</x:v>
       </x:c>
       <x:c r="C86" s="11" t="s">
-        <x:v>83</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="D86" s="5"/>
     </x:row>
@@ -2841,39 +2843,39 @@
   <x:sheetData>
     <x:row r="1" spans="1:1" ht="26.25">
       <x:c r="A1" s="14" t="s">
-        <x:v>101</x:v>
+        <x:v>267</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="2:8" ht="20.25">
       <x:c r="B2" s="32" t="s">
-        <x:v>9</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C2" s="32"/>
       <x:c r="D2" s="32"/>
       <x:c r="F2" s="32" t="s">
-        <x:v>136</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G2" s="32"/>
       <x:c r="H2" s="32"/>
     </x:row>
     <x:row r="3" spans="2:8">
       <x:c r="B3" s="16" t="s">
-        <x:v>35</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C3" s="16" t="s">
-        <x:v>32</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D3" s="16" t="s">
-        <x:v>195</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F3" s="16" t="s">
-        <x:v>35</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G3" s="16" t="s">
-        <x:v>32</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H3" s="16" t="s">
-        <x:v>195</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:8">
@@ -2881,14 +2883,14 @@
         <x:v>6603</x:v>
       </x:c>
       <x:c r="C4" s="18" t="s">
-        <x:v>65</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D4" s="19"/>
       <x:c r="F4" s="17">
         <x:v>2003</x:v>
       </x:c>
       <x:c r="G4" s="18" t="s">
-        <x:v>229</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="H4" s="19"/>
     </x:row>
@@ -2897,14 +2899,14 @@
         <x:v>1182</x:v>
       </x:c>
       <x:c r="C5" s="18" t="s">
-        <x:v>197</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D5" s="19"/>
       <x:c r="F5" s="17">
         <x:v>1806</x:v>
       </x:c>
       <x:c r="G5" s="18" t="s">
-        <x:v>31</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H5" s="19"/>
     </x:row>
@@ -2913,14 +2915,14 @@
         <x:v>14225</x:v>
       </x:c>
       <x:c r="C6" s="18" t="s">
-        <x:v>197</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D6" s="19"/>
       <x:c r="F6" s="17">
         <x:v>1644</x:v>
       </x:c>
       <x:c r="G6" s="18" t="s">
-        <x:v>250</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="H6" s="19"/>
     </x:row>
@@ -2929,14 +2931,14 @@
         <x:v>14888</x:v>
       </x:c>
       <x:c r="C7" s="18" t="s">
-        <x:v>110</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D7" s="19"/>
       <x:c r="F7" s="17">
         <x:v>1208</x:v>
       </x:c>
       <x:c r="G7" s="18" t="s">
-        <x:v>133</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H7" s="19"/>
     </x:row>
@@ -2945,14 +2947,14 @@
         <x:v>15658</x:v>
       </x:c>
       <x:c r="C8" s="18" t="s">
-        <x:v>94</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="D8" s="19"/>
       <x:c r="F8" s="20">
         <x:v>2143</x:v>
       </x:c>
       <x:c r="G8" s="21" t="s">
-        <x:v>232</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="H8" s="19"/>
     </x:row>
@@ -2961,7 +2963,7 @@
         <x:v>14500</x:v>
       </x:c>
       <x:c r="C9" s="18" t="s">
-        <x:v>189</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D9" s="19"/>
     </x:row>
@@ -2970,7 +2972,7 @@
         <x:v>16197</x:v>
       </x:c>
       <x:c r="C10" s="18" t="s">
-        <x:v>215</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="D10" s="19"/>
     </x:row>
@@ -2979,7 +2981,7 @@
         <x:v>16198</x:v>
       </x:c>
       <x:c r="C11" s="18" t="s">
-        <x:v>226</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D11" s="19"/>
     </x:row>
@@ -2988,7 +2990,7 @@
         <x:v>9663</x:v>
       </x:c>
       <x:c r="C12" s="18" t="s">
-        <x:v>218</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="D12" s="19"/>
     </x:row>
@@ -2997,7 +2999,7 @@
         <x:v>2580</x:v>
       </x:c>
       <x:c r="C13" s="21" t="s">
-        <x:v>69</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D13" s="19"/>
     </x:row>
@@ -3006,40 +3008,40 @@
         <x:v>4574</x:v>
       </x:c>
       <x:c r="C14" s="21" t="s">
-        <x:v>227</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D14" s="19"/>
     </x:row>
     <x:row r="16" spans="2:8" ht="20.25">
       <x:c r="B16" s="32" t="s">
-        <x:v>90</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="C16" s="32"/>
       <x:c r="D16" s="32"/>
       <x:c r="F16" s="32" t="s">
-        <x:v>24</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G16" s="32"/>
       <x:c r="H16" s="32"/>
     </x:row>
     <x:row r="17" spans="2:8">
       <x:c r="B17" s="16" t="s">
-        <x:v>35</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C17" s="16" t="s">
-        <x:v>32</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D17" s="16" t="s">
-        <x:v>195</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F17" s="16" t="s">
-        <x:v>35</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G17" s="16" t="s">
-        <x:v>32</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H17" s="16" t="s">
-        <x:v>195</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="2:8">
@@ -3047,14 +3049,14 @@
         <x:v>14225</x:v>
       </x:c>
       <x:c r="C18" s="18" t="s">
-        <x:v>197</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D18" s="19"/>
       <x:c r="F18" s="17">
         <x:v>2529</x:v>
       </x:c>
       <x:c r="G18" s="18" t="s">
-        <x:v>60</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H18" s="19"/>
     </x:row>
@@ -3063,14 +3065,14 @@
         <x:v>1062</x:v>
       </x:c>
       <x:c r="C19" s="18" t="s">
-        <x:v>56</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D19" s="19"/>
       <x:c r="F19" s="17">
         <x:v>1339</x:v>
       </x:c>
       <x:c r="G19" s="18" t="s">
-        <x:v>211</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="H19" s="19"/>
     </x:row>
@@ -3079,14 +3081,14 @@
         <x:v>13460</x:v>
       </x:c>
       <x:c r="C20" s="18" t="s">
-        <x:v>258</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="D20" s="19"/>
       <x:c r="F20" s="17">
         <x:v>14888</x:v>
       </x:c>
       <x:c r="G20" s="18" t="s">
-        <x:v>110</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="H20" s="19"/>
     </x:row>
@@ -3095,52 +3097,52 @@
         <x:v>12100</x:v>
       </x:c>
       <x:c r="C21" s="18" t="s">
-        <x:v>144</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D21" s="19"/>
       <x:c r="F21" s="17">
         <x:v>14889</x:v>
       </x:c>
       <x:c r="G21" s="18" t="s">
-        <x:v>184</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="H21" s="19"/>
     </x:row>
     <x:row r="23" spans="1:1" ht="26.25">
       <x:c r="A23" s="14" t="s">
-        <x:v>112</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="2:8" ht="20.25">
       <x:c r="B24" s="32" t="s">
-        <x:v>13</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C24" s="32"/>
       <x:c r="D24" s="32"/>
       <x:c r="F24" s="32" t="s">
-        <x:v>5</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G24" s="32"/>
       <x:c r="H24" s="32"/>
     </x:row>
     <x:row r="25" spans="2:8">
       <x:c r="B25" s="16" t="s">
-        <x:v>35</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C25" s="16" t="s">
-        <x:v>32</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D25" s="16" t="s">
-        <x:v>195</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F25" s="16" t="s">
-        <x:v>35</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G25" s="16" t="s">
-        <x:v>32</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H25" s="16" t="s">
-        <x:v>195</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="2:8">
@@ -3148,14 +3150,14 @@
         <x:v>16928</x:v>
       </x:c>
       <x:c r="C26" s="18" t="s">
-        <x:v>17</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D26" s="19"/>
       <x:c r="F26" s="17">
         <x:v>16929</x:v>
       </x:c>
       <x:c r="G26" s="18" t="s">
-        <x:v>132</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H26" s="19"/>
     </x:row>
@@ -3164,14 +3166,14 @@
         <x:v>16948</x:v>
       </x:c>
       <x:c r="C27" s="18" t="s">
-        <x:v>235</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="D27" s="19"/>
       <x:c r="F27" s="17">
         <x:v>16947</x:v>
       </x:c>
       <x:c r="G27" s="18" t="s">
-        <x:v>121</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="H27" s="19"/>
     </x:row>
@@ -3180,14 +3182,14 @@
         <x:v>14502</x:v>
       </x:c>
       <x:c r="C28" s="18" t="s">
-        <x:v>55</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D28" s="19"/>
       <x:c r="F28" s="17">
         <x:v>12946</x:v>
       </x:c>
       <x:c r="G28" s="18" t="s">
-        <x:v>233</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="H28" s="19"/>
     </x:row>
@@ -3196,14 +3198,14 @@
         <x:v>12886</x:v>
       </x:c>
       <x:c r="C29" s="18" t="s">
-        <x:v>239</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="D29" s="19"/>
       <x:c r="F29" s="17">
         <x:v>16940</x:v>
       </x:c>
       <x:c r="G29" s="18" t="s">
-        <x:v>102</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="H29" s="19"/>
     </x:row>
@@ -3212,14 +3214,14 @@
         <x:v>2206</x:v>
       </x:c>
       <x:c r="C30" s="18" t="s">
-        <x:v>11</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D30" s="19"/>
       <x:c r="F30" s="20">
         <x:v>16964</x:v>
       </x:c>
       <x:c r="G30" s="21" t="s">
-        <x:v>7</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H30" s="19"/>
     </x:row>
@@ -3228,7 +3230,7 @@
         <x:v>16946</x:v>
       </x:c>
       <x:c r="C31" s="18" t="s">
-        <x:v>89</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="D31" s="19"/>
     </x:row>
@@ -3237,7 +3239,7 @@
         <x:v>14442</x:v>
       </x:c>
       <x:c r="C32" s="18" t="s">
-        <x:v>76</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="D32" s="19"/>
     </x:row>
@@ -3246,7 +3248,7 @@
         <x:v>16933</x:v>
       </x:c>
       <x:c r="C33" s="18" t="s">
-        <x:v>79</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="D33" s="19"/>
     </x:row>
@@ -3255,7 +3257,7 @@
         <x:v>16954</x:v>
       </x:c>
       <x:c r="C34" s="18" t="s">
-        <x:v>6</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D34" s="19"/>
     </x:row>
@@ -3264,7 +3266,7 @@
         <x:v>16236</x:v>
       </x:c>
       <x:c r="C35" s="21" t="s">
-        <x:v>246</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D35" s="19"/>
     </x:row>
@@ -3273,7 +3275,7 @@
         <x:v>6087</x:v>
       </x:c>
       <x:c r="C36" s="21" t="s">
-        <x:v>255</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="D36" s="19"/>
     </x:row>
@@ -3282,7 +3284,7 @@
         <x:v>1963</x:v>
       </x:c>
       <x:c r="C37" s="21" t="s">
-        <x:v>244</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="D37" s="19"/>
     </x:row>
@@ -3291,7 +3293,7 @@
         <x:v>10026</x:v>
       </x:c>
       <x:c r="C38" s="21" t="s">
-        <x:v>248</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="D38" s="19"/>
     </x:row>
@@ -3300,7 +3302,7 @@
         <x:v>14395</x:v>
       </x:c>
       <x:c r="C39" s="21" t="s">
-        <x:v>67</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D39" s="19"/>
     </x:row>
@@ -3309,7 +3311,7 @@
         <x:v>5014</x:v>
       </x:c>
       <x:c r="C40" s="21" t="s">
-        <x:v>257</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="D40" s="19"/>
     </x:row>
@@ -3318,7 +3320,7 @@
         <x:v>9376</x:v>
       </x:c>
       <x:c r="C41" s="21" t="s">
-        <x:v>46</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D41" s="19"/>
     </x:row>
@@ -3327,7 +3329,7 @@
         <x:v>1600</x:v>
       </x:c>
       <x:c r="C42" s="21" t="s">
-        <x:v>10</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D42" s="19"/>
     </x:row>
@@ -3336,7 +3338,7 @@
         <x:v>17086</x:v>
       </x:c>
       <x:c r="C43" s="21" t="s">
-        <x:v>236</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D43" s="19"/>
     </x:row>
@@ -3345,7 +3347,7 @@
         <x:v>4991</x:v>
       </x:c>
       <x:c r="C44" s="21" t="s">
-        <x:v>212</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D44" s="19"/>
     </x:row>
@@ -3354,7 +3356,7 @@
         <x:v>2234</x:v>
       </x:c>
       <x:c r="C45" s="21" t="s">
-        <x:v>38</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D45" s="19"/>
     </x:row>
@@ -3363,7 +3365,7 @@
         <x:v>12906</x:v>
       </x:c>
       <x:c r="C46" s="21" t="s">
-        <x:v>4</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D46" s="19"/>
     </x:row>
@@ -3372,7 +3374,7 @@
         <x:v>17141</x:v>
       </x:c>
       <x:c r="C47" s="21" t="s">
-        <x:v>252</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="D47" s="19"/>
     </x:row>
@@ -3381,31 +3383,31 @@
         <x:v>17142</x:v>
       </x:c>
       <x:c r="C48" s="21" t="s">
-        <x:v>243</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D48" s="19"/>
     </x:row>
     <x:row r="50" spans="1:1" ht="26.25">
       <x:c r="A50" s="14" t="s">
-        <x:v>86</x:v>
+        <x:v>253</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="2:4" ht="20.25">
       <x:c r="B51" s="32" t="s">
-        <x:v>129</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C51" s="32"/>
       <x:c r="D51" s="32"/>
     </x:row>
     <x:row r="52" spans="2:4">
       <x:c r="B52" s="16" t="s">
-        <x:v>35</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C52" s="16" t="s">
-        <x:v>32</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D52" s="16" t="s">
-        <x:v>195</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="2:4">
@@ -3413,7 +3415,7 @@
         <x:v>11048</x:v>
       </x:c>
       <x:c r="C53" s="18" t="s">
-        <x:v>253</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="D53" s="19"/>
     </x:row>
@@ -3422,7 +3424,7 @@
         <x:v>11060</x:v>
       </x:c>
       <x:c r="C54" s="18" t="s">
-        <x:v>242</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="D54" s="19"/>
     </x:row>
@@ -3431,7 +3433,7 @@
         <x:v>10942</x:v>
       </x:c>
       <x:c r="C55" s="18" t="s">
-        <x:v>259</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="D55" s="19"/>
     </x:row>
@@ -3440,7 +3442,7 @@
         <x:v>15989</x:v>
       </x:c>
       <x:c r="C56" s="18" t="s">
-        <x:v>85</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="D56" s="19"/>
     </x:row>
@@ -3449,7 +3451,7 @@
         <x:v>11066</x:v>
       </x:c>
       <x:c r="C57" s="18" t="s">
-        <x:v>247</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="D57" s="19"/>
     </x:row>
@@ -3458,7 +3460,7 @@
         <x:v>12865</x:v>
       </x:c>
       <x:c r="C58" s="18" t="s">
-        <x:v>256</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="D58" s="19"/>
     </x:row>
@@ -3467,7 +3469,7 @@
         <x:v>1495</x:v>
       </x:c>
       <x:c r="C59" s="18" t="s">
-        <x:v>238</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D59" s="19"/>
     </x:row>
@@ -3476,7 +3478,7 @@
         <x:v>12869</x:v>
       </x:c>
       <x:c r="C60" s="18" t="s">
-        <x:v>228</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="D60" s="19"/>
     </x:row>
@@ -3485,7 +3487,7 @@
         <x:v>10422</x:v>
       </x:c>
       <x:c r="C61" s="18" t="s">
-        <x:v>59</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D61" s="19"/>
     </x:row>
@@ -3494,7 +3496,7 @@
         <x:v>2293</x:v>
       </x:c>
       <x:c r="C62" s="21" t="s">
-        <x:v>234</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="D62" s="19"/>
     </x:row>
@@ -3503,7 +3505,7 @@
         <x:v>2294</x:v>
       </x:c>
       <x:c r="C63" s="21" t="s">
-        <x:v>230</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="D63" s="19"/>
     </x:row>
@@ -3512,7 +3514,7 @@
         <x:v>11058</x:v>
       </x:c>
       <x:c r="C64" s="21" t="s">
-        <x:v>231</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D64" s="19"/>
     </x:row>
@@ -3521,7 +3523,7 @@
         <x:v>9251</x:v>
       </x:c>
       <x:c r="C65" s="21" t="s">
-        <x:v>36</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D65" s="19"/>
     </x:row>
@@ -3530,7 +3532,7 @@
         <x:v>9252</x:v>
       </x:c>
       <x:c r="C66" s="21" t="s">
-        <x:v>241</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="D66" s="19"/>
     </x:row>
@@ -3539,7 +3541,7 @@
         <x:v>5582</x:v>
       </x:c>
       <x:c r="C67" s="21" t="s">
-        <x:v>130</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D67" s="19"/>
     </x:row>
@@ -3548,7 +3550,7 @@
         <x:v>5557</x:v>
       </x:c>
       <x:c r="C68" s="21" t="s">
-        <x:v>61</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D68" s="19"/>
     </x:row>
@@ -3559,25 +3561,25 @@
     </x:row>
     <x:row r="70" spans="1:1" ht="26.25">
       <x:c r="A70" s="14" t="s">
-        <x:v>93</x:v>
+        <x:v>262</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="2:4" ht="20.25">
       <x:c r="B71" s="32" t="s">
-        <x:v>129</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C71" s="32"/>
       <x:c r="D71" s="32"/>
     </x:row>
     <x:row r="72" spans="2:4">
       <x:c r="B72" s="16" t="s">
-        <x:v>35</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C72" s="16" t="s">
-        <x:v>32</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D72" s="16" t="s">
-        <x:v>195</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="2:4">
@@ -3585,7 +3587,7 @@
         <x:v>16234</x:v>
       </x:c>
       <x:c r="C73" s="18" t="s">
-        <x:v>237</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="D73" s="19"/>
     </x:row>
@@ -3594,7 +3596,7 @@
         <x:v>16235</x:v>
       </x:c>
       <x:c r="C74" s="18" t="s">
-        <x:v>249</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="D74" s="19"/>
     </x:row>
@@ -3603,7 +3605,7 @@
         <x:v>17144</x:v>
       </x:c>
       <x:c r="C75" s="18" t="s">
-        <x:v>124</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D75" s="19"/>
     </x:row>
@@ -3612,7 +3614,7 @@
         <x:v>17143</x:v>
       </x:c>
       <x:c r="C76" s="18" t="s">
-        <x:v>63</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D76" s="19"/>
     </x:row>
@@ -3621,7 +3623,7 @@
         <x:v>17140</x:v>
       </x:c>
       <x:c r="C77" s="18" t="s">
-        <x:v>113</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D77" s="19"/>
     </x:row>
@@ -3630,7 +3632,7 @@
         <x:v>17780</x:v>
       </x:c>
       <x:c r="C78" s="18" t="s">
-        <x:v>240</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="D78" s="19"/>
     </x:row>
@@ -3639,7 +3641,7 @@
         <x:v>17837</x:v>
       </x:c>
       <x:c r="C79" s="18" t="s">
-        <x:v>104</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D79" s="19"/>
     </x:row>
@@ -3648,7 +3650,7 @@
         <x:v>17822</x:v>
       </x:c>
       <x:c r="C80" s="18" t="s">
-        <x:v>251</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="D80" s="19"/>
     </x:row>
@@ -3657,7 +3659,7 @@
         <x:v>16939</x:v>
       </x:c>
       <x:c r="C81" s="18" t="s">
-        <x:v>109</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D81" s="19"/>
     </x:row>
@@ -3666,7 +3668,7 @@
         <x:v>16974</x:v>
       </x:c>
       <x:c r="C82" s="21" t="s">
-        <x:v>245</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="D82" s="19"/>
     </x:row>
@@ -3675,7 +3677,7 @@
         <x:v>20061</x:v>
       </x:c>
       <x:c r="C83" s="21" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D83" s="19"/>
     </x:row>
@@ -3684,7 +3686,7 @@
         <x:v>19236</x:v>
       </x:c>
       <x:c r="C84" s="21" t="s">
-        <x:v>254</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="D84" s="19"/>
     </x:row>
@@ -3693,7 +3695,7 @@
         <x:v>19237</x:v>
       </x:c>
       <x:c r="C85" s="21" t="s">
-        <x:v>264</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="D85" s="19"/>
     </x:row>
@@ -3746,53 +3748,53 @@
   <x:sheetData>
     <x:row r="1" spans="1:1" ht="26.25">
       <x:c r="A1" s="14" t="s">
-        <x:v>120</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="2:12" ht="20.25">
       <x:c r="B2" s="33" t="s">
-        <x:v>87</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="C2" s="33"/>
       <x:c r="D2" s="33"/>
       <x:c r="F2" s="33" t="s">
-        <x:v>91</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="G2" s="33"/>
       <x:c r="H2" s="33"/>
       <x:c r="J2" s="33" t="s">
-        <x:v>96</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="K2" s="33"/>
       <x:c r="L2" s="33"/>
     </x:row>
     <x:row r="3" spans="2:12">
       <x:c r="B3" s="22" t="s">
-        <x:v>35</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C3" s="22" t="s">
-        <x:v>32</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D3" s="22" t="s">
-        <x:v>195</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F3" s="22" t="s">
-        <x:v>35</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G3" s="22" t="s">
-        <x:v>32</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H3" s="22" t="s">
-        <x:v>195</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="J3" s="22" t="s">
-        <x:v>35</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K3" s="22" t="s">
-        <x:v>32</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="L3" s="22" t="s">
-        <x:v>195</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:12">
@@ -3800,21 +3802,21 @@
         <x:v>16968</x:v>
       </x:c>
       <x:c r="C4" s="24" t="s">
-        <x:v>111</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D4" s="25"/>
       <x:c r="F4" s="23">
         <x:v>17779</x:v>
       </x:c>
       <x:c r="G4" s="24" t="s">
-        <x:v>157</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="H4" s="25"/>
       <x:c r="J4" s="23">
         <x:v>16985</x:v>
       </x:c>
       <x:c r="K4" s="24" t="s">
-        <x:v>108</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="L4" s="25"/>
     </x:row>
@@ -3823,21 +3825,21 @@
         <x:v>16917</x:v>
       </x:c>
       <x:c r="C5" s="24" t="s">
-        <x:v>125</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D5" s="25"/>
       <x:c r="F5" s="23">
         <x:v>17070</x:v>
       </x:c>
       <x:c r="G5" s="24" t="s">
-        <x:v>122</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H5" s="25"/>
       <x:c r="J5" s="23">
         <x:v>17090</x:v>
       </x:c>
       <x:c r="K5" s="24" t="s">
-        <x:v>263</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="L5" s="25"/>
     </x:row>
@@ -3846,21 +3848,21 @@
         <x:v>16922</x:v>
       </x:c>
       <x:c r="C6" s="24" t="s">
-        <x:v>117</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D6" s="25"/>
       <x:c r="F6" s="23">
         <x:v>17069</x:v>
       </x:c>
       <x:c r="G6" s="24" t="s">
-        <x:v>128</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H6" s="25"/>
       <x:c r="J6" s="23">
         <x:v>12931</x:v>
       </x:c>
       <x:c r="K6" s="24" t="s">
-        <x:v>161</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="L6" s="25"/>
     </x:row>
@@ -3869,21 +3871,21 @@
         <x:v>16924</x:v>
       </x:c>
       <x:c r="C7" s="24" t="s">
-        <x:v>171</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="D7" s="25"/>
       <x:c r="F7" s="23">
         <x:v>16638</x:v>
       </x:c>
       <x:c r="G7" s="24" t="s">
-        <x:v>103</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H7" s="25"/>
       <x:c r="J7" s="23">
         <x:v>16958</x:v>
       </x:c>
       <x:c r="K7" s="24" t="s">
-        <x:v>267</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="L7" s="25"/>
     </x:row>
@@ -3892,21 +3894,21 @@
         <x:v>16936</x:v>
       </x:c>
       <x:c r="C8" s="24" t="s">
-        <x:v>159</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="D8" s="25"/>
       <x:c r="F8" s="23">
         <x:v>17085</x:v>
       </x:c>
       <x:c r="G8" s="24" t="s">
-        <x:v>123</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="H8" s="25"/>
       <x:c r="J8" s="23">
         <x:v>12908</x:v>
       </x:c>
       <x:c r="K8" s="24" t="s">
-        <x:v>268</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="L8" s="25"/>
     </x:row>
@@ -3915,21 +3917,21 @@
         <x:v>16937</x:v>
       </x:c>
       <x:c r="C9" s="24" t="s">
-        <x:v>266</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D9" s="25"/>
       <x:c r="F9" s="23">
         <x:v>17825</x:v>
       </x:c>
       <x:c r="G9" s="24" t="s">
-        <x:v>182</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="H9" s="25"/>
       <x:c r="J9" s="23">
         <x:v>16957</x:v>
       </x:c>
       <x:c r="K9" s="24" t="s">
-        <x:v>141</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="L9" s="25"/>
     </x:row>
@@ -3938,21 +3940,21 @@
         <x:v>16938</x:v>
       </x:c>
       <x:c r="C10" s="24" t="s">
-        <x:v>270</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="D10" s="25"/>
       <x:c r="F10" s="23">
         <x:v>16987</x:v>
       </x:c>
       <x:c r="G10" s="24" t="s">
-        <x:v>106</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="H10" s="25"/>
       <x:c r="J10" s="23">
         <x:v>16971</x:v>
       </x:c>
       <x:c r="K10" s="24" t="s">
-        <x:v>166</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="L10" s="25"/>
     </x:row>
@@ -3961,21 +3963,21 @@
         <x:v>16943</x:v>
       </x:c>
       <x:c r="C11" s="24" t="s">
-        <x:v>261</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="D11" s="25"/>
       <x:c r="F11" s="23">
         <x:v>16988</x:v>
       </x:c>
       <x:c r="G11" s="24" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H11" s="25"/>
       <x:c r="J11" s="23">
         <x:v>17472</x:v>
       </x:c>
       <x:c r="K11" s="24" t="s">
-        <x:v>28</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="L11" s="25"/>
     </x:row>
@@ -3984,21 +3986,21 @@
         <x:v>16637</x:v>
       </x:c>
       <x:c r="C12" s="24" t="s">
-        <x:v>160</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="D12" s="25"/>
       <x:c r="F12" s="23">
         <x:v>15684</x:v>
       </x:c>
       <x:c r="G12" s="24" t="s">
-        <x:v>148</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="H12" s="25"/>
       <x:c r="J12" s="23">
         <x:v>14056</x:v>
       </x:c>
       <x:c r="K12" s="24" t="s">
-        <x:v>137</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="L12" s="25"/>
     </x:row>
@@ -4007,14 +4009,14 @@
         <x:v>15683</x:v>
       </x:c>
       <x:c r="C13" s="27" t="s">
-        <x:v>70</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D13" s="25"/>
       <x:c r="F13" s="26">
         <x:v>16945</x:v>
       </x:c>
       <x:c r="G13" s="27" t="s">
-        <x:v>80</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="H13" s="25"/>
       <x:c r="J13" s="9"/>
@@ -4026,14 +4028,14 @@
         <x:v>17088</x:v>
       </x:c>
       <x:c r="C14" s="27" t="s">
-        <x:v>158</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="D14" s="25"/>
       <x:c r="F14" s="26">
         <x:v>16953</x:v>
       </x:c>
       <x:c r="G14" s="27" t="s">
-        <x:v>167</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="H14" s="25"/>
       <x:c r="J14" s="9"/>
@@ -4045,14 +4047,14 @@
         <x:v>15686</x:v>
       </x:c>
       <x:c r="C15" s="27" t="s">
-        <x:v>164</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="D15" s="25"/>
       <x:c r="F15" s="26">
         <x:v>17136</x:v>
       </x:c>
       <x:c r="G15" s="27" t="s">
-        <x:v>271</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="H15" s="25"/>
       <x:c r="J15" s="9"/>
@@ -4064,14 +4066,14 @@
         <x:v>2210</x:v>
       </x:c>
       <x:c r="C16" s="27" t="s">
-        <x:v>265</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="D16" s="25"/>
       <x:c r="F16" s="26">
         <x:v>17471</x:v>
       </x:c>
       <x:c r="G16" s="27" t="s">
-        <x:v>149</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="H16" s="25"/>
       <x:c r="J16" s="9"/>
@@ -4083,7 +4085,7 @@
         <x:v>2422</x:v>
       </x:c>
       <x:c r="C17" s="27" t="s">
-        <x:v>107</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D17" s="25"/>
       <x:c r="F17" s="9"/>
@@ -4095,7 +4097,7 @@
         <x:v>17089</x:v>
       </x:c>
       <x:c r="C18" s="27" t="s">
-        <x:v>272</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D18" s="25"/>
       <x:c r="F18" s="9"/>
@@ -4107,7 +4109,7 @@
         <x:v>17406</x:v>
       </x:c>
       <x:c r="C19" s="27" t="s">
-        <x:v>115</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D19" s="25"/>
       <x:c r="F19" s="9"/>
@@ -4119,7 +4121,7 @@
         <x:v>17135</x:v>
       </x:c>
       <x:c r="C20" s="27" t="s">
-        <x:v>151</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="D20" s="25"/>
       <x:c r="F20" s="9"/>
@@ -4131,7 +4133,7 @@
         <x:v>17281</x:v>
       </x:c>
       <x:c r="C21" s="27" t="s">
-        <x:v>62</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D21" s="25"/>
       <x:c r="F21" s="9"/>
@@ -4140,39 +4142,39 @@
     </x:row>
     <x:row r="23" spans="1:1" ht="26.25">
       <x:c r="A23" s="14" t="s">
-        <x:v>112</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="2:8" ht="20.25">
       <x:c r="B24" s="33" t="s">
-        <x:v>13</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C24" s="33"/>
       <x:c r="D24" s="33"/>
       <x:c r="F24" s="33" t="s">
-        <x:v>5</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G24" s="33"/>
       <x:c r="H24" s="33"/>
     </x:row>
     <x:row r="25" spans="2:8">
       <x:c r="B25" s="22" t="s">
-        <x:v>35</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C25" s="22" t="s">
-        <x:v>32</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D25" s="22" t="s">
-        <x:v>195</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F25" s="22" t="s">
-        <x:v>35</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G25" s="22" t="s">
-        <x:v>32</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H25" s="22" t="s">
-        <x:v>195</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="2:8">
@@ -4180,14 +4182,14 @@
         <x:v>8111</x:v>
       </x:c>
       <x:c r="C26" s="24" t="s">
-        <x:v>179</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D26" s="25"/>
       <x:c r="F26" s="23">
         <x:v>2252</x:v>
       </x:c>
       <x:c r="G26" s="24" t="s">
-        <x:v>260</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="H26" s="25"/>
     </x:row>
@@ -4196,14 +4198,14 @@
         <x:v>17071</x:v>
       </x:c>
       <x:c r="C27" s="24" t="s">
-        <x:v>145</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="D27" s="25"/>
       <x:c r="F27" s="23">
         <x:v>2056</x:v>
       </x:c>
       <x:c r="G27" s="24" t="s">
-        <x:v>37</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H27" s="25"/>
     </x:row>
@@ -4212,14 +4214,14 @@
         <x:v>16973</x:v>
       </x:c>
       <x:c r="C28" s="24" t="s">
-        <x:v>150</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="D28" s="25"/>
       <x:c r="F28" s="23">
         <x:v>14263</x:v>
       </x:c>
       <x:c r="G28" s="24" t="s">
-        <x:v>269</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="H28" s="25"/>
     </x:row>
@@ -4228,7 +4230,7 @@
         <x:v>1175</x:v>
       </x:c>
       <x:c r="C29" s="24" t="s">
-        <x:v>53</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D29" s="25"/>
     </x:row>
@@ -4237,7 +4239,7 @@
         <x:v>16959</x:v>
       </x:c>
       <x:c r="C30" s="24" t="s">
-        <x:v>25</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D30" s="25"/>
     </x:row>
@@ -4246,7 +4248,7 @@
         <x:v>16952</x:v>
       </x:c>
       <x:c r="C31" s="24" t="s">
-        <x:v>23</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D31" s="25"/>
     </x:row>
@@ -4255,7 +4257,7 @@
         <x:v>12851</x:v>
       </x:c>
       <x:c r="C32" s="24" t="s">
-        <x:v>172</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="D32" s="25"/>
     </x:row>
@@ -4264,7 +4266,7 @@
         <x:v>9328</x:v>
       </x:c>
       <x:c r="C33" s="24" t="s">
-        <x:v>47</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D33" s="25"/>
     </x:row>
@@ -4273,7 +4275,7 @@
         <x:v>16920</x:v>
       </x:c>
       <x:c r="C34" s="24" t="s">
-        <x:v>262</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="D34" s="25"/>
     </x:row>
@@ -4282,7 +4284,7 @@
         <x:v>15653</x:v>
       </x:c>
       <x:c r="C35" s="27" t="s">
-        <x:v>193</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D35" s="25"/>
     </x:row>
@@ -4291,7 +4293,7 @@
         <x:v>15558</x:v>
       </x:c>
       <x:c r="C36" s="27" t="s">
-        <x:v>147</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="D36" s="25"/>
     </x:row>
@@ -4300,7 +4302,7 @@
         <x:v>1385</x:v>
       </x:c>
       <x:c r="C37" s="27" t="s">
-        <x:v>48</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D37" s="25"/>
     </x:row>
@@ -4311,25 +4313,25 @@
     </x:row>
     <x:row r="39" spans="1:1" ht="26.25">
       <x:c r="A39" s="14" t="s">
-        <x:v>86</x:v>
+        <x:v>253</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="2:4" ht="20.25">
       <x:c r="B40" s="33" t="s">
-        <x:v>129</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C40" s="33"/>
       <x:c r="D40" s="33"/>
     </x:row>
     <x:row r="41" spans="2:4">
       <x:c r="B41" s="22" t="s">
-        <x:v>35</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C41" s="22" t="s">
-        <x:v>32</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D41" s="22" t="s">
-        <x:v>195</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="2:4">
@@ -4337,7 +4339,7 @@
         <x:v>1695</x:v>
       </x:c>
       <x:c r="C42" s="24" t="s">
-        <x:v>114</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D42" s="25"/>
     </x:row>
@@ -4346,7 +4348,7 @@
         <x:v>11049</x:v>
       </x:c>
       <x:c r="C43" s="24" t="s">
-        <x:v>139</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D43" s="25"/>
     </x:row>
@@ -4355,7 +4357,7 @@
         <x:v>12969</x:v>
       </x:c>
       <x:c r="C44" s="24" t="s">
-        <x:v>39</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D44" s="25"/>
     </x:row>
@@ -4364,7 +4366,7 @@
         <x:v>14238</x:v>
       </x:c>
       <x:c r="C45" s="24" t="s">
-        <x:v>163</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="D45" s="25"/>
     </x:row>
@@ -4373,7 +4375,7 @@
         <x:v>12026</x:v>
       </x:c>
       <x:c r="C46" s="24" t="s">
-        <x:v>146</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="D46" s="25"/>
     </x:row>
@@ -4382,7 +4384,7 @@
         <x:v>12996</x:v>
       </x:c>
       <x:c r="C47" s="24" t="s">
-        <x:v>162</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="D47" s="25"/>
     </x:row>
@@ -4391,7 +4393,7 @@
         <x:v>2281</x:v>
       </x:c>
       <x:c r="C48" s="24" t="s">
-        <x:v>154</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="D48" s="25"/>
     </x:row>
@@ -4400,7 +4402,7 @@
         <x:v>3012</x:v>
       </x:c>
       <x:c r="C49" s="24" t="s">
-        <x:v>18</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D49" s="25"/>
     </x:row>
@@ -4409,7 +4411,7 @@
         <x:v>2616</x:v>
       </x:c>
       <x:c r="C50" s="24" t="s">
-        <x:v>177</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D50" s="25"/>
     </x:row>
@@ -4418,7 +4420,7 @@
         <x:v>1413</x:v>
       </x:c>
       <x:c r="C51" s="27" t="s">
-        <x:v>20</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D51" s="25"/>
     </x:row>
@@ -4427,7 +4429,7 @@
         <x:v>10564</x:v>
       </x:c>
       <x:c r="C52" s="27" t="s">
-        <x:v>152</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="D52" s="25"/>
     </x:row>
@@ -4436,7 +4438,7 @@
         <x:v>1970</x:v>
       </x:c>
       <x:c r="C53" s="27" t="s">
-        <x:v>64</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D53" s="25"/>
     </x:row>
@@ -4445,7 +4447,7 @@
         <x:v>2163</x:v>
       </x:c>
       <x:c r="C54" s="27" t="s">
-        <x:v>153</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="D54" s="25"/>
     </x:row>
@@ -4454,31 +4456,31 @@
         <x:v>12872</x:v>
       </x:c>
       <x:c r="C55" s="27" t="s">
-        <x:v>155</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="D55" s="25"/>
     </x:row>
     <x:row r="57" spans="1:1" ht="26.25">
       <x:c r="A57" s="14" t="s">
-        <x:v>93</x:v>
+        <x:v>262</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="2:4" ht="20.25">
       <x:c r="B58" s="33" t="s">
-        <x:v>142</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C58" s="33"/>
       <x:c r="D58" s="33"/>
     </x:row>
     <x:row r="59" spans="2:4">
       <x:c r="B59" s="22" t="s">
-        <x:v>35</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C59" s="22" t="s">
-        <x:v>32</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D59" s="22" t="s">
-        <x:v>195</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="2:4">
@@ -4486,7 +4488,7 @@
         <x:v>1913</x:v>
       </x:c>
       <x:c r="C60" s="24" t="s">
-        <x:v>52</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D60" s="25"/>
     </x:row>
@@ -4495,7 +4497,7 @@
         <x:v>1952</x:v>
       </x:c>
       <x:c r="C61" s="24" t="s">
-        <x:v>165</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="D61" s="25"/>
     </x:row>
@@ -4504,7 +4506,7 @@
         <x:v>1959</x:v>
       </x:c>
       <x:c r="C62" s="24" t="s">
-        <x:v>156</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="D62" s="25"/>
     </x:row>
@@ -4513,7 +4515,7 @@
         <x:v>4577</x:v>
       </x:c>
       <x:c r="C63" s="24" t="s">
-        <x:v>51</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D63" s="25"/>
     </x:row>
@@ -4522,7 +4524,7 @@
         <x:v>2064</x:v>
       </x:c>
       <x:c r="C64" s="24" t="s">
-        <x:v>175</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="D64" s="25"/>
     </x:row>
@@ -4531,7 +4533,7 @@
         <x:v>3107</x:v>
       </x:c>
       <x:c r="C65" s="24" t="s">
-        <x:v>174</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="D65" s="25"/>
     </x:row>
@@ -4540,7 +4542,7 @@
         <x:v>2571</x:v>
       </x:c>
       <x:c r="C66" s="24" t="s">
-        <x:v>181</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D66" s="25"/>
     </x:row>
@@ -4549,7 +4551,7 @@
         <x:v>1089</x:v>
       </x:c>
       <x:c r="C67" s="24" t="s">
-        <x:v>21</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D67" s="25"/>
     </x:row>
@@ -4558,7 +4560,7 @@
         <x:v>20056</x:v>
       </x:c>
       <x:c r="C68" s="24" t="s">
-        <x:v>92</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="D68" s="25"/>
     </x:row>
@@ -4567,7 +4569,7 @@
         <x:v>20057</x:v>
       </x:c>
       <x:c r="C69" s="27" t="s">
-        <x:v>84</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="D69" s="25"/>
     </x:row>
@@ -4576,7 +4578,7 @@
         <x:v>20058</x:v>
       </x:c>
       <x:c r="C70" s="27" t="s">
-        <x:v>99</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="D70" s="25"/>
     </x:row>
@@ -4585,7 +4587,7 @@
         <x:v>5373</x:v>
       </x:c>
       <x:c r="C71" s="27" t="s">
-        <x:v>58</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D71" s="25"/>
     </x:row>
